--- a/subsetting_results/diagnosis/subsetting-diagnosis-rslsql-snails-Native-gpt4o.xlsx
+++ b/subsetting_results/diagnosis/subsetting-diagnosis-rslsql-snails-Native-gpt4o.xlsx
@@ -581,7 +581,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'location': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
+          <t>{'location': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataSnakeDataCollection.LocationID'}}</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection', 'tblFieldDataTurtleMeasurements'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tblFieldDataSnakeDataCollection'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{'locations': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
+          <t>{'locations': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.Trap_#', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Trap_#'}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{'location?': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'traps': {'tblFieldDataTurtleTrapSurveys.Trap_#'}}</t>
+          <t>{'location?': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'traps': {'tblFieldDataTurtleTrapSurveys.Trap_#'}}</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{'location': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
+          <t>{'location': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{'location': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'trap': {'tblFieldDataTurtleTrapSurveys.Trap_#'}}</t>
+          <t>{'location': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'trap': {'tblFieldDataTurtleTrapSurveys.Trap_#'}}</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Count'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -876,12 +876,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATAMINNOWTRAPSURVEYS.LOCATIONID': [('ASIS_HERPS_20H', 'ASIS_HERPS_20H')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{'location': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'stage': {'tluStage.Stage', 'tblFieldDataGreenCardObservations.Stage', 'tblFieldDataTimeConstrainedSearches.Stage'}}</t>
+          <t>{'location': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'stage': {'tblFieldDataTimeConstrainedSearches.Stage', 'tluStage.Stage', 'tblFieldDataGreenCardObservations.Stage'}}</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties', 'tblFieldDataAmphibianCallCounts'}</t>
+          <t>{'tblFieldDataAmphibianCallCounts', 'tblFieldDataWaterProperties'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataWaterProperties.TempC'}</t>
+          <t>{'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.LocationID'}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{'locations': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID'}}</t>
+          <t>{'locations': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataSnakeDataCollection.LocationID'}}</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.Conductivity', 'tblFieldDataWaterProperties.pH', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.RecordID', 'tblFieldDataTurtleTrapSurveys.RecordID'}</t>
+          <t>{'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.pH', 'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataWaterProperties.RecordID', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Conductivity'}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{'temperature,': {'tblFieldDataTurtleMeasurements.Substrate_Temperature'}, 'locations': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
+          <t>{'temperature,': {'tblFieldDataTurtleMeasurements.Substrate_Temperature'}, 'locations': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataSnakeDataCollection.LocationID'}}</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleTrapSurveys.Comments', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataTurtleMeasurements.Sex'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleTrapSurveys.Comments', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleTrapSurveys.RecordID'}</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{'IDs': {'tblFieldDataSnakeDataCollection.RecordID', 'tblFieldDataMinnowTrapSurveys.RecordID', 'tblFieldDataTimeConstrainedSearches.RecordID', 'tblFieldDataWaterProperties.RecordID', 'tblFieldDataGreenCardObservations.RecordID', 'tblFieldDataCoverBoard.RecordID', 'tblFieldDataAmphibianCallCounts.RecordID'}, 'comments': {'tblFieldDataGreenCardObservations.Comments', 'tblFieldDataCoverBoard.Comments', 'tblFieldDataMinnowTrapSurveys.Comments', 'tblFieldDataAmphibianCallCounts.Comments'}, 'record': {'tblFieldDataSnakeDataCollection.RecordID', 'tblFieldDataMinnowTrapSurveys.RecordID', 'tblFieldDataTimeConstrainedSearches.RecordID', 'tblFieldDataWaterProperties.RecordID', 'tblFieldDataGreenCardObservations.RecordID', 'tblFieldDataCoverBoard.RecordID', 'tblFieldDataAmphibianCallCounts.RecordID'}, 'sex': {'tblFieldDataTimeConstrainedSearches.Sex', 'tblFieldDataSnakeDataCollection.Sex'}}</t>
+          <t>{'IDs': {'tblFieldDataCoverBoard.RecordID', 'tblFieldDataSnakeDataCollection.RecordID', 'tblFieldDataGreenCardObservations.RecordID', 'tblFieldDataTimeConstrainedSearches.RecordID', 'tblFieldDataWaterProperties.RecordID', 'tblFieldDataAmphibianCallCounts.RecordID', 'tblFieldDataMinnowTrapSurveys.RecordID'}, 'comments': {'tblFieldDataAmphibianCallCounts.Comments', 'tblFieldDataCoverBoard.Comments', 'tblFieldDataMinnowTrapSurveys.Comments', 'tblFieldDataGreenCardObservations.Comments'}, 'record': {'tblFieldDataCoverBoard.RecordID', 'tblFieldDataSnakeDataCollection.RecordID', 'tblFieldDataGreenCardObservations.RecordID', 'tblFieldDataTimeConstrainedSearches.RecordID', 'tblFieldDataWaterProperties.RecordID', 'tblFieldDataAmphibianCallCounts.RecordID', 'tblFieldDataMinnowTrapSurveys.RecordID'}, 'sex': {'tblFieldDataSnakeDataCollection.Sex', 'tblFieldDataTimeConstrainedSearches.Sex'}}</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{'sex': {'tblFieldDataTimeConstrainedSearches.Sex', 'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataSnakeDataCollection.Sex'}}</t>
+          <t>{'sex': {'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataSnakeDataCollection.Sex', 'tblFieldDataTimeConstrainedSearches.Sex'}}</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Weight', 'tblFieldDataSnakeDataCollection.SVL', 'tblFieldDataSnakeDataCollection.Sex'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.Sex', 'tblFieldDataSnakeDataCollection.Weight', 'tblFieldDataSnakeDataCollection.SVL'}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Species_Code', 'tblFieldDataSnakeDataCollection.TLength', 'tblFieldDataSnakeDataCollection.Weight'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.Weight', 'tblFieldDataSnakeDataCollection.Species_Code', 'tblFieldDataSnakeDataCollection.TLength'}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{'species.': {'tblFieldDataTurtleTrapSurveys.Species_Code', 'tluSpecies.Species_Code', 'tblFieldDataCoverBoard.Species_Code', 'tblFieldDataAmphibianCallCounts.Species_Code', 'tblFieldDataGreenCardObservations.Species_Code', 'tblFieldDataMinnowTrapSurveys.Species_Code', 'tblFieldDataTurtleMeasurements.Species_Code', 'tblFieldDataTimeConstrainedSearches.Species_Code'}}</t>
+          <t>{'species.': {'tblFieldDataGreenCardObservations.Species_Code', 'tblFieldDataTimeConstrainedSearches.Species_Code', 'tblFieldDataTurtleTrapSurveys.Species_Code', 'tblFieldDataTurtleMeasurements.Species_Code', 'tblFieldDataAmphibianCallCounts.Species_Code', 'tluSpecies.Species_Code', 'tblFieldDataCoverBoard.Species_Code', 'tblFieldDataMinnowTrapSurveys.Species_Code'}}</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements', 'tlinkObservers', 'Observer_LU'}</t>
+          <t>{'tlinkObservers', 'tblFieldDataTurtleMeasurements', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'Observer_LU.Agency/Title', 'tblFieldDataTurtleMeasurements.RecordID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tlinkObservers.EventID', 'tblFieldDataTurtleMeasurements.EventID'}</t>
+          <t>{'tlinkObservers.ObsInits', 'tblFieldDataTurtleMeasurements.RecordID', 'Observer_LU.ObsInits', 'tblFieldDataTurtleMeasurements.EventID', 'tlinkObservers.EventID', 'Observer_LU.Agency/Title'}</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'tblEvents', 'tlinkObservers', 'tblEventDataHerps', 'Observer_LU'}</t>
+          <t>{'tblEventDataHerps', 'tlinkObservers', 'Observer_LU', 'tblEvents'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'tblEvents.EventID', 'tblEventDataHerps.ObsInits', 'tblEventDataHerps.EventID', 'tblEvents.Year', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'Observer_LU.FirstName', 'Observer_LU.LastName', 'tlinkObservers.EventID'}</t>
+          <t>{'Observer_LU.ObsInits', 'Observer_LU.FirstName', 'tblEventDataHerps.EventID', 'tblEvents.Year', 'tlinkObservers.ObsInits', 'tblEventDataHerps.ObsInits', 'Observer_LU.LastName', 'tlinkObservers.EventID', 'tblEvents.EventID'}</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>{'OBSERVER_LU.FIRSTNAME': [('all', 'ALLISON'), ('Allison', 'ALLISON'), ('by Allison', 'ALLISON'), ('Allison Turner', 'ALLISON'), ('observed by Allison', 'ALLISON'), ('by Allison Turner', 'ALLISON')], 'OBSERVER_LU.LASTNAME': [('Turner', 'TURNER'), ('Allison Turner', 'TURNER'), ('by Allison Turner', 'TURNER')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{'IDs': {'tblFieldDataSnakeDataCollection.EventID', 'tblFieldDataAmphibianCallCounts.EventID', 'tblFieldDataCoverBoard.EventID', 'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataGreenCardObservations.EventID', 'tblFieldDataWaterProperties.EventID', 'tblFieldDataTimeConstrainedSearches.EventID', 'tblFieldDataTurtleTrapSurveys.EventID', 'tblFieldDataMinnowTrapSurveys.EventID'}, 'event': {'tblFieldDataSnakeDataCollection.EventID', 'tblFieldDataAmphibianCallCounts.EventID', 'tblFieldDataCoverBoard.EventID', 'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataGreenCardObservations.EventID', 'tblFieldDataWaterProperties.EventID', 'tblFieldDataTimeConstrainedSearches.EventID', 'tblFieldDataTurtleTrapSurveys.EventID', 'tblFieldDataMinnowTrapSurveys.EventID'}}</t>
+          <t>{'IDs': {'tblFieldDataWaterProperties.EventID', 'tblFieldDataAmphibianCallCounts.EventID', 'tblFieldDataGreenCardObservations.EventID', 'tblFieldDataCoverBoard.EventID', 'tblFieldDataTimeConstrainedSearches.EventID', 'tblFieldDataSnakeDataCollection.EventID', 'tblFieldDataTurtleTrapSurveys.EventID', 'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataMinnowTrapSurveys.EventID'}, 'event': {'tblFieldDataWaterProperties.EventID', 'tblFieldDataAmphibianCallCounts.EventID', 'tblFieldDataGreenCardObservations.EventID', 'tblFieldDataCoverBoard.EventID', 'tblFieldDataTimeConstrainedSearches.EventID', 'tblFieldDataSnakeDataCollection.EventID', 'tblFieldDataTurtleTrapSurveys.EventID', 'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataMinnowTrapSurveys.EventID'}}</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements', 'tlinkObservers', 'Observer_LU'}</t>
+          <t>{'tlinkObservers', 'tblFieldDataTurtleMeasurements', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tlinkObservers.EventID', 'Observer_LU.FirstName', 'Observer_LU.LastName', 'tblFieldDataTurtleMeasurements.EventID'}</t>
+          <t>{'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'Observer_LU.FirstName', 'tblFieldDataTurtleMeasurements.EventID', 'Observer_LU.LastName', 'tlinkObservers.EventID'}</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{'species': {'tblFieldDataTurtleTrapSurveys.Species_Code', 'tblFieldDataSnakeDataCollection.Species_Code', 'tluSpecies.Species_Code', 'tblFieldDataCoverBoard.Species_Code', 'tblFieldDataAmphibianCallCounts.Species_Code', 'tblFieldDataMinnowTrapSurveys.Species_Code', 'tblFieldDataTurtleMeasurements.Species_Code', 'tblFieldDataTimeConstrainedSearches.Species_Code'}}</t>
+          <t>{'species': {'tblFieldDataTimeConstrainedSearches.Species_Code', 'tblFieldDataTurtleTrapSurveys.Species_Code', 'tblFieldDataTurtleMeasurements.Species_Code', 'tblFieldDataSnakeDataCollection.Species_Code', 'tblFieldDataAmphibianCallCounts.Species_Code', 'tluSpecies.Species_Code', 'tblFieldDataCoverBoard.Species_Code', 'tblFieldDataMinnowTrapSurveys.Species_Code'}}</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMY', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocationsPoints.UTMX'}</t>
+          <t>{'tblLocationsPoints.UTMY', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocationsPoints.UTMX', 'tblLocationsPoints.LocationID'}</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{'ID': {'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'location': {'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'locations': {'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
+          <t>{'ID': {'tblLocations.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID'}, 'location': {'tblLocations.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataSnakeDataCollection.LocationID'}, 'locations': {'tblLocations.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataSnakeDataCollection.LocationID'}}</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{'description': {'tluProject.Description', 'tluEggMassStages.Description', 'tluCallIndex.Description', 'tluBehavior.Description', 'tluSubstrate.Description', 'tluWindSpeed.Description', 'tluSampleZone.Description', 'tluCaptureMethod.Description', 'tluHabitat.Description', 'tluMicroHabitat.Description'}, 'stage': {'tblFieldDataGreenCardObservations.Stage', 'tblFieldDataTimeConstrainedSearches.Stage'}}</t>
+          <t>{'description': {'tluMicroHabitat.Description', 'tluProject.Description', 'tluSampleZone.Description', 'tluWindSpeed.Description', 'tluSubstrate.Description', 'tluCallIndex.Description', 'tluCaptureMethod.Description', 'tluHabitat.Description', 'tluBehavior.Description', 'tluEggMassStages.Description'}, 'stage': {'tblFieldDataTimeConstrainedSearches.Stage', 'tblFieldDataGreenCardObservations.Stage'}}</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>{'TBLABUNDANCE_LU.ABUNDANCE': [('occasional', 'OCCASIONAL'), ('the occasional', 'OCCASIONAL'), ('of the occasional', 'OCCASIONAL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1626,12 +1626,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATACOVERBOARD.TYPE': [('wood?', 'WOOD'), ('of wood?', 'WOOD'), ('wood? Only', 'WOOD'), ('out of wood?', 'WOOD'), ('of wood? Only', 'WOOD'), ('wood? Only include', 'WOOD')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{'IDs': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'location': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'locations': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocations.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
+          <t>{'IDs': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'location': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'locations': {'tblLocations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.Type', 'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.LocationID', 'tblLocations.SiteID'}</t>
+          <t>{'tblLocations.LocationID', 'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataCoverBoard.Type', 'tblLocations.SiteID'}</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{'ID': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
+          <t>{'ID': {'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.Type', 'tblFieldDataCoverBoard.EventID', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.LocationID', 'tblEventDataHerps.EventID', 'tblLocations.SiteID', 'tblEventDataHerps.Weather', 'tblEventDataHerps.AirTemp'}</t>
+          <t>{'tblLocations.LocationID', 'tblEventDataHerps.EventID', 'tblFieldDataCoverBoard.EventID', 'tblFieldDataCoverBoard.LocationID', 'tblEventDataHerps.AirTemp', 'tblFieldDataCoverBoard.Type', 'tblLocations.SiteID', 'tblEventDataHerps.Weather'}</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATACOVERBOARD.TYPE': [('material', 'METAL')], 'TBLLOCATIONS.SITEID': [('30CB2', '30CB2'), ('with id 30CB2', '30CB2')], 'TBLEVENTDATAHERPS.WEATHER': [('on cloudy days', 'CLOUDY')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.CaptureMethod'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Behavior'}</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATASNAKEDATACOLLECTION.CAPTUREMETHOD': [('using the coverboard', 'COVERBOARD'), ('the coverboard method?', 'COVERBOARD'), ('coverboard', 'COVERBOARD'), ('the coverboard', 'COVERBOARD'), ('coverboard method?', 'COVERBOARD')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{'captured': {'tluCaptureMethod.CaptureMethod'}, 'snakes': {'tblFieldDataSnakeDataCollection.SnakeID', 'tblFieldDataTimeConstrainedSearches.SnakeID', 'tblFieldDataCoverBoard.SnakeID'}, 'behavior': {'tblFieldDataTurtleMeasurements.Behavior', 'tluBehavior.Behavior'}}</t>
+          <t>{'captured': {'tluCaptureMethod.CaptureMethod'}, 'snakes': {'tblFieldDataCoverBoard.SnakeID', 'tblFieldDataSnakeDataCollection.SnakeID', 'tblFieldDataTimeConstrainedSearches.SnakeID'}, 'behavior': {'tluBehavior.Behavior', 'tblFieldDataTurtleMeasurements.Behavior'}}</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Notes', 'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.CaptureMethod'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.Notes'}</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATASNAKEDATACOLLECTION.NOTES': [('rafters?', 'RAFTERS'), ('word rafters?', 'RAFTERS'), ('the word rafters?', 'RAFTERS')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{'notes': {'Observer_LU.Notes', 'tblLocations.Notes', 'tblFieldDataTimeConstrainedSearches.Notes'}, 'record': {'tblFieldDataSnakeDataCollection.RecordID'}, 'capture': {'tluCaptureMethod.CaptureMethod'}, 'behaviors': {'tblFieldDataTurtleMeasurements.Behavior', 'tluBehavior.Behavior'}}</t>
+          <t>{'notes': {'tblLocations.Notes', 'tblFieldDataTimeConstrainedSearches.Notes', 'Observer_LU.Notes'}, 'record': {'tblFieldDataSnakeDataCollection.RecordID'}, 'capture': {'tluCaptureMethod.CaptureMethod'}, 'behaviors': {'tluBehavior.Behavior', 'tblFieldDataTurtleMeasurements.Behavior'}}</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints', 'tblLocations', 'tblFieldDataCoverBoard'}</t>
+          <t>{'tblLocations', 'tblLocationsPoints', 'tblFieldDataCoverBoard'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.LocationID', 'tblLocations.LocationID', 'tblLocationsPoints.PointID', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.SnakeID', 'tblFieldDataCoverBoard.Recapture', 'tblLocationsPoints.UTMY', 'tblLocationsPoints.UTMX'}</t>
+          <t>{'tblLocations.LocationID', 'tblFieldDataCoverBoard.Board_#', 'tblLocationsPoints.UTMX', 'tblFieldDataCoverBoard.SnakeID', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMY', 'tblFieldDataCoverBoard.Recapture', 'tblFieldDataCoverBoard.LocationID', 'tblLocationsPoints.PointID', 'tblLocations.SiteID'}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{'IDs,': {'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'location': {'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'snake': {'tblFieldDataSnakeDataCollection.SnakeID', 'tblFieldDataTimeConstrainedSearches.SnakeID'}}</t>
+          <t>{'IDs,': {'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'location': {'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'snake': {'tblFieldDataSnakeDataCollection.SnakeID', 'tblFieldDataTimeConstrainedSearches.SnakeID'}}</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'tblEvents', 'tlinkObservers', 'Observer_LU', 'tblFieldDataCoverBoard'}</t>
+          <t>{'tblEvents', 'tblFieldDataCoverBoard', 'Observer_LU', 'tlinkObservers'}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.EventID', 'tblEvents.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tlinkObservers.EventID'}</t>
+          <t>{'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tlinkObservers.EventID', 'tblFieldDataCoverBoard.EventID', 'tblEvents.EventID'}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.Weather', 'tblEventDataHerps.AirTemp', 'tblEventDataHerps.WaterTemp'}</t>
+          <t>{'tblEventDataHerps.WaterTemp', 'tblEventDataHerps.AirTemp', 'tblEventDataHerps.Weather'}</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'tlinkObservers', 'tblEventDataHerps', 'Observer_LU'}</t>
+          <t>{'tblEventDataHerps', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.ObsInits', 'tblEventDataHerps.AirTemp', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tblEventDataHerps.EventID', 'tlinkObservers.EventID'}</t>
+          <t>{'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tblEventDataHerps.ObsInits', 'tblEventDataHerps.AirTemp', 'tlinkObservers.EventID', 'tblEventDataHerps.EventID'}</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.Weather', 'tblEventDataHerps.AirTemp'}</t>
+          <t>{'tblEventDataHerps.AirTemp', 'tblEventDataHerps.Weather'}</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>{'TLUPROJECT.PROJECT': [('WQ?', 'WQ'), ('code WQ?', 'WQ'), ('project code WQ?', 'WQ')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{'description': {'tluCallIndex.Description', 'tluEggMassStages.Description', 'tluStage.Description', 'tluBehavior.Description', 'tluSubstrate.Description', 'tluWindSpeed.Description', 'tluSampleZone.Description', 'tluCaptureMethod.Description', 'tluHabitat.Description', 'tluMicroHabitat.Description'}, 'project': {'tblEvents.Project', 'tblLocations.Project'}}</t>
+          <t>{'description': {'tluMicroHabitat.Description', 'tluStage.Description', 'tluSampleZone.Description', 'tluWindSpeed.Description', 'tluSubstrate.Description', 'tluCallIndex.Description', 'tluCaptureMethod.Description', 'tluHabitat.Description', 'tluBehavior.Description', 'tluEggMassStages.Description'}, 'project': {'tblLocations.Project', 'tblEvents.Project'}}</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>{'TLUPARKCODE.PARKCODE': [('is', 'ASIS'), ('ASIS?', 'ASIS'), ('is the', 'ASIS'), ('with code ASIS?', 'ASIS')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>{'tluEvidenceCode.Text', 'tluEvidenceCode.Evidence_Code'}</t>
+          <t>{'tluEvidenceCode.Evidence_Code', 'tluEvidenceCode.Text'}</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>{'TLUEVIDENCECODE.EVIDENCE_CODE': [('DOR', 'DOR'), ('DOR mean?', 'DOR'), ('code DOR mean?', 'DOR')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>{'TLUMICROHABITAT.HABITAT': [("'Temporary", 'TEMPORARY'), ("'Permanent", 'TEMPORARY'), ("the 'Temporary", 'TEMPORARY'), ("'Temporary Pond'", 'TEMPORARY'), ("and 'Permanent", 'TEMPORARY'), ("of the 'Temporary", 'TEMPORARY'), ("the 'Temporary Pond'", 'TEMPORARY'), ("'Temporary Pond' and", 'TEMPORARY'), ("'Temporary", 'PERMANENT'), ("'Permanent", 'PERMANENT'), ("the 'Temporary", 'PERMANENT'), ("and 'Permanent", 'PERMANENT'), ("'Permanent Pond'", 'PERMANENT'), ("of the 'Temporary", 'PERMANENT'), ("Pond' and 'Permanent", 'PERMANENT'), ("and 'Permanent Pond'", 'PERMANENT'), ("'Permanent Pond' micro", 'PERMANENT')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{'descriptions': {'tluProject.Description', 'tluStage.Description', 'tluCallIndex.Description', 'tluEggMassStages.Description', 'tluBehavior.Description', 'tluSubstrate.Description', 'tluWindSpeed.Description', 'tluSampleZone.Description', 'tluCaptureMethod.Description', 'tluHabitat.Description'}, 'habitat': {'tblLocations.Habitat', 'tluHabitat.Habitat', 'tblFieldDataTurtleMeasurements.Habitat', 'tblEventDataHerps.Habitat', 'tblFieldDataTimeConstrainedSearches.Habitat'}, 'habitats.': {'tblLocations.Habitat', 'tluHabitat.Habitat', 'tblFieldDataTurtleMeasurements.Habitat', 'tblEventDataHerps.Habitat', 'tblFieldDataTimeConstrainedSearches.Habitat'}}</t>
+          <t>{'descriptions': {'tluStage.Description', 'tluProject.Description', 'tluSampleZone.Description', 'tluWindSpeed.Description', 'tluSubstrate.Description', 'tluCallIndex.Description', 'tluCaptureMethod.Description', 'tluHabitat.Description', 'tluBehavior.Description', 'tluEggMassStages.Description'}, 'habitat': {'tblFieldDataTimeConstrainedSearches.Habitat', 'tblLocations.Habitat', 'tblFieldDataTurtleMeasurements.Habitat', 'tblEventDataHerps.Habitat', 'tluHabitat.Habitat'}, 'habitats.': {'tblFieldDataTimeConstrainedSearches.Habitat', 'tblLocations.Habitat', 'tblFieldDataTurtleMeasurements.Habitat', 'tblEventDataHerps.Habitat', 'tluHabitat.Habitat'}}</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleTrapSurveys.Trap_Type', 'tblLocations.LocationID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.Trap_Type', 'tblLocations.LocationID', 'tblFieldDataTurtleTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>{'TBLFIELDDATATURTLETRAPSURVEYS.TRAP_TYPE': [('crab', 'CRAB'), ('turtle', 'CRAB'), ('have crab', 'CRAB'), ('crab type', 'CRAB'), ('IDs have crab', 'CRAB'), ('have crab type', 'CRAB'), ('crab type turtle', 'CRAB')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{'IDs': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblLocations.SiteID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}, 'type': {'tblFieldDataCoverBoard.Type'}, 'location': {'tblFieldDataGreenCardObservations.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}}</t>
+          <t>{'IDs': {'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblLocations.SiteID'}, 'type': {'tblFieldDataCoverBoard.Type'}, 'location': {'tblFieldDataTimeConstrainedSearches.LocationID', 'tblFieldDataGreenCardObservations.LocationID', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblLocationsPoints.LocationID', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataWaterProperties.LocationID', 'tblFieldDataSnakeDataCollection.LocationID'}}</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Carapace_Width'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Carapace_Width', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Plastron_Width'}</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{'sex?': {'tblFieldDataTimeConstrainedSearches.Sex', 'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataSnakeDataCollection.Sex'}}</t>
+          <t>{'sex?': {'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataSnakeDataCollection.Sex', 'tblFieldDataTimeConstrainedSearches.Sex'}}</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.genus', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.genus'}</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{'tree': {'tlu_PlantSpecies.species'}, 'name.': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'code,': {'tbl_Seedlings.SpCode', 'tbl_Tree_Tags.SpCode', 'tbl_Overstory.SpCode', 'tbl_Saplings.spcode'}, 'genus,': {'tlu_PlantSpecies.species'}, 'species': {'tlu_PlantSpecies.species'}}</t>
+          <t>{'tree': {'tlu_PlantSpecies.species'}, 'name.': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'code,': {'tbl_Saplings.spcode', 'tbl_Tree_Tags.SpCode', 'tbl_Seedlings.SpCode', 'tbl_Overstory.SpCode'}, 'genus,': {'tlu_PlantSpecies.species'}, 'species': {'tlu_PlantSpecies.species'}}</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.CommonName'}</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>{'subplots': {'tbl_Tree_Tags.Plot'}, 'geni': {'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}}</t>
+          <t>{'subplots': {'tbl_Tree_Tags.Plot'}, 'geni': {'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus'}}</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>{'decay': {'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr'}}</t>
+          <t>{'decay': {'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID'}}</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>{'decay?': {'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr'}}</t>
+          <t>{'decay?': {'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID'}}</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>{'decay': {'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr'}, 'event': {'tbl_Overstory.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Nests.Event_ID', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Events.Event_Notes'}}</t>
+          <t>{'decay': {'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID'}, 'event': {'tbl_Saplings.Event_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Events.Event_Notes', 'tbl_Overstory.Event_ID', 'tbl_Nests.Event_ID', 'tbl_Events.Event_Date'}}</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Event_ID', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay', 'tbl_Deadwood.Event_ID', 'tlu_DecayStage.DecayStage_ID'}</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>{'event': {'tbl_Overstory.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Nests.Event_ID', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Events.Event_Notes'}}</t>
+          <t>{'event': {'tbl_Saplings.Event_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Events.Event_Notes', 'tbl_Overstory.Event_ID', 'tbl_Nests.Event_ID', 'tbl_Events.Event_Date'}}</t>
         </is>
       </c>
     </row>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Nests.Event_ID'}</t>
+          <t>{'tbl_Deadwood.Event_ID', 'tbl_Events.Event_ID', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_Locations.X_Coord', 'tbl_Events.Location_ID', 'tbl_Locations.Directions', 'tbl_Locations.Y_Coord', 'tbl_Locations.Plot_ID'}</t>
+          <t>{'tbl_Locations.Plot_ID', 'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Location_ID', 'tbl_Locations.Directions'}</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID'}, 'ID,': {'tlu_topo_position.ID', 'tbl_Overstory.Event_ID', 'tlu_PlaceNames.ID', 'tbl_Deadwood.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Nests.Event_ID', 'tbl_Nests.Nest_ID', 'tbl_WitnessTrees.Location_ID'}, 'event': {'tbl_Overstory.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Nests.Event_ID'}, 'Plot': {'tbl_Tree_Tags.Plot'}, 'coordinates,': {'tbl_Deadwood.X_coord', 'tbl_Deadwood.Y_coord'}, 'x': {'tbl_Deadwood.X_coord'}, 'y': {'tbl_Deadwood.Y_coord'}}</t>
+          <t>{'location': {'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID'}, 'ID,': {'tbl_Saplings.Event_ID', 'tbl_WitnessTrees.Location_ID', 'tbl_Deadwood.Event_ID', 'tlu_PlaceNames.ID', 'tbl_Seedlings.Event_ID', 'tlu_topo_position.ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Overstory.Event_ID', 'tbl_Nests.Event_ID', 'tbl_Nests.Nest_ID'}, 'event': {'tbl_Saplings.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Overstory.Event_ID', 'tbl_Nests.Event_ID'}, 'Plot': {'tbl_Tree_Tags.Plot'}, 'coordinates,': {'tbl_Deadwood.X_coord', 'tbl_Deadwood.Y_coord'}, 'x': {'tbl_Deadwood.X_coord'}, 'y': {'tbl_Deadwood.Y_coord'}}</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.genus'}</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2976,12 +2976,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.GENUS': [('Acer', 'ACER'), ('the Acer', 'ACER'), ('of the Acer', 'ACER')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>{'trees': {'tlu_PlantSpecies.species'}, 'genus?': {'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.species'}}</t>
+          <t>{'trees': {'tlu_PlantSpecies.species'}, 'genus?': {'tlu_PlantSpecies.species', 'tlu_PlantSpecies.subspecies'}}</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos'}</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>{'name': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}}</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag', 'tlu_Tree_Cond.TreeCond_Text', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.CommonName', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.TreeCond', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.SpCode', 'tbl_Overstory.TreeTag'}</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3076,12 +3076,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>{'TLU_TREE_COND.TREECOND_TEXT': [("'down'.", 'DOWN'), ("is 'down'.", 'DOWN'), ("'down'. Include", 'DOWN'), ("condition is 'down'.", 'DOWN'), ("is 'down'. Include", 'DOWN'), ("'down'. Include the", 'DOWN')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>{'tree': {'tbl_Tree_Tags.Tree_Tag_ID', 'tlu_PlantSpecies.species'}, 'trees': {'tlu_PlantSpecies.species'}, 'name.': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'tag': {'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Tag'}, 'number,': {'tlu_Live_Dead.Cond_Num'}, 'species': {'tlu_PlantSpecies.species'}}</t>
+          <t>{'tree': {'tlu_PlantSpecies.species', 'tbl_Tree_Tags.Tree_Tag_ID'}, 'trees': {'tlu_PlantSpecies.species'}, 'name.': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'tag': {'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Tree_Tag_ID'}, 'number,': {'tlu_Live_Dead.Cond_Num'}, 'species': {'tlu_PlantSpecies.species'}}</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>{'saplings': {'tbl_Overstory', 'tbl_Seedlings', 'tlu_PlantSpecies'}}</t>
+          <t>{'saplings': {'tbl_Seedlings', 'tbl_Overstory', 'tlu_PlantSpecies'}}</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>{'saplings': {'tbl_Saplings.Saplings_ID'}, 'code': {'tbl_Seedlings.SpCode', 'tbl_Tree_Tags.SpCode', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode'}, 'species': {'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}}</t>
+          <t>{'saplings': {'tbl_Saplings.Saplings_ID'}, 'code': {'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode', 'tbl_Tree_Tags.SpCode', 'tbl_Seedlings.SpCode'}, 'species': {'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.subspecies'}}</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>{'saplings': {'tbl_Saplings.Saplings_ID'}, 'class': {'tbl_Saplings.DClass4', 'tbl_Saplings.DClass1', 'tbl_Saplings.DClass2'}}</t>
+          <t>{'saplings': {'tbl_Saplings.Saplings_ID'}, 'class': {'tbl_Saplings.DClass2', 'tbl_Saplings.DClass1', 'tbl_Saplings.DClass4'}}</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>{'seedling': {'tlu_PlantSpecies', 'tbl_Saplings'}}</t>
+          <t>{'seedling': {'tbl_Saplings', 'tlu_PlantSpecies'}}</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Seedlings.SpCode'}</t>
+          <t>{'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density'}</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>{'code?': {'tbl_Tree_Tags.SpCode', 'tbl_Overstory.SpCode', 'tbl_Saplings.spcode', 'tbl_Nests.SpCode'}, 'species': {'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}}</t>
+          <t>{'code?': {'tbl_Nests.SpCode', 'tbl_Tree_Tags.SpCode', 'tbl_Saplings.spcode', 'tbl_Overstory.SpCode'}, 'species': {'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.subspecies'}}</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Elevation', 'tbl_Locations.SiteDescription', 'tbl_Locations.Loc_Notes'}</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_Locations.Loc_Notes', 'tbl_Locations.SiteDescription'}</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_Locations.Location_ID'}, 'locations': {'tbl_Locations.Location_ID'}, 'notes': {'tbl_Tree_Tags.Notes', 'tlu_Roads_and_Trails.Notes', 'tbl_Overstory.notes'}}</t>
+          <t>{'location': {'tbl_Locations.Location_ID'}, 'locations': {'tbl_Locations.Location_ID'}, 'notes': {'tlu_Roads_and_Trails.Notes', 'tbl_Tree_Tags.Notes', 'tbl_Overstory.notes'}}</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{'tbl_Nests', 'tlu_Cover_Cls'}</t>
+          <t>{'tlu_Cover_Cls', 'tbl_Nests'}</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Cover', 'tbl_Nests.Event_ID', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num'}</t>
+          <t>{'tlu_Cover_Cls.CoverClass_Num', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Cover', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>{'ID,': {'tlu_topo_position.ID', 'tbl_Overstory.Event_ID', 'tlu_PlaceNames.ID', 'tbl_Deadwood.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Events.Event_ID', 'tbl_Nests.Nest_ID'}, 'event': {'tbl_Overstory.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Events.Event_ID'}, 'plots': {'tbl_Tree_Tags.Plot'}}</t>
+          <t>{'ID,': {'tbl_Saplings.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Events.Event_ID', 'tlu_PlaceNames.ID', 'tbl_Seedlings.Event_ID', 'tlu_topo_position.ID', 'tbl_Overstory.Event_ID', 'tbl_Nests.Nest_ID'}, 'event': {'tbl_Saplings.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Overstory.Event_ID'}, 'plots': {'tbl_Tree_Tags.Plot'}}</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Witness_Azimuth', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_stake'}</t>
+          <t>{'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_Azimuth'}</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>{'tree': {'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Tree_Tag_ID'}, 'trees': {'tbl_Overstory.TreeTag'}}</t>
+          <t>{'tree': {'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Overstory.TreeTag'}, 'trees': {'tbl_Overstory.TreeTag'}}</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode', 'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.genus'}</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>{'witness': {'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.WitnessTree_ID'}, 'genus': {'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.SpeciesNotes'}, 'species,': {'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.SpeciesNotes'}}</t>
+          <t>{'witness': {'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.WitnessTree_ID'}, 'genus': {'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.subgenus'}, 'species,': {'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.subgenus'}}</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails', 'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tlu_Roads_and_Trails', 'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails.ListedName', 'tbl_Events.Event_ID', 'tlu_Roads_and_Trails.ValidName', 'tbl_Locations.Trail', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tlu_Roads_and_Trails.ListedName', 'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tlu_Roads_and_Trails.ValidName', 'tbl_Locations.Trail'}</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID'}, 'id': {'tlu_topo_position.ID', 'tlu_PlaceNames.ID'}, 'names': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'event': {'tbl_Overstory.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Nests.Event_ID'}}</t>
+          <t>{'location': {'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID'}, 'id': {'tlu_PlaceNames.ID', 'tlu_topo_position.ID'}, 'names': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'event': {'tbl_Saplings.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Overstory.Event_ID', 'tbl_Nests.Event_ID'}}</t>
         </is>
       </c>
     </row>
@@ -3611,12 +3611,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>{'tree': {'tbl_Overstory', 'tbl_WitnessTrees'}}</t>
+          <t>{'tree': {'tbl_WitnessTrees', 'tbl_Overstory'}}</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.State', 'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tbl_Locations.Location_ID', 'tbl_Locations.PlaceNameID', 'tbl_Tree_Tags.Location_ID'}</t>
+          <t>{'tlu_PlaceNames.County', 'tbl_Locations.PlaceNameID', 'tbl_Locations.Location_ID', 'tlu_PlaceNames.ID', 'tlu_PlaceNames.State', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>{'tree': {'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Tree_Tag_ID'}, 'tags': {'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Tag'}}</t>
+          <t>{'tree': {'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Overstory.TreeTag'}, 'tags': {'tbl_Tree_Tags.Tag', 'tbl_Overstory.TreeTag'}}</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.Name'}</t>
+          <t>{'tlu_PlaceNames.utmN', 'tlu_PlaceNames.County', 'tlu_PlaceNames.Name', 'tlu_PlaceNames.utmE'}</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>{'TLU_PLACENAMES.COUNTY': [('Blount', 'BLOUNT'), ('in Blount', 'BLOUNT')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>{'name.': {'sysdiagrams.name'}, 'coordinates': {'tbl_Deadwood.Y_coord', 'tbl_Locations.Y_Coord', 'tbl_Deadwood.X_coord', 'tbl_Locations.X_Coord'}}</t>
+          <t>{'name.': {'sysdiagrams.name'}, 'coordinates': {'tbl_Locations.Y_Coord', 'tbl_Deadwood.X_coord', 'tbl_Deadwood.Y_coord', 'tbl_Locations.X_Coord'}}</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>{'tlu_topo_position.ID', 'tbl_Locations.X_Coord', 'tbl_Locations.Topo_Position', 'tlu_topo_position.TopoPosition', 'tbl_Locations.Y_Coord'}</t>
+          <t>{'tlu_topo_position.TopoPosition', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Topo_Position', 'tlu_topo_position.ID'}</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>{'TLU_LIVE_DEAD.COND_TEXT': [("'Dead'", 'DEAD'), ("the 'Dead'", 'DEAD'), ("'Dead' condition", 'DEAD'), ("for the 'Dead'", 'DEAD'), ("the 'Dead' condition", 'DEAD')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames', 'tbl_Overstory', 'tlu_PlantSpecies', 'tbl_Tree_Tags', 'tbl_Locations'}</t>
+          <t>{'tlu_PlaceNames', 'tbl_Overstory', 'tbl_Locations', 'tbl_Tree_Tags', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>{'(trees)': {'tbl_WitnessTrees', 'tbl_Saplings'}}</t>
+          <t>{'(trees)': {'tbl_Saplings', 'tbl_WitnessTrees'}}</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeTag', 'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.SpCode', 'tbl_Overstory.SpCode', 'tbl_Locations.PlaceNameID', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.Tree_Tag_ID', 'tlu_PlantSpecies.genus', 'tbl_Locations.Location_ID', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlaceNames.County', 'tbl_Locations.Location_ID', 'tlu_PlaceNames.ID', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.SpCode', 'tbl_Locations.PlaceNameID', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Overstory.TreeTag'}</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>{'TLU_PLACENAMES.COUNTY': [('Swain', 'SWAIN'), ('in Swain', 'SWAIN'), ('(trees) in Swain', 'SWAIN')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>{'name,': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'overstory': {'tbl_Overstory.Overstory_ID'}}</t>
+          <t>{'name,': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'overstory': {'tbl_Overstory.Overstory_ID'}}</t>
         </is>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory', 'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
+          <t>{'tbl_Seedlings', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3961,17 +3961,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>{'tree': {'tbl_Tree_Tags', 'tbl_Saplings'}}</t>
+          <t>{'tree': {'tbl_Saplings', 'tbl_Tree_Tags'}}</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Seedlings_ID', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tbl_Overstory.Overstory_ID', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.Overstory_ID', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName', 'tbl_Seedlings.SpCode', 'tbl_Overstory.SpCode', 'tbl_Seedlings.Seedlings_ID'}</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.Overstory_ID', 'tbl_Seedlings.Seedlings_ID'}</t>
+          <t>{'tbl_Seedlings.Seedlings_ID', 'tbl_Overstory.Overstory_ID'}</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>{'name': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'name.': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'species': {'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.SpeciesNotes'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'name.': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'species': {'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.genus'}}</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Xcoord'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{'tbl_Nests', 'tlu_Cover_Cls'}</t>
+          <t>{'tlu_Cover_Cls', 'tbl_Nests'}</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.R2', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num'}</t>
+          <t>{'tbl_Nests.R2', 'tlu_Cover_Cls.CoverClass_Num', 'tlu_Cover_Cls.CoverClass_Text'}</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{'tlu_Presence', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Presence'}</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>{'decay?': {'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}}</t>
+          <t>{'decay?': {'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}}</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Length', 'tbl_Deadwood.Decay'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Length'}</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>{'decay?': {'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}}</t>
+          <t>{'decay?': {'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}}</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Slope', 'tbl_Locations.SiteDescription', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Slope_shape', 'tbl_Locations.Aspect', 'tbl_Locations.Loc_Notes'}</t>
+          <t>{'tbl_Locations.Slope', 'tbl_Locations.SiteDescription', 'tbl_Locations.Aspect', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Loc_Notes', 'tbl_Locations.Slope_shape'}</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4376,12 +4376,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.SLOPE_SHAPE': [('with a convex', 'CONVEX')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_Locations.Location_ID'}, 'locations': {'tbl_Locations.Location_ID'}, 'notes,': {'tbl_Tree_Tags.Notes', 'tbl_Overstory.notes', 'tlu_Roads_and_Trails.Notes'}}</t>
+          <t>{'location': {'tbl_Locations.Location_ID'}, 'locations': {'tbl_Locations.Location_ID'}, 'notes,': {'tlu_Roads_and_Trails.Notes', 'tbl_Tree_Tags.Notes', 'tbl_Overstory.notes'}}</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.QuadName', 'tbl_Locations.Topo_Position'}</t>
+          <t>{'tbl_Locations.Topo_Position', 'tbl_Locations.QuadName'}</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_Locations.Location_ID'}, 'name': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'position': {'tlu_topo_position.TopoPosition'}}</t>
+          <t>{'location': {'tbl_Locations.Location_ID'}, 'name': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'position': {'tlu_topo_position.TopoPosition'}}</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond', 'tbl_Saplings'}</t>
+          <t>{'tbl_Saplings', 'tlu_Tree_Cond'}</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.Condition', 'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tbl_Saplings.Condition', 'tlu_Tree_Cond.TreeCond_Num'}</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Notes', 'VERTEBRATES.Ownership', 'VERTEBRATES.Common_Name'}</t>
+          <t>{'VERTEBRATES.Ownership', 'VERTEBRATES.Notes', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OWNERSHIP': [('Bureau', 'BLM'), ('Land', 'BLM'), ('(BLM)', 'BLM'), ('Bureau of', 'BLM'), ('Management (BLM)', 'BLM'), ('Bureau of Land', 'BLM'), ('of Land Management', 'BLM'), ('Land Management (BLM)', 'BLM')], 'VERTEBRATES.COMMON_NAME': [('gray', 'GRAY'), ('for gray', 'GRAY'), ('gray wolf', 'GRAY'), ('notes for gray', 'GRAY')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OBSERVER': [('Stefanic', 'STEFANIC'), ('either Stefanic', 'STEFANIC'), ('Stefanic or', 'STEFANIC'), ('by either Stefanic', 'STEFANIC'), ('either Stefanic or', 'STEFANIC'), ('Stefanic or Dennis', 'STEFANIC'), ('Dennis', 'DENNIS'), ('or Dennis', 'DENNIS'), ('Dennis Hauser?', 'DENNIS'), ('Stefanic or Dennis', 'DENNIS'), ('or Dennis Hauser?', 'DENNIS')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'Breeding_Codes'}</t>
+          <t>{'Breeding_Codes', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>{'Breeding_Codes.Breed', 'Breeding_Codes.Definition', 'VERTEBRATES.Common_Name', 'VERTEBRATES.BREED'}</t>
+          <t>{'VERTEBRATES.BREED', 'Breeding_Codes.Definition', 'VERTEBRATES.Common_Name', 'Breeding_Codes.Breed'}</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4626,12 +4626,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.COMMON_NAME': [("'mule", 'MULE')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>{'definition': {'sysdiagrams.definition', 'HABITAT_CODES.Definition'}, 'Common_Name': {'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}, 'species': {'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species', 'VERTEBRATES.Species'}}</t>
+          <t>{'definition': {'sysdiagrams.definition', 'HABITAT_CODES.Definition'}, 'Common_Name': {'sysdiagrams.name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}, 'species': {'Paste_Errors.Species', 'Roadkill.Species', 'VERTEBRATES.Species', 'WILDLIFE_MASTERLIST.SPECIES'}}</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species'}</t>
+          <t>{'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Class', 'INVERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.CLASS': [('invertebrates', 'ARACHNIDA'), ('Arachnida', 'ARACHNIDA'), ('all invertebrates', 'ARACHNIDA'), ('invertebrates of', 'ARACHNIDA'), ('class Arachnida', 'ARACHNIDA'), ('for all invertebrates', 'ARACHNIDA'), ('all invertebrates of', 'ARACHNIDA'), ('invertebrates of class', 'ARACHNIDA'), ('of class Arachnida', 'ARACHNIDA')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>{'class': {'VERTEBRATES.CLASS', 'Class.Class'}, 'Common_Name': {'VERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}, 'genus': {'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species', 'VERTEBRATES.Species'}, 'species': {'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species', 'VERTEBRATES.Species'}}</t>
+          <t>{'class': {'Class.Class', 'VERTEBRATES.CLASS'}, 'Common_Name': {'sysdiagrams.name', 'VERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}, 'genus': {'Paste_Errors.Species', 'Roadkill.Species', 'VERTEBRATES.Species', 'WILDLIFE_MASTERLIST.SPECIES'}, 'species': {'Paste_Errors.Species', 'Roadkill.Species', 'VERTEBRATES.Species', 'WILDLIFE_MASTERLIST.SPECIES'}}</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{'Invert_Family', 'INVERTEBRATES'}</t>
+          <t>{'INVERTEBRATES', 'Invert_Family'}</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>{'species': {'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species', 'VERTEBRATES.Species'}}</t>
+          <t>{'species': {'Paste_Errors.Species', 'VERTEBRATES.Species', 'WILDLIFE_MASTERLIST.SPECIES'}}</t>
         </is>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Month'}</t>
+          <t>{'Roadkill.Month', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>{'ROADKILL.SPECIES': [('mule', 'MULE'), ('many mule', 'MULE'), ('mule deer', 'MULE'), ('How many mule', 'MULE'), ('many mule deer', 'MULE'), ('mule deer were', 'MULE')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'Roadkill'}</t>
+          <t>{'Roadkill', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>{'Roadkill.Date', 'VERTEBRATES.Date'}</t>
+          <t>{'VERTEBRATES.Date', 'Roadkill.Date'}</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>{'date': {'INVERTEBRATES.Date', 'Paste_Errors.Date'}}</t>
+          <t>{'date': {'Paste_Errors.Date', 'INVERTEBRATES.Date'}}</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>{'species,': {'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species', 'VERTEBRATES.Species'}, 'number': {'VERTEBRATES.Number', 'Roadkill.number_killed', 'INVERTEBRATES.Number'}}</t>
+          <t>{'species,': {'Paste_Errors.Species', 'Roadkill.Species', 'VERTEBRATES.Species', 'WILDLIFE_MASTERLIST.SPECIES'}, 'number': {'INVERTEBRATES.Number', 'VERTEBRATES.Number', 'Roadkill.number_killed'}}</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'INVERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code', 'VERTEBRATES.Habitat'}</t>
+          <t>{'HABITAT_CODES.Definition', 'HABITAT_CODES.Code', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat'}</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
+          <t>{'HABITAT_CODES.Code', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Definition'}</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'INVERTEBRATES.Common_Name', 'VERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Observer', 'INVERTEBRATES.Date', 'VERTEBRATES.Date', 'VERTEBRATES.Habitat'}</t>
+          <t>{'VERTEBRATES.Common_Name', 'INVERTEBRATES.Common_Name', 'VERTEBRATES.Observer', 'INVERTEBRATES.Observer', 'VERTEBRATES.Habitat', 'VERTEBRATES.Date', 'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat'}</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>{'Common_Name': {'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}, 'date,': {'Paste_Errors.Date', 'Roadkill.Date'}}</t>
+          <t>{'Common_Name': {'sysdiagrams.name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}, 'date,': {'Paste_Errors.Date', 'Roadkill.Date'}}</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'INVERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Observer', 'VERTEBRATES.Date', 'INVERTEBRATES.Date', 'HABITAT_CODES.Code', 'HABITAT_CODES.Definition', 'VERTEBRATES.Habitat'}</t>
+          <t>{'HABITAT_CODES.Code', 'HABITAT_CODES.Definition', 'VERTEBRATES.Observer', 'INVERTEBRATES.Observer', 'VERTEBRATES.Habitat', 'VERTEBRATES.Date', 'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat'}</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Location', 'INVERTEBRATES.Genus_species'}</t>
+          <t>{'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Location'}</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5326,12 +5326,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.GENUS_SPECIES': [('Trichodes', 'TRICHODES'), ('Trichodes ornatus', 'TRICHODES'), ('Invertebrate species Trichodes', 'TRICHODES'), ('species Trichodes ornatus', 'TRICHODES'), ('Trichodes ornatus has', 'TRICHODES')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>{'species': {'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species', 'VERTEBRATES.Species'}, 'locations': {'Paste_Errors.Location', 'Roadkill.Location'}, 'where': {'Paste_Errors.Location', 'Roadkill.Location'}}</t>
+          <t>{'species': {'Paste_Errors.Species', 'VERTEBRATES.Species', 'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES'}, 'locations': {'Paste_Errors.Location', 'Roadkill.Location'}, 'where': {'Paste_Errors.Location', 'Roadkill.Location'}}</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.UTME', 'INVERTEBRATES.UTMN'}</t>
+          <t>{'INVERTEBRATES.UTMN', 'INVERTEBRATES.UTME', 'INVERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5426,12 +5426,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.COMMON_NAME': [('north', 'WESTERN'), ('east', 'WESTERN'), ("'western", 'WESTERN')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>{'Common_Name': {'VERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}}</t>
+          <t>{'Common_Name': {'sysdiagrams.name', 'VERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}}</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.UTMN', 'VERTEBRATES.UTME', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Scientific_Name'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Common_Name', 'VERTEBRATES.UTME', 'VERTEBRATES.UTMN'}</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>{'common': {'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}, 'names': {'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}}</t>
+          <t>{'common': {'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}, 'names': {'sysdiagrams.name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}}</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'Roadkill'}</t>
+          <t>{'Roadkill', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>{'Common_Name': {'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}, 'species': {'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species'}}</t>
+          <t>{'Common_Name': {'sysdiagrams.name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}, 'species': {'Paste_Errors.Species', 'WILDLIFE_MASTERLIST.SPECIES'}}</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Family', 'INVERTEBRATES.Number'}</t>
+          <t>{'INVERTEBRATES.Number', 'INVERTEBRATES.Family'}</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>{'PASTE_ERRORS.SPECIES': [("'deer'?", 'DEER'), ("is 'deer'?", 'DEER')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>{'species': {'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES', 'VERTEBRATES.Species'}, 'where': {'Paste_Errors.Location'}}</t>
+          <t>{'species': {'VERTEBRATES.Species', 'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES'}, 'where': {'Paste_Errors.Location'}}</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Class', 'INVERTEBRATES.Order'}</t>
+          <t>{'INVERTEBRATES.Order', 'INVERTEBRATES.Class'}</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5676,12 +5676,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.CLASS': [('invertebrates', 'INSECTA'), ('in', 'INSECTA'), ('Insecta', 'INSECTA'), ('for invertebrates', 'INSECTA'), ('invertebrates in', 'INSECTA'), ('the Insecta', 'INSECTA'), ('Insecta class.', 'INSECTA'), ('orders for invertebrates', 'INSECTA'), ('for invertebrates in', 'INSECTA'), ('invertebrates in the', 'INSECTA'), ('in the Insecta', 'INSECTA'), ('the Insecta class.', 'INSECTA'), ('Insecta class. Only', 'INSECTA')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>{'class.': {'VERTEBRATES.CLASS', 'Class.Class'}}</t>
+          <t>{'class.': {'Class.Class', 'VERTEBRATES.CLASS'}}</t>
         </is>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.LOCATION': [('Hot', 'HOT'), ('the Hot', 'HOT'), ('at the Hot', 'HOT')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Survey'}</t>
+          <t>{'VERTEBRATES.Survey', 'VERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OBSERVER': [('stefanic', 'STEFANIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5826,12 +5826,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST.COMMON_NAME': [('mammal', 'MOOSE'), ('moose?', 'MOOSE'), ('the moose?', 'MOOSE'), ('moose? Only', 'MOOSE'), ('as the moose?', 'MOOSE'), ('the moose? Only', 'MOOSE'), ('moose? Only include', 'MOOSE')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>{'name': {'INVERTEBRATES.Common_Name', 'VERTEBRATES.Common_Name', 'sysdiagrams.name'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'VERTEBRATES.Common_Name', 'INVERTEBRATES.Common_Name'}}</t>
         </is>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>{'Roadkill.Location', 'Roadkill.Big_Game'}</t>
+          <t>{'Roadkill.Big_Game', 'Roadkill.Location'}</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5876,7 +5876,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>{'ROADKILL.BIG_GAME': [("'yes'.", 'YES'), ("is 'yes'.", 'YES')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'Class'}</t>
+          <t>{'Class', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.CLASS', 'Class.Field2', 'Class.Class'}</t>
+          <t>{'Class.Class', 'VERTEBRATES.CLASS', 'Class.Field2'}</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>{'CLASS.FIELD2': [('vertebrate', 'MAMMAL'), ('Mammal', 'MAMMAL'), ('many vertebrate', 'MAMMAL'), ('the Mammal', 'MAMMAL'), ('Mammal class?', 'MAMMAL'), ('of the Mammal', 'MAMMAL'), ('the Mammal class?', 'MAMMAL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Species', 'VERTEBRATES.Number', 'HABITAT_CODES.Code', 'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Common_Name', 'HABITAT_CODES.Definition', 'VERTEBRATES.Habitat'}</t>
+          <t>{'HABITAT_CODES.Code', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Species', 'HABITAT_CODES.Definition', 'VERTEBRATES.Number', 'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Habitat'}</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>{'definition,': {'Breeding_Codes.Definition', 'sysdiagrams.definition'}, 'Common_Name,': {'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}, 'name,': {'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}, 'species,': {'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species'}, 'number': {'INVERTEBRATES.Number', 'sysdiagrams.name'}, 'numbers': {'INVERTEBRATES.Number'}}</t>
+          <t>{'definition,': {'Breeding_Codes.Definition', 'sysdiagrams.definition'}, 'Common_Name,': {'sysdiagrams.name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}, 'name,': {'sysdiagrams.name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}, 'species,': {'Paste_Errors.Species', 'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES'}, 'number': {'sysdiagrams.name', 'INVERTEBRATES.Number'}, 'numbers': {'INVERTEBRATES.Number'}}</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES', 'WILDLIFE_MASTERLIST'}</t>
+          <t>{'WILDLIFE_MASTERLIST', 'VERTEBRATES'}</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>{'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME', 'VERTEBRATES.Scientific_Name'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME'}</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'WILDLIFE_MASTERLIST'}</t>
+          <t>{'WILDLIFE_MASTERLIST', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}</t>
+          <t>{'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>{'Common_Names': {'VERTEBRATES.Common_Name', 'sysdiagrams.name'}}</t>
+          <t>{'Common_Names': {'sysdiagrams.name', 'VERTEBRATES.Common_Name'}}</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>{'species': {'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species', 'VERTEBRATES.Species'}}</t>
+          <t>{'species': {'Paste_Errors.Species', 'VERTEBRATES.Species', 'WILDLIFE_MASTERLIST.SPECIES'}}</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OBSERVER': [('Buckley', 'BUCKLEY'), ('named Buckley', 'BUCKLEY'), ('Buckley made', 'BUCKLEY'), ('named Buckley made', 'BUCKLEY')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.OBSERVER': [('stefanic', 'STEFANIC'), ('stefanic for', 'STEFANIC'), ('stefanic for observations', 'STEFANIC')], 'VERTEBRATES.COMMON_NAME': [('dusky', 'DUSKY'), ('dusky flycatcher', 'DUSKY')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>{'Common_Name': {'INVERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}}</t>
+          <t>{'Common_Name': {'sysdiagrams.name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'INVERTEBRATES.Common_Name'}}</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Order', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Class', 'INVERTEBRATES.Location', 'INVERTEBRATES.Family'}</t>
+          <t>{'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Order', 'INVERTEBRATES.Class', 'INVERTEBRATES.Location', 'INVERTEBRATES.Family'}</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.LOCATION': [('Arco', 'ARCO'), ('Arco Tunnel', 'ARCO'), ('location Arco Tunnel', 'ARCO')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>{'class,': {'VERTEBRATES.CLASS', 'Class.Class'}, 'Common_Names,': {'VERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}, 'genus': {'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species', 'VERTEBRATES.Species'}, 'species,': {'Roadkill.Species', 'WILDLIFE_MASTERLIST.SPECIES', 'Paste_Errors.Species', 'VERTEBRATES.Species'}, 'location': {'Paste_Errors.Location', 'Roadkill.Location'}}</t>
+          <t>{'class,': {'Class.Class', 'VERTEBRATES.CLASS'}, 'Common_Names,': {'sysdiagrams.name', 'VERTEBRATES.Common_Name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}, 'genus': {'Paste_Errors.Species', 'Roadkill.Species', 'VERTEBRATES.Species', 'WILDLIFE_MASTERLIST.SPECIES'}, 'species,': {'Paste_Errors.Species', 'Roadkill.Species', 'VERTEBRATES.Species', 'WILDLIFE_MASTERLIST.SPECIES'}, 'location': {'Paste_Errors.Location', 'Roadkill.Location'}}</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.OBSERVER': [('Munts', 'MUNTS'), ('named Munts', 'MUNTS')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Habitat'}</t>
+          <t>{'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6426,12 +6426,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.COMMON_NAME': [('northern', 'NORTHERN'), ('the northern', 'NORTHERN'), ('that the northern', 'NORTHERN')], 'VERTEBRATES.COMMON_NAME': [('northern', 'NORTHERN'), ('the northern', 'NORTHERN'), ('that the northern', 'NORTHERN')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>{'common': {'WILDLIFE_MASTERLIST.COMMON_NAME'}, 'names': {'WILDLIFE_MASTERLIST.COMMON_NAME', 'sysdiagrams.name'}}</t>
+          <t>{'common': {'WILDLIFE_MASTERLIST.COMMON_NAME'}, 'names': {'sysdiagrams.name', 'WILDLIFE_MASTERLIST.COMMON_NAME'}}</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Events.Location_ID', 'tbl_Events.Start_Date'}</t>
+          <t>{'tbl_Event_Details.Event_Notes', 'tbl_Events.Start_Date', 'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>{'event': {'xref_Event_Contacts.Event_ID', 'tbl_MicroHabitat.Event_ID', 'tbl_MacroHabitat.Event_ID'}, 'IDs': {'tbl_MacroHabitat.Event_ID', 'tbl_Edit_Log.ID', 'tbl_MicroHabitat.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Locations.Location_ID'}, 'notes': {'tbl_Events.Notes', 'tbl_MicroHabitat.Notes', 'tbl_MacroHabitat.Notes'}, 'location': {'tbl_Locations.Location_ID'}}</t>
+          <t>{'event': {'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID', 'xref_Event_Contacts.Event_ID'}, 'IDs': {'tbl_Edit_Log.ID', 'tbl_Locations.Location_ID', 'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID', 'xref_Event_Contacts.Event_ID'}, 'notes': {'tbl_MacroHabitat.Notes', 'tbl_Events.Notes', 'tbl_MicroHabitat.Notes'}, 'location': {'tbl_Locations.Location_ID'}}</t>
         </is>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Events.Start_Date', 'tbl_Locations.Loc_Name'}</t>
+          <t>{'tbl_Event_Details.Event_Notes', 'tbl_Events.Start_Date', 'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>{'event': {'xref_Event_Contacts.Event_ID', 'tbl_MicroHabitat.Event_ID', 'tbl_MacroHabitat.Event_ID'}, 'notes': {'tbl_Events.Notes', 'tbl_MicroHabitat.Notes', 'tbl_MacroHabitat.Notes'}}</t>
+          <t>{'event': {'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID', 'xref_Event_Contacts.Event_ID'}, 'notes': {'tbl_MacroHabitat.Notes', 'tbl_Events.Notes', 'tbl_MicroHabitat.Notes'}}</t>
         </is>
       </c>
     </row>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat', 'tbl_MicroHabitat'}</t>
+          <t>{'tbl_MicroHabitat', 'tbl_MacroHabitat'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.Event_ID', 'tbl_MacroHabitat.Event_ID'}</t>
+          <t>{'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID'}</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>{'TBL_MACROHABITAT.HYDROLOGY': [('Upland', 'UPLAND'), ('with Upland', 'UPLAND'), ('events with Upland', 'UPLAND')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>{'event': {'tbl_Event_Details.Event_ID', 'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID', 'tbl_Events.Event_ID', 'xref_Event_Contacts.Event_ID'}}</t>
+          <t>{'event': {'tbl_Events.Event_ID', 'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Event_Details.Event_ID'}}</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_WHIS', 'tlu_Species_LABE', 'tlu_Species_ORCA', 'tlu_Species_LAVO'}}</t>
+          <t>{'species': {'tlu_Species_LABE', 'tlu_Species_LAVO', 'tlu_Species_WHIS', 'tlu_Species_ORCA'}}</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_LABE.Species', 'tlu_Species_REDW.Species', 'tlu_Species_WHIS.Species', 'tbl_Locations.Species', 'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}}</t>
+          <t>{'species': {'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species', 'tlu_Species_REDW.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species', 'tlu_Species_LABE.Species'}}</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_WHIS', 'tlu_Species_CRLA', 'tlu_Species_ORCA', 'tlu_Species_LAVO'}}</t>
+          <t>{'species': {'tlu_Species_CRLA', 'tlu_Species_LAVO', 'tlu_Species_WHIS', 'tlu_Species_ORCA'}}</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_CRLA.Species', 'tlu_Species_REDW.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species', 'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}}</t>
+          <t>{'species': {'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species', 'tlu_Species_REDW.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species', 'tlu_Species_CRLA.Species'}}</t>
         </is>
       </c>
     </row>
@@ -7011,12 +7011,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_WHIS', 'tlu_Species_LABE', 'tlu_Species_CRLA', 'tlu_Species_LAVO'}}</t>
+          <t>{'species': {'tlu_Species_CRLA', 'tlu_Species_LAVO', 'tlu_Species_WHIS', 'tlu_Species_LABE'}}</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>{'tlu_Species_ORCA.Species', 'tlu_Species_ORCA.SampleYear'}</t>
+          <t>{'tlu_Species_ORCA.SampleYear', 'tlu_Species_ORCA.Species'}</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_CRLA.Species', 'tlu_Species_REDW.Species', 'tlu_Species_LABE.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species', 'tlu_Species_LAVO.Species'}, 'year,': {'tlu_Species_LABE.SampleYear', 'tlu_Species_LAVO.SampleYear', 'tlu_Species_WHIS.SampleYear', 'tlu_Species_CRLA.SampleYear', 'tlu_Species_REDW.SampleYear'}}</t>
+          <t>{'species': {'tlu_Species_LAVO.Species', 'tlu_Species_REDW.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species', 'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species'}, 'year,': {'tlu_Species_LABE.SampleYear', 'tlu_Species_WHIS.SampleYear', 'tlu_Species_CRLA.SampleYear', 'tlu_Species_REDW.SampleYear', 'tlu_Species_LAVO.SampleYear'}}</t>
         </is>
       </c>
     </row>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_ORCA', 'tlu_Species_WHIS', 'tlu_Species_CRLA', 'tlu_Species_LABE', 'tlu_Species_LAVO'}}</t>
+          <t>{'species': {'tlu_Species_LAVO', 'tlu_Species_WHIS', 'tlu_Species_CRLA', 'tlu_Species_LABE', 'tlu_Species_ORCA'}}</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species', 'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}, 'year,': {'tlu_Species_LABE.SampleYear', 'tlu_Species_LAVO.SampleYear', 'tlu_Species_WHIS.SampleYear', 'tlu_Species_CRLA.SampleYear', 'tlu_Species_ORCA.SampleYear'}}</t>
+          <t>{'species': {'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species', 'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species'}, 'year,': {'tlu_Species_LABE.SampleYear', 'tlu_Species_ORCA.SampleYear', 'tlu_Species_WHIS.SampleYear', 'tlu_Species_CRLA.SampleYear', 'tlu_Species_LAVO.SampleYear'}}</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>{'tlu_Species_WHIS', 'tlu_Species_REDW'}</t>
+          <t>{'tlu_Species_REDW', 'tlu_Species_WHIS'}</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -7111,12 +7111,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_CRLA', 'tlu_Species_LABE', 'tlu_Species_ORCA', 'tlu_Species_LAVO'}}</t>
+          <t>{'species': {'tlu_Species_LABE', 'tlu_Species_CRLA', 'tlu_Species_LAVO', 'tlu_Species_ORCA'}}</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>{'tlu_Species_REDW.Species', 'tlu_Species_WHIS.Species'}</t>
+          <t>{'tlu_Species_WHIS.Species', 'tlu_Species_REDW.Species'}</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species', 'tbl_Locations.Species', 'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}, 'species.': {'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species', 'tbl_Locations.Species', 'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}, 'parks': {'tlu_Species_REDW.Park', 'tlu_Species_WHIS.Park'}}</t>
+          <t>{'species': {'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species', 'tbl_Locations.Species', 'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species'}, 'species.': {'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species', 'tbl_Locations.Species', 'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species'}, 'parks': {'tlu_Species_WHIS.Park', 'tlu_Species_REDW.Park'}}</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_ORCA', 'tlu_Species_LAVO'}</t>
+          <t>{'tlu_Species_LAVO', 'tlu_Species_ORCA'}</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_WHIS', 'tlu_Species_LABE', 'tlu_Species_CRLA'}}</t>
+          <t>{'species': {'tlu_Species_CRLA', 'tlu_Species_WHIS', 'tlu_Species_LABE'}}</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}</t>
+          <t>{'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species'}</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>{'species': {'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species', 'tlu_Species_REDW.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species'}, 'species.': {'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species', 'tlu_Species_REDW.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species'}}</t>
+          <t>{'species': {'tlu_Species_REDW.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species', 'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species'}, 'species.': {'tlu_Species_REDW.Species', 'tbl_Locations.Species', 'tlu_Species_WHIS.Species', 'tlu_Species_CRLA.Species', 'tlu_Species_LABE.Species'}}</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.City', 'tlu_Contacts.Position_Title', 'tlu_Contacts.State_Code', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.State_Code', 'tlu_Contacts.City', 'tlu_Contacts.Position_Title'}</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.FIRST_NAME': [('Ivan', 'IVAN'), ('Ivan and', 'IVAN'), ('name Ivan and', 'IVAN'), ('Ivan and the', 'IVAN')], 'TLU_CONTACTS.LAST_NAME': [('C?', 'C'), ('name C?', 'C')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Position_Title'}</t>
+          <t>{'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name'}</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.FIRST_NAME': [('Dominic', 'DOMINIC'), ('is Dominic', 'DOMINIC'), ("Dominic D's", 'DOMINIC'), ('What is Dominic', 'DOMINIC'), ("is Dominic D's", 'DOMINIC'), ("Dominic D's position", 'DOMINIC')], 'TLU_CONTACTS.LAST_NAME': [("D's", 'D'), ("D's position", 'D')]}</t>
+          <t>{'TLU_CONTACTS.LAST_NAME': [("D's", 'D'), ("D's position", 'D')]}</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>{'tlu_Enumerations.Enum_Description', 'tlu_Enumerations.Enum_Group', 'tlu_Enumerations.Enum_Code'}</t>
+          <t>{'tlu_Enumerations.Enum_Description', 'tlu_Enumerations.Enum_Code', 'tlu_Enumerations.Enum_Group'}</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>{'TLU_ENUMERATIONS.ENUM_GROUP': [('Land', 'LAND'), ('the Land', 'LAND'), ('Land Use', 'LAND'), ('in the Land', 'LAND'), ('the Land Use', 'LAND'), ('Land Use enumeration', 'LAND')], 'TLU_ENUMERATIONS.ENUM_CODE': [('Logging', 'LOGGING'), ('the Logging', 'LOGGING'), ('Logging code', 'LOGGING'), ('of the Logging', 'LOGGING'), ('the Logging code', 'LOGGING'), ('Logging code in', 'LOGGING')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'tbl_Db_Revisions'}</t>
+          <t>{'tbl_Db_Revisions', 'tlu_Contacts'}</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -7466,7 +7466,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>{'tbl_Db_Revisions.Revision_Reason', 'tlu_Contacts.Contact_ID', 'tbl_Db_Revisions.Revision_Contact_ID', 'tlu_Contacts.First_Name', 'tbl_Db_Revisions.Revision_Desc', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.First_Name', 'tbl_Db_Revisions.Revision_Reason', 'tlu_Contacts.Last_Name', 'tbl_Db_Revisions.Revision_Desc', 'tlu_Contacts.Contact_ID', 'tbl_Db_Revisions.Revision_Contact_ID'}</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>{'ID,': {'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Edit_Log.ID'}, 'site': {'tbl_Sites.Site_Desc', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID', 'tbl_Sites.Site_Start_Y'}}</t>
+          <t>{'ID,': {'tbl_Edit_Log.ID', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}, 'site': {'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_ID', 'tbl_Sites.Site_Desc', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}}</t>
         </is>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_End_X'}</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>{'TBL_SITES.SITE_NAME': [('Nobles', 'NOBLES'), ('named Nobles', 'NOBLES'), ('Nobles Pass', 'NOBLES'), ('named Nobles Pass', 'NOBLES'), ('Nobles Pass C', 'NOBLES')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>{'site': {'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name'}, 'sites': {'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID'}, 'name': {'tbl_Sites.Site_Name'}}</t>
+          <t>{'site': {'tbl_Sites.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID'}, 'sites': {'tbl_Sites.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID'}, 'name': {'tbl_Sites.Site_Name'}}</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.X_Coord', 'tbl_Sites.Site_Name', 'tbl_Locations.Y_Coord', 'tbl_Locations.Site_ID', 'tbl_Locations.Loc_Name'}</t>
+          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Sites.Site_Name', 'tbl_Locations.Loc_Name', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7726,12 +7726,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>{'TBL_SITES.SITE_NAME': [('North', 'NORTH'), ('named North', 'NORTH'), ('North A', 'NORTH'), ('named North A', 'NORTH')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_Locations.Loc_Type'}, 'locations': {'tbl_Locations.Location_ID'}, 'coordinates': {'tbl_Locations.UTM_Zone', 'tbl_Locations.Coord_System', 'tbl_Locations.Coord_Units'}}</t>
+          <t>{'location': {'tbl_Locations.Loc_Type', 'tbl_Locations.Location_ID'}, 'locations': {'tbl_Locations.Location_ID'}, 'coordinates': {'tbl_Locations.Coord_System', 'tbl_Locations.Coord_Units', 'tbl_Locations.UTM_Zone'}}</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>{'name': {'tlu_Contacts.First_Name'}, 'contact': {'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Contact_ID'}}</t>
+          <t>{'name': {'tlu_Contacts.First_Name'}, 'contact': {'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID'}}</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Events'}</t>
+          <t>{'tlu_Contacts', 'xref_Event_Contacts', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Position_Title', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.First_Name', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Contact_ID', 'tbl_Events.Event_ID', 'tlu_Contacts.Contact_ID', 'tbl_Events.Start_Date', 'tlu_Contacts.Position_Title', 'xref_Event_Contacts.Event_ID'}</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>{'event': {'tbl_MicroHabitat.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_MacroHabitat.Event_ID'}}</t>
+          <t>{'event': {'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID', 'tbl_Event_Details.Event_ID'}}</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name'}, 'locations': {'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name'}, 'name': {'tbl_Locations.Loc_Name'}}</t>
+          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Events.Location_ID'}, 'locations': {'tbl_Locations.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Events.Location_ID'}, 'name': {'tbl_Locations.Loc_Name'}}</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>{'site': {'tbl_Sites.Site_Desc', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID'}, 'site?': {'tbl_Sites.Site_Desc', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID'}, 'sites': {'tbl_Sites.Site_Desc', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID'}}</t>
+          <t>{'site': {'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_Desc'}, 'site?': {'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_Desc'}, 'sites': {'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_Desc'}}</t>
         </is>
       </c>
     </row>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.PDOP', 'tbl_Sites.Site_ID', 'tbl_Locations.EPE', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID', 'tbl_Locations.HDOP'}</t>
+          <t>{'tbl_Locations.HDOP', 'tbl_Sites.Site_ID', 'tbl_Locations.PDOP', 'tbl_Sites.Site_Name', 'tbl_Locations.EPE', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>{'TBL_SITES.SITE_NAME': [('Mule', 'MULE'), ('named Mule', 'MULE'), ('Mule Town', 'MULE'), ('named Mule Town', 'MULE'), ('Mule Town B?', 'MULE')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8026,12 +8026,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.COUNTY': [('Shasta', 'SHASTA'), ('in Shasta', 'SHASTA'), ('Shasta count?', 'SHASTA'), ('there in Shasta', 'SHASTA'), ('in Shasta count?', 'SHASTA')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>{'locations': {'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name'}}</t>
+          <t>{'locations': {'tbl_Locations.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Events.Location_ID'}}</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Type', 'tbl_Locations.County'}</t>
+          <t>{'tbl_Locations.County', 'tbl_Locations.Loc_Type'}</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.COUNTY': [('shasta', 'SHASTA'), ('in shasta', 'SHASTA'), ('shasta county.', 'SHASTA'), ('locations in shasta', 'SHASTA'), ('in shasta county.', 'SHASTA')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>{'locations': {'tbl_Locations.Location_ID', 'tbl_Events.Location_ID'}, 'sites': {'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID'}, 'sites,': {'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_ID'}}</t>
+          <t>{'locations': {'tbl_Locations.Location_ID', 'tbl_Events.Location_ID'}, 'sites': {'tbl_Sites.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID'}, 'sites,': {'tbl_Sites.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID'}}</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Subwatershed', 'tbl_Events.Event_ID', 'tbl_Locations.Watershed', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Subwatershed', 'tbl_Events.Event_ID', 'tbl_Locations.Watershed', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8176,12 +8176,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.WATERSHED': [('Wood', 'WOOD'), ('the Wood', 'WOOD'), ('Wood River', 'WOOD'), ('at the Wood', 'WOOD'), ('the Wood River', 'WOOD')], 'TBL_LOCATIONS.SUBWATERSHED': [('Annie', 'ANNIE'), ('the Annie', 'ANNIE'), ('Annie Creek', 'ANNIE'), ('and the Annie', 'ANNIE'), ('the Annie Creek', 'ANNIE')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>{'event': {'tbl_MicroHabitat.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_MacroHabitat.Event_ID'}, 'IDs': {'tbl_Event_Details.Event_ID', 'tbl_MacroHabitat.Event_ID', 'tbl_Edit_Log.ID', 'tbl_MicroHabitat.Event_ID', 'xref_Event_Contacts.Event_ID'}}</t>
+          <t>{'event': {'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Event_Details.Event_ID'}, 'IDs': {'tbl_Edit_Log.ID', 'tbl_MacroHabitat.Event_ID', 'tbl_MicroHabitat.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Event_Details.Event_ID'}}</t>
         </is>
       </c>
     </row>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Elevation', 'tbl_Locations.Subwatershed'}</t>
+          <t>{'tbl_Locations.Subwatershed', 'tbl_Locations.Elevation'}</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.SUBWATERSHED': [('Annie', 'ANNIE'), ('the Annie', 'ANNIE'), ('Annie Creek', 'ANNIE'), ('of the Annie', 'ANNIE'), ('the Annie Creek', 'ANNIE')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Coord_System', 'tbl_Locations.Loc_Type', 'tbl_Locations.Datum', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Est_H_Error', 'tbl_Locations.Y_Coord', 'tbl_Locations.Loc_Name', 'tbl_Locations.X_Coord', 'tbl_Locations.Coord_Units'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Coord_System', 'tbl_Locations.Est_H_Error', 'tbl_Locations.Y_Coord', 'tbl_Locations.Loc_Type', 'tbl_Locations.Loc_Name', 'tbl_Locations.Datum', 'tbl_Locations.Coord_Units'}</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8326,12 +8326,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.LOC_NAME': [('CRLA-Infestation-3924', 'CRLA-INFESTATION-3924'), ('named CRLA-Infestation-3924', 'CRLA-INFESTATION-3924')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>{'notes': {'tbl_Events.Notes', 'tbl_MicroHabitat.Notes', 'tbl_MacroHabitat.Notes'}}</t>
+          <t>{'notes': {'tbl_MacroHabitat.Notes', 'tbl_Events.Notes', 'tbl_MicroHabitat.Notes'}}</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Aspect', 'tbl_MacroHabitat.Hydrology', 'tbl_Events.Start_Date', 'tbl_Events.Event_ID', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.MacroHab'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.Aspect', 'tbl_MacroHabitat.Hydrology', 'tbl_Events.Start_Date', 'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.Slope'}</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.BareGround', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.Herb', 'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.Deciduous'}</t>
+          <t>{'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Herb', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.Deciduous', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.BareGround'}</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>{'TBL_MICROHABITAT.PHENOLOGY': [('shrub,', 'FLOWERING')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.MPD'}</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8576,12 +8576,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>{'TBL_DEADWOOD.DECAY': [('2a?', '2A'), ('stage 2a?', '2A')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>{'decay': {'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}}</t>
+          <t>{'decay': {'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID'}}</t>
         </is>
       </c>
     </row>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.TRAIL': [('Maddron', 'MADDRON'), ('the Maddron', 'MADDRON'), ('Maddron Bald', 'MADDRON'), ('to the Maddron', 'MADDRON'), ('the Maddron Bald', 'MADDRON')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Events'}</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8666,7 +8666,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_Date', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.SiteDescription'}</t>
+          <t>{'tbl_Locations.Location_ID', 'tbl_Events.Event_Date', 'tbl_Events.Location_ID', 'tbl_Locations.SiteDescription'}</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName', 'tbl_Nests.Event_ID'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode', 'tbl_Nests.Event_ID', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.genus'}</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>{'name': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'type': {'sysdiagrams.name'}, 'event': {'tbl_Overstory.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Events.Event_ID'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'type': {'sysdiagrams.name'}, 'event': {'tbl_Saplings.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Overstory.Event_ID'}}</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.DBH', 'tbl_Overstory.Event_ID', 'tbl_Events.Event_ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.Event_ID', 'tbl_Overstory.DBH', 'tbl_Events.Event_ID', 'tlu_PlantSpecies.species', 'tbl_Overstory.SpCode'}</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.SPECIES': [('montana', 'MONTANA'), ('the montana', 'MONTANA'), ('of the montana', 'MONTANA'), ('the montana species', 'MONTANA'), ('montana species observed', 'MONTANA')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.DClass1', 'tbl_Saplings.DClass4', 'tbl_Saplings.DClass3', 'tbl_Saplings.spcode', 'tbl_Saplings.DClass2'}</t>
+          <t>{'tbl_Saplings.DClass3', 'tbl_Saplings.DClass1', 'tbl_Saplings.DClass4', 'tbl_Saplings.DClass2', 'tbl_Saplings.spcode'}</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8826,12 +8826,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>{'TBL_SAPLINGS.SPCODE': [('Abiefra', 'ABIEFRA'), ('species code Abiefra', 'ABIEFRA')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>{'code': {'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tbl_Tree_Tags.SpCode', 'tbl_Nests.SpCode'}, 'species': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species'}}</t>
+          <t>{'code': {'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode', 'tbl_Tree_Tags.SpCode', 'tbl_Seedlings.SpCode'}, 'species': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species'}}</t>
         </is>
       </c>
     </row>
@@ -8866,7 +8866,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.genus'}</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.GENUS': [('Acer', 'ACER'), ('the Acer', 'ACER'), ('of the Acer', 'ACER')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Events.Location_ID', 'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Event_ID'}</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8926,12 +8926,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.GENUS': [('Acer', 'ACER'), ('the Acer', 'ACER'), ('of the Acer', 'ACER')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID'}, 'ID,': {'tlu_topo_position.ID', 'tbl_Overstory.Event_ID', 'tlu_PlaceNames.ID', 'tbl_Deadwood.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Nests.Event_ID', 'tbl_Locations.Location_ID', 'tbl_WitnessTrees.Location_ID'}, 'genus.': {'tlu_PlantSpecies.species'}}</t>
+          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID'}, 'ID,': {'tbl_Saplings.Event_ID', 'tbl_WitnessTrees.Location_ID', 'tbl_Deadwood.Event_ID', 'tbl_Locations.Location_ID', 'tlu_PlaceNames.ID', 'tlu_topo_position.ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Overstory.Event_ID', 'tbl_Nests.Event_ID'}, 'genus.': {'tlu_PlantSpecies.species'}}</t>
         </is>
       </c>
     </row>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.State', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.County'}</t>
+          <t>{'tlu_PlaceNames.utmN', 'tlu_PlaceNames.County', 'tlu_PlaceNames.State', 'tlu_PlaceNames.utmE'}</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>{'TLU_PLACENAMES.COUNTY': [('Sevier', 'SEVIER'), ('of Sevier', 'SEVIER'), ('coordinates of Sevier', 'SEVIER')], 'TLU_PLACENAMES.STATE': [('TN?', 'TN'), ('County TN?', 'TN')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9011,12 +9011,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>{'tree': {'tbl_Overstory', 'tlu_PlantSpecies', 'tbl_Saplings'}}</t>
+          <t>{'tree': {'tbl_Saplings', 'tbl_Overstory', 'tlu_PlantSpecies'}}</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Tree_Tag_ID'}</t>
+          <t>{'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>{'tree': {'tlu_PlantSpecies.species'}, 'ID': {'tlu_topo_position.ID', 'tlu_PlaceNames.ID', 'tbl_Tree_Tags.Location_ID'}, 'code,': {'tbl_Seedlings.SpCode', 'tbl_Overstory.SpCode', 'tbl_Saplings.spcode', 'tbl_Nests.SpCode'}, 'tag': {'tbl_Tree_Tags.Tag'}, 'species': {'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}}</t>
+          <t>{'tree': {'tlu_PlantSpecies.species'}, 'ID': {'tbl_Tree_Tags.Location_ID', 'tlu_PlaceNames.ID', 'tlu_topo_position.ID'}, 'code,': {'tbl_Saplings.spcode', 'tbl_Nests.SpCode', 'tbl_Seedlings.SpCode', 'tbl_Overstory.SpCode'}, 'tag': {'tbl_Tree_Tags.Tag'}, 'species': {'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.subspecies'}}</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeCond', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Tag', 'tbl_Overstory.TreeTag'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Overstory.TreeTag', 'tbl_Overstory.TreeCond'}</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>{'tree': {'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num'}, 'trees': {'tlu_Tree_Cond.TreeCond_Num'}, 'ID)': {'tlu_topo_position.ID', 'tlu_PlaceNames.ID'}, 'number': {'tlu_Live_Dead.Cond_Num'}}</t>
+          <t>{'tree': {'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num'}, 'trees': {'tlu_Tree_Cond.TreeCond_Num'}, 'ID)': {'tlu_PlaceNames.ID', 'tlu_topo_position.ID'}, 'number': {'tlu_Live_Dead.Cond_Num'}}</t>
         </is>
       </c>
     </row>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.TreeCond'}</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>{'location': {'tlu_PlaceNames', 'tlu_topo_position', 'tbl_Locations'}, 'tree': {'tbl_WitnessTrees', 'tlu_PlantSpecies', 'tbl_Overstory', 'tbl_Tree_Tags', 'tbl_Saplings'}}</t>
+          <t>{'location': {'tlu_PlaceNames', 'tlu_topo_position', 'tbl_Locations'}, 'tree': {'tbl_Tree_Tags', 'tbl_Saplings', 'tbl_Overstory', 'tbl_WitnessTrees', 'tlu_PlantSpecies'}}</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID'}, 'tree': {'tlu_PlantSpecies.species'}, 'ID': {'tbl_Overstory.DBH', 'tlu_topo_position.ID', 'tlu_PlaceNames.ID', 'tbl_Events.Location_ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tbl_WitnessTrees.Location_ID'}, 'code': {'tbl_Seedlings.SpCode', 'tbl_Tree_Tags.SpCode', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode', 'tbl_Saplings.spcode'}, 'witness': {'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_stake'}, 'species': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species'}}</t>
+          <t>{'location': {'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID'}, 'tree': {'tlu_PlantSpecies.species'}, 'ID': {'tbl_WitnessTrees.Location_ID', 'tbl_Overstory.DBH', 'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tlu_PlaceNames.ID', 'tlu_topo_position.ID', 'tbl_Tree_Tags.Location_ID'}, 'code': {'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode', 'tbl_Tree_Tags.SpCode', 'tbl_Seedlings.SpCode', 'tbl_Saplings.spcode'}, 'witness': {'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_SpCode'}, 'species': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species'}}</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos'}</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -9226,7 +9226,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>{'TLU_CAN_POS.CANPOS_NAME': [('codominant', 'CODOMINANT'), ('a codominant', 'CODOMINANT'), ('codominant canopy', 'CODOMINANT'), ('have a codominant', 'CODOMINANT'), ('a codominant canopy', 'CODOMINANT'), ('codominant canopy position?', 'CODOMINANT')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Name', 'tlu_Can_Pos.CanPos_Num', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tlu_Can_Pos.CanPos_Name', 'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.SpCode'}</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9276,12 +9276,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.COMMONNAME': [("'Red", 'RED'), ("name 'Red", 'RED')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>{'name': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'name,': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'overstory': {'tbl_Overstory.Overstory_ID'}, 'species': {'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.subspecies', 'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'name,': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'overstory': {'tbl_Overstory.Overstory_ID'}, 'species': {'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.subgenus', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.subspecies'}}</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>{'tlu_topo_position.ID', 'tbl_Locations.Slope', 'tlu_topo_position.TopoPosition', 'tbl_Locations.SiteDescription', 'tbl_Locations.Topo_Position', 'tbl_Locations.Slope_shape', 'tbl_Locations.Elevation', 'tbl_Locations.Aspect'}</t>
+          <t>{'tlu_topo_position.TopoPosition', 'tbl_Locations.Elevation', 'tbl_Locations.SiteDescription', 'tbl_Locations.Aspect', 'tlu_topo_position.ID', 'tbl_Locations.Slope', 'tbl_Locations.Topo_Position', 'tbl_Locations.Slope_shape'}</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -9326,7 +9326,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>{'TLU_TOPO_POSITION.TOPOPOSITION': [('Midslope', 'MIDSLOPE'), ('a Midslope', 'MIDSLOPE'), ('Midslope topographical', 'MIDSLOPE'), ('with a Midslope', 'MIDSLOPE'), ('a Midslope topographical', 'MIDSLOPE'), ('Midslope topographical position,', 'MIDSLOPE')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>{'tbl_Nests', 'tlu_Cover_Cls'}</t>
+          <t>{'tlu_Cover_Cls', 'tbl_Nests'}</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Cover', 'tbl_Nests.Nest_ID', 'tbl_Nests.SpCode', 'tlu_Cover_Cls.CoverClass_Num'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Cover', 'tbl_Nests.Nest_ID', 'tlu_Cover_Cls.CoverClass_Num'}</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>{'ID': {'tlu_topo_position.ID', 'tlu_PlaceNames.ID'}, 'code': {'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tbl_Tree_Tags.SpCode', 'tbl_Saplings.spcode'}, 'species': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species'}}</t>
+          <t>{'ID': {'tlu_PlaceNames.ID', 'tlu_topo_position.ID'}, 'code': {'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Saplings.spcode', 'tbl_Tree_Tags.SpCode', 'tbl_Seedlings.SpCode'}, 'species': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species'}}</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID'}</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>{'decay': {'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr'}}</t>
+          <t>{'decay': {'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID'}}</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.MPD', 'tbl_Deadwood.Length', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_ID'}</t>
+          <t>{'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Decay', 'tbl_Deadwood.Length'}</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>{'TLU_DECAYSTAGE.DECAYSTAGE_DESCR': [("'log", 'LOG'), ("has 'log", 'LOG'), ("'log is", 'LOG'), ("that has 'log", 'LOG'), ("has 'log is", 'LOG'), ("'log is flat'", 'LOG')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>{'tbl_Nests', 'tlu_PlantSpecies', 'tlu_R1_RestOfPlot'}</t>
+          <t>{'tlu_R1_RestOfPlot', 'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -9566,7 +9566,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>{'tlu_R1_RestOfPlot.Pres_Text', 'tlu_PlantSpecies.genus', 'tbl_Nests.R1', 'tlu_PlantSpecies.SpeciesCode', 'tlu_R1_RestOfPlot.Pres_Num', 'tbl_Nests.SpCode'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.SpCode', 'tlu_R1_RestOfPlot.Pres_Num', 'tbl_Nests.R1', 'tlu_R1_RestOfPlot.Pres_Text', 'tlu_PlantSpecies.genus'}</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9576,7 +9576,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>{'TLU_R1_RESTOFPLOT.PRES_TEXT': [('genus', 'SPECIES'), ('species', 'SPECIES'), ("'species", 'SPECIES'), ('the genus', 'SPECIES'), ('genus of', 'SPECIES'), ('plant species', 'SPECIES'), ('species observed', 'SPECIES'), ("phrase 'species", 'SPECIES'), ("'species occurred", 'SPECIES'), ('Show the genus', 'SPECIES'), ('the genus of', 'SPECIES'), ('genus of plant', 'SPECIES'), ('of plant species', 'SPECIES'), ('plant species observed', 'SPECIES'), ('species observed in', 'SPECIES'), ("the phrase 'species", 'SPECIES'), ("phrase 'species occurred", 'SPECIES'), ("'species occurred in", 'SPECIES')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>{'notes?': {'tbl_Tree_Tags.Notes', 'tbl_Overstory.notes', 'tlu_Roads_and_Trails.Notes'}, 'genus.': {'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}, 'species': {'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesNotes'}}</t>
+          <t>{'notes?': {'tlu_Roads_and_Trails.Notes', 'tbl_Tree_Tags.Notes', 'tbl_Overstory.notes'}, 'genus.': {'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus'}, 'species': {'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.genus'}}</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>{'tsys_App_Releases.Author_email', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.File_name', 'tsys_App_Releases.Database_title', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Author_org_name'}</t>
+          <t>{'tsys_App_Releases.File_name', 'tsys_App_Releases.Database_title', 'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Release_date'}</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>{'name,': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'notes,': {'tbl_Tree_Tags.Notes', 'tbl_Overstory.notes', 'tlu_Roads_and_Trails.Notes'}, 'file': {'tbl_Overstory.notes'}, 'author': {'tsys_App_Releases.Author_org', 'tlu_PlantSpecies.Author'}}</t>
+          <t>{'name,': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'notes,': {'tlu_Roads_and_Trails.Notes', 'tbl_Tree_Tags.Notes', 'tbl_Overstory.notes'}, 'file': {'tbl_Overstory.notes'}, 'author': {'tsys_App_Releases.Author_org', 'tlu_PlantSpecies.Author'}}</t>
         </is>
       </c>
     </row>
@@ -9766,7 +9766,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.Density', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID'}</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID'}, 'ID.': {'tlu_topo_position.ID', 'tlu_PlaceNames.ID'}}</t>
+          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_WitnessTrees.Location_ID', 'tbl_Tree_Tags.Location_ID'}, 'ID.': {'tlu_PlaceNames.ID', 'tlu_topo_position.ID'}}</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.DBH', 'tbl_Overstory.Event_ID', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.Event_ID', 'tbl_Overstory.DBH', 'tbl_Events.Event_ID', 'tlu_PlantSpecies.species', 'tbl_Events.Event_Date', 'tbl_Overstory.SpCode'}</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9826,12 +9826,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>{'TLU_PLANTSPECIES.SPECIES': [('fraseri', 'FRASERI'), ('the fraseri', 'FRASERI'), ('fraseri overstory', 'FRASERI'), ('of the fraseri', 'FRASERI'), ('the fraseri overstory', 'FRASERI'), ('fraseri overstory species', 'FRASERI')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>{'event': {'tbl_Seedlings.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Nests.Event_ID'}, 'species': {'tlu_PlantSpecies.genus'}}</t>
+          <t>{'event': {'tbl_Saplings.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Nests.Event_ID', 'tbl_Seedlings.Event_ID'}, 'species': {'tlu_PlantSpecies.genus'}}</t>
         </is>
       </c>
     </row>
@@ -9926,12 +9926,12 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>{'TLU_ROADS_AND_TRAILS.VALIDNAME': [('Balsam', 'BALSAM'), ('word Balsam', 'BALSAM'), ('Balsam in', 'BALSAM'), ('the word Balsam', 'BALSAM'), ('word Balsam in', 'BALSAM'), ('Balsam in their', 'BALSAM')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>{'name.': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}}</t>
+          <t>{'name.': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}}</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>{'name,': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}}</t>
+          <t>{'name,': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}}</t>
         </is>
       </c>
     </row>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>{'tlu_Presence', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Presence'}</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>{'id': {'tlu_topo_position.ID', 'tlu_PlaceNames.ID'}, 'number': {'tlu_R1_RestOfPlot.Pres_Num'}, 'event': {'tbl_Overstory.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Saplings.Event_ID', 'tbl_Events.Event_ID'}, 'text': {'tlu_R1_RestOfPlot.Pres_Text'}, 'subplots': {'tbl_Tree_Tags.Plot'}}</t>
+          <t>{'id': {'tlu_PlaceNames.ID', 'tlu_topo_position.ID'}, 'number': {'tlu_R1_RestOfPlot.Pres_Num'}, 'event': {'tbl_Saplings.Event_ID', 'tbl_Deadwood.Event_ID', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Overstory.Event_ID'}, 'text': {'tlu_R1_RestOfPlot.Pres_Text'}, 'subplots': {'tbl_Tree_Tags.Plot'}}</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>{'seedling': {'tbl_Seedlings', 'tlu_PlantSpecies', 'tbl_Saplings'}}</t>
+          <t>{'seedling': {'tbl_Seedlings', 'tbl_Saplings', 'tlu_PlantSpecies'}}</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>{'name': {'sysdiagrams.name', 'tlu_PlantSpecies.CommonName', 'tlu_PlaceNames.Name'}, 'Genus,': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus'}, 'species': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}, 'species,': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'tlu_PlantSpecies.CommonName', 'tlu_PlaceNames.Name'}, 'Genus,': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.genus'}, 'species': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus'}, 'species,': {'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus'}}</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -10261,12 +10261,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>{'location': {'tlu_PlaceNames', 'tlu_topo_position', 'tbl_Locations'}, 'tree': {'tbl_Overstory', 'tbl_WitnessTrees', 'tbl_Saplings'}}</t>
+          <t>{'location': {'tlu_PlaceNames', 'tlu_topo_position', 'tbl_Locations'}, 'tree': {'tbl_WitnessTrees', 'tbl_Saplings', 'tbl_Overstory'}}</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_WitnessTrees.Location_ID'}, 'tree': {'tlu_PlantSpecies.species'}, 'ID': {'tlu_topo_position.ID', 'tlu_PlaceNames.ID', 'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_WitnessTrees.Location_ID'}, 'name.': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'tags': {'tbl_Tree_Tags.Tag'}, 'species': {'tlu_PlantSpecies.species'}}</t>
+          <t>{'location': {'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tbl_WitnessTrees.Location_ID'}, 'tree': {'tlu_PlantSpecies.species'}, 'ID': {'tbl_WitnessTrees.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Location_ID', 'tlu_PlaceNames.ID', 'tlu_topo_position.ID'}, 'name.': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'tags': {'tbl_Tree_Tags.Tag'}, 'species': {'tlu_PlantSpecies.species'}}</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tbl_Locations', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>{'locations': {'tlu_PlaceNames', 'tlu_topo_position'}, 'tree': {'tbl_Overstory', 'tbl_WitnessTrees', 'tbl_Saplings'}}</t>
+          <t>{'locations': {'tlu_PlaceNames', 'tlu_topo_position'}, 'tree': {'tbl_WitnessTrees', 'tbl_Saplings', 'tbl_Overstory'}}</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Locations.Elevation', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.SpCode', 'tbl_Locations.Elevation', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.genus', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>{'locations': {'tbl_Events.Location_ID', 'tbl_WitnessTrees.Location_ID'}, 'tree': {'tbl_Tree_Tags.Tree_Tag_ID', 'tlu_PlantSpecies.species'}, 'name.': {'tlu_PlaceNames.Name', 'sysdiagrams.name'}, 'tags': {'tbl_Tree_Tags.Tag'}, 'genus': {'tlu_PlantSpecies.species'}, 'species': {'tlu_PlantSpecies.species'}}</t>
+          <t>{'locations': {'tbl_Events.Location_ID', 'tbl_WitnessTrees.Location_ID'}, 'tree': {'tlu_PlantSpecies.species', 'tbl_Tree_Tags.Tree_Tag_ID'}, 'name.': {'sysdiagrams.name', 'tlu_PlaceNames.Name'}, 'tags': {'tbl_Tree_Tags.Tag'}, 'genus': {'tlu_PlantSpecies.species'}, 'species': {'tlu_PlantSpecies.species'}}</t>
         </is>
       </c>
     </row>
@@ -10366,7 +10366,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Coord_System', 'tbl_Locations.Datum', 'tbl_Locations.Eco_Notes', 'tbl_Locations.Coord_Units', 'tbl_Locations.Plot_ID'}</t>
+          <t>{'tbl_Locations.Coord_System', 'tbl_Locations.Plot_ID', 'tbl_Locations.Eco_Notes', 'tbl_Locations.Datum', 'tbl_Locations.Coord_Units'}</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -10376,12 +10376,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.PLOT_ID': [('A14_1', 'A14_1')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>{'plot': {'tbl_Tree_Tags.Plot', 'tbl_Overstory.notes'}, 'notes,': {'tbl_Tree_Tags.Notes', 'tbl_Overstory.notes', 'tlu_Roads_and_Trails.Notes'}}</t>
+          <t>{'plot': {'tbl_Tree_Tags.Plot', 'tbl_Overstory.notes'}, 'notes,': {'tlu_Roads_and_Trails.Notes', 'tbl_Tree_Tags.Notes', 'tbl_Overstory.notes'}}</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Other_Disturbance', 'tbl_Locations.Loc_Notes'}</t>
+          <t>{'tbl_Locations.Loc_Notes', 'tbl_Locations.Other_Disturbance'}</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -10426,12 +10426,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.OTHER_DISTURBANCE': [("'probably", 'PROBABLY'), ("phrase 'probably", 'PROBABLY'), ("'probably post", 'PROBABLY'), ("the phrase 'probably", 'PROBABLY'), ("phrase 'probably post", 'PROBABLY')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_Locations.GIS_Location_ID'}, 'notes': {'tbl_Locations.Accuracy_Notes', 'tbl_Tree_Tags.Notes', 'tbl_Locations.Eco_Notes', 'tlu_Roads_and_Trails.Notes', 'tbl_Overstory.notes'}, 'other': {'tbl_Overstory.notes'}}</t>
+          <t>{'location': {'tbl_Locations.Location_ID', 'tbl_Locations.GIS_Location_ID'}, 'notes': {'tlu_Roads_and_Trails.Notes', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Eco_Notes', 'tbl_Tree_Tags.Notes', 'tbl_Overstory.notes'}, 'other': {'tbl_Overstory.notes'}}</t>
         </is>
       </c>
     </row>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>{'crashes': {'GV.CRASHCONF', 'CRASH.CRASHYEAR', 'GV.CRASHTYPE', 'GV.CRASHCAT', 'CRASH.CRASHMONTH', 'CRASH.CRASHTIME'}}</t>
+          <t>{'crashes': {'GV.CRASHCONF', 'GV.CRASHCAT', 'CRASH.CRASHYEAR', 'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'GV.CRASHTYPE'}}</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>{'event': {'EDREVENT.EVENTDESC', 'CDC.EVENTNO', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENT1TO2', 'EDRSUMM.NUMEVENTS', 'EVENT.EVENTNO', 'EDREVENT.NUMEVNTS'}, 'events': {'EDREVENT.EVENTDESC', 'CDC.EVENTNO', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENT1TO2', 'EDRSUMM.NUMEVENTS', 'EVENT.EVENTNO', 'EDREVENT.NUMEVNTS'}}</t>
+          <t>{'event': {'CDC.EVENTNO', 'EDREVENT.EVENT1TO2', 'EDREVENT.CDCEVENT', 'EDRSUMM.NUMEVENTS', 'EVENT.EVENTNO', 'EDREVENT.EVENTDESC', 'EDREVENT.NUMEVNTS'}, 'events': {'CDC.EVENTNO', 'EDREVENT.EVENT1TO2', 'EDREVENT.CDCEVENT', 'EDRSUMM.NUMEVENTS', 'EVENT.EVENTNO', 'EDREVENT.EVENTDESC', 'EDREVENT.NUMEVNTS'}}</t>
         </is>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>{'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'emergency': {'EMSCARE.EMSNO', 'EMSCARE.EMSCARE', 'EMSCARE.EMSAGENCY'}}</t>
+          <t>{'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'emergency': {'EMSCARE.EMSNO', 'EMSCARE.EMSAGENCY', 'EMSCARE.EMSCARE'}}</t>
         </is>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>{'category': {'VEHMEAS.CATEGORY', 'EJECT.CATEGORY', 'CRASH.CATEGORY', 'EDRREST.CATEGORY', 'DISTRACT.CATEGORY', 'CDC.CATEGORY', 'GV.CATEGORY', 'VEHSPEC.CATEGORY', 'AVOID.CATEGORY', 'LOCALIZER.CATEGORY', 'INTRUSION.CATEGORY', 'ICS.CATEGORY', 'EDRSUMM.CATEGORY', 'ADAPT.CATEGORY', 'EVENT.CATEGORY', 'INJURY.CATEGORY', 'OCC.CATEGORY', 'TIRE.CATEGORY', 'FIRE.CATEGORY', 'INTEGRITY.CATEGORY', 'VPICDECODE.CATEGORY', 'EDRCOLLECT.CATEGORY', 'TIREPLAC.CATEGORY', 'EDRPOSTCRASH.CATEGORY', 'INTERIOR.CATEGORY', 'FUEL.CATEGORY', 'CHILDSEAT.CATEGORY', 'AIRBAG.CATEGORY', 'OCCONTACT.CATEGORY', 'PRE_FHE.CATEGORY', 'SEAT.CATEGORY', 'GLAZING.CATEGORY', 'EMSCARE.CATEGORY', 'SEATXBAG.CATEGORY', 'EDREVENT.CATEGORY', 'TIREDAMAGE.CATEGORY', 'EDRPRECRASH.CATEGORY'}, 'cases': {'JKWGT.CASENO', 'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'JKWGT.CASENUMBER', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}}</t>
+          <t>{'category': {'CDC.CATEGORY', 'INJURY.CATEGORY', 'AVOID.CATEGORY', 'EDRPOSTCRASH.CATEGORY', 'SEATXBAG.CATEGORY', 'EVENT.CATEGORY', 'TIRE.CATEGORY', 'FIRE.CATEGORY', 'CHILDSEAT.CATEGORY', 'GLAZING.CATEGORY', 'GV.CATEGORY', 'DISTRACT.CATEGORY', 'TIREPLAC.CATEGORY', 'FUEL.CATEGORY', 'INTRUSION.CATEGORY', 'AIRBAG.CATEGORY', 'EMSCARE.CATEGORY', 'EDRSUMM.CATEGORY', 'CRASH.CATEGORY', 'EDRREST.CATEGORY', 'VPICDECODE.CATEGORY', 'TIREDAMAGE.CATEGORY', 'INTERIOR.CATEGORY', 'OCCONTACT.CATEGORY', 'PRE_FHE.CATEGORY', 'EDRPRECRASH.CATEGORY', 'EJECT.CATEGORY', 'ADAPT.CATEGORY', 'EDREVENT.CATEGORY', 'VEHMEAS.CATEGORY', 'EDRCOLLECT.CATEGORY', 'INTEGRITY.CATEGORY', 'ICS.CATEGORY', 'OCC.CATEGORY', 'SEAT.CATEGORY', 'VEHSPEC.CATEGORY', 'LOCALIZER.CATEGORY'}, 'cases': {'OCC.CASEID', 'OCCONTACT.CASEID', 'JKWGT.CASENUMBER', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'JKWGT.CASENO', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}}</t>
         </is>
       </c>
     </row>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>{'category': {'VEHMEAS.CATEGORY', 'EJECT.CATEGORY', 'CRASH.CATEGORY', 'EDRREST.CATEGORY', 'DISTRACT.CATEGORY', 'CDC.CATEGORY', 'GV.CATEGORY', 'VEHSPEC.CATEGORY', 'AVOID.CATEGORY', 'LOCALIZER.CATEGORY', 'INTRUSION.CATEGORY', 'ICS.CATEGORY', 'EDRSUMM.CATEGORY', 'ADAPT.CATEGORY', 'EVENT.CATEGORY', 'INJURY.CATEGORY', 'OCC.CATEGORY', 'TIRE.CATEGORY', 'FIRE.CATEGORY', 'INTEGRITY.CATEGORY', 'VPICDECODE.CATEGORY', 'EDRCOLLECT.CATEGORY', 'TIREPLAC.CATEGORY', 'EDRPOSTCRASH.CATEGORY', 'INTERIOR.CATEGORY', 'FUEL.CATEGORY', 'CHILDSEAT.CATEGORY', 'AIRBAG.CATEGORY', 'OCCONTACT.CATEGORY', 'PRE_FHE.CATEGORY', 'SEAT.CATEGORY', 'GLAZING.CATEGORY', 'EMSCARE.CATEGORY', 'SEATXBAG.CATEGORY', 'EDREVENT.CATEGORY', 'TIREDAMAGE.CATEGORY', 'EDRPRECRASH.CATEGORY'}, 'case': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}}</t>
+          <t>{'category': {'CDC.CATEGORY', 'INJURY.CATEGORY', 'AVOID.CATEGORY', 'EDRPOSTCRASH.CATEGORY', 'SEATXBAG.CATEGORY', 'EVENT.CATEGORY', 'TIRE.CATEGORY', 'FIRE.CATEGORY', 'CHILDSEAT.CATEGORY', 'GLAZING.CATEGORY', 'GV.CATEGORY', 'DISTRACT.CATEGORY', 'TIREPLAC.CATEGORY', 'FUEL.CATEGORY', 'INTRUSION.CATEGORY', 'AIRBAG.CATEGORY', 'EMSCARE.CATEGORY', 'EDRSUMM.CATEGORY', 'CRASH.CATEGORY', 'EDRREST.CATEGORY', 'VPICDECODE.CATEGORY', 'TIREDAMAGE.CATEGORY', 'INTERIOR.CATEGORY', 'OCCONTACT.CATEGORY', 'PRE_FHE.CATEGORY', 'EDRPRECRASH.CATEGORY', 'EJECT.CATEGORY', 'ADAPT.CATEGORY', 'EDREVENT.CATEGORY', 'VEHMEAS.CATEGORY', 'EDRCOLLECT.CATEGORY', 'INTEGRITY.CATEGORY', 'ICS.CATEGORY', 'OCC.CATEGORY', 'SEAT.CATEGORY', 'VEHSPEC.CATEGORY', 'LOCALIZER.CATEGORY'}, 'case': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}}</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>{'crashes': {'CRASH.CRASHYEAR', 'CRASH.CRASHTIME', 'CRASH.CRASHMONTH'}}</t>
+          <t>{'crashes': {'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'CRASH.CRASHYEAR'}}</t>
         </is>
       </c>
     </row>
@@ -10966,12 +10966,12 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'VPICDECODE.Make', 'VPICDECODE.CASEID', 'GV.MAKE', 'VPICDECODE.Model', 'GV.CURBWT', 'VPICDECODE.VEHNO', 'GV.MODEL', 'GV.VEHNO'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.Make', 'GV.MODEL', 'GV.CASEID', 'GV.CURBWT', 'GV.MAKE', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'GV.CASEID', 'GV.VEHNO'}</t>
+          <t>{'GV.VEHNO', 'GV.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>{'crashes': {'GV.CRASHCONF', 'CRASH.CRASHYEAR', 'GV.CRASHTYPE', 'GV.CRASHCAT', 'CRASH.CRASHMONTH', 'CRASH.CRASHTIME'}}</t>
+          <t>{'crashes': {'GV.CRASHCONF', 'GV.CRASHCAT', 'CRASH.CRASHYEAR', 'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'GV.CRASHTYPE'}}</t>
         </is>
       </c>
     </row>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>{'GV.TOWED', 'GV.PARDRUG'}</t>
+          <t>{'GV.PARDRUG', 'GV.TOWED'}</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -11131,7 +11131,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>{'vehicle': {'GV.VINLENGTH', 'GV.VEHNO', 'GV.VIN'}, 'vehicles': {'GV.VEHNO'}}</t>
+          <t>{'vehicle': {'GV.VINLENGTH', 'GV.VIN', 'GV.VEHNO'}, 'vehicles': {'GV.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>{'type': {'GV.CATEGORY'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'rumble': {'GV.RUMBINIT'}}</t>
+          <t>{'type': {'GV.CATEGORY'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'rumble': {'GV.RUMBINIT'}}</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH', 'GV'}</t>
+          <t>{'GV', 'EDRPRECRASH'}</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -11216,7 +11216,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'EDRPRECRASH.PCODE', 'GV.VEHNO', 'GV.SPEEDLIMIT', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID'}</t>
+          <t>{'GV.SPEEDLIMIT', 'GV.CASEID', 'EDRPRECRASH.PVALUE', 'GV.VEHNO', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.PCODE'}</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>{'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GV.VIN', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'CHILDSEAT.VEHNO', 'GV.VINLENGTH', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'vehicle,': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'event': {'EDREVENT.EVENTDESC', 'GV.DVEVENT', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENT1TO2', 'EDREVENT.NUMEVNTS'}, 'speed': {'CDC.DVSPEED', 'GV.DVSPEED'}, 'speedlimit': {'CDC.DVSPEED', 'GV.DVSPEED'}, 'road': {'GV.TRAFFLOW', 'GV.RUMBROAD', 'GV.TRAFFUNCT'}}</t>
+          <t>{'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'GV.VINLENGTH', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'GV.VIN', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'vehicle,': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'event': {'GV.DVEVENT', 'EDREVENT.EVENT1TO2', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENTDESC', 'EDREVENT.NUMEVNTS'}, 'speed': {'GV.DVSPEED', 'CDC.DVSPEED'}, 'speedlimit': {'GV.DVSPEED', 'CDC.DVSPEED'}, 'road': {'GV.RUMBROAD', 'GV.TRAFFUNCT', 'GV.TRAFFLOW'}}</t>
         </is>
       </c>
     </row>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'TIREDAMAGE.VEHNO', 'SEATXBAG.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'VEHSPEC.VEHNO', 'EDRREST.VEHNO', 'ADAPT.VEHNO', 'VEHMEAS.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'ADAPT.VEHNO', 'INTERIOR.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'AIRBAG.VEHNO', 'TIREPLAC.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>{'crashes': {'CRASH.CRASHYEAR', 'CRASH.CRASHTIME', 'CRASH.CRASHMONTH'}, 'category': {'INTRUSION.CATEGORY', 'CRASH.CATEGORY'}, 'number': {'CRASH.CASENUMBER', 'INTRUSION.CASENUMBER'}}</t>
+          <t>{'crashes': {'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'CRASH.CRASHYEAR'}, 'category': {'CRASH.CATEGORY', 'INTRUSION.CATEGORY'}, 'number': {'CRASH.CASENUMBER', 'INTRUSION.CASENUMBER'}}</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11466,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>{'INTRUSION.INTMAG', 'INTRUSION.VEHNO', 'INTRUSION.CASEID', 'INTRUSION.INTCOMP', 'INTRUSION.INTDIRECT'}</t>
+          <t>{'INTRUSION.INTCOMP', 'INTRUSION.INTMAG', 'INTRUSION.CASEID', 'INTRUSION.VEHNO', 'INTRUSION.INTDIRECT'}</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>{'Case': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'cases': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'ID': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'CDC.CASEID', 'TIRE.CASEID', 'EDREVENT.CASEID', 'EDRREST.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'VPICDECODE.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'TIREDAMAGE.CASEID', 'ADAPT.CASEID', 'INJURY.CASEID', 'EDRSUMM.CASEID', 'FIRE.CASEID'}, 'ID,': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'CDC.CASEID', 'TIRE.CASEID', 'EDREVENT.CASEID', 'EDRREST.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'VPICDECODE.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'TIREDAMAGE.CASEID', 'ADAPT.CASEID', 'INJURY.CASEID', 'EDRSUMM.CASEID', 'FIRE.CASEID'}, 'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'VEHMEAS.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'Case': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'EDRPOSTCRASH.CASEID', 'SEAT.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'cases': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'EDRPOSTCRASH.CASEID', 'SEAT.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'ID': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'GV.CASEID', 'TIRE.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRPRECRASH.CASEID', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'ID,': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'GV.CASEID', 'TIRE.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRPRECRASH.CASEID', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -11516,7 +11516,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>{'INTRUSION.CASEID', 'INTRUSION.INTDIRECT', 'INTRUSION.VEHNO'}</t>
+          <t>{'INTRUSION.INTDIRECT', 'INTRUSION.CASEID', 'INTRUSION.VEHNO'}</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>{'case': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'VEHMEAS.VEHNO', 'EMSCARE.VEHNO'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'VEHMEAS.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'case': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'EDRPOSTCRASH.CASEID', 'SEAT.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -11716,7 +11716,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>{'INJURY.REGION', 'INJURY.AIS'}</t>
+          <t>{'INJURY.AIS', 'INJURY.REGION'}</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11766,7 +11766,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>{'INJURY.REGION', 'INJURY.AIS'}</t>
+          <t>{'INJURY.AIS', 'INJURY.REGION'}</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>{'INJURY', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'INJURY'}</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'INJURY.AIS', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'INJURY.VEHNO', 'INJURY.CASEID'}</t>
+          <t>{'INJURY.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'INJURY.AIS', 'VPICDECODE.Make', 'INJURY.VEHNO'}</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>{'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'make.': {'GV.MAKE'}}</t>
+          <t>{'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'make.': {'GV.MAKE'}}</t>
         </is>
       </c>
     </row>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>{'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'manufacturer': {'VPICDECODE.ManufacturerFullName'}}</t>
+          <t>{'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'manufacturer': {'VPICDECODE.ManufacturerFullName'}}</t>
         </is>
       </c>
     </row>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>{'crash': {'CRASH.CRASHYEAR', 'CRASH.CRASHTIME', 'CRASH.CRASHMONTH'}, 'is': {'CRASH.CAIS', 'CRASH.CISS'}, 'emergency': {'EMSCARE.EMSNO', 'EMSCARE.EMSCARE', 'EMSCARE.EMSAGENCY'}}</t>
+          <t>{'crash': {'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'CRASH.CRASHYEAR'}, 'is': {'CRASH.CAIS', 'CRASH.CISS'}, 'emergency': {'EMSCARE.EMSNO', 'EMSCARE.EMSAGENCY', 'EMSCARE.EMSCARE'}}</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>{'emergency': {'EMSCARE.EMSNO', 'EMSCARE.EMSCARE', 'EMSCARE.EMSAGENCY'}}</t>
+          <t>{'emergency': {'EMSCARE.EMSNO', 'EMSCARE.EMSAGENCY', 'EMSCARE.EMSCARE'}}</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>{'emergency': {'EMSCARE.EMSNO', 'EMSCARE.EMSCARE', 'EMSCARE.EMSAGENCY'}}</t>
+          <t>{'emergency': {'EMSCARE.EMSNO', 'EMSCARE.EMSAGENCY', 'EMSCARE.EMSCARE'}}</t>
         </is>
       </c>
     </row>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>{'EMSCARE.SCENEDEP', 'EMSCARE.EMSTYPE', 'EMSCARE.ARRMEDICAL', 'EMSCARE.SCENEARR', 'EMSCARE.CASEID', 'EMSCARE.NOTIFIED'}</t>
+          <t>{'EMSCARE.ARRMEDICAL', 'EMSCARE.SCENEARR', 'EMSCARE.SCENEDEP', 'EMSCARE.EMSTYPE', 'EMSCARE.NOTIFIED', 'EMSCARE.CASEID'}</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>{'case': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'EDRREST.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'INJURY.CASEID', 'EDRSUMM.CASEID', 'ADAPT.CASEID', 'TIREDAMAGE.CASEID', 'FIRE.CASEID'}, 'cases': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'EDRREST.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'INJURY.CASEID', 'EDRSUMM.CASEID', 'ADAPT.CASEID', 'TIREDAMAGE.CASEID', 'FIRE.CASEID'}, 'emergency': {'EMSCARE.EMSCARE'}}</t>
+          <t>{'case': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'EDRPOSTCRASH.CASEID', 'SEAT.CASEID', 'EVENT.CASEID', 'INTRUSION.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'cases': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'EDRPOSTCRASH.CASEID', 'SEAT.CASEID', 'EVENT.CASEID', 'INTRUSION.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'emergency': {'EMSCARE.EMSCARE'}}</t>
         </is>
       </c>
     </row>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.MAKE': [('toyota', 'TOYOTA'), ('many toyota', 'TOYOTA'), ('toyota tacomas', 'TOYOTA'), ('How many toyota', 'TOYOTA'), ('many toyota tacomas', 'TOYOTA'), ('toyota tacomas are', 'TOYOTA')], 'VPICDECODE.MODEL': [('tacomas', 'TACOMA'), ('toyota tacomas', 'TACOMA'), ('tacomas are', 'TACOMA'), ('toyota tacomas are', 'TACOMA'), ('tacomas are there', 'TACOMA')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>{'vehicle': {'GV.VINLENGTH', 'GV.VEHNO', 'GV.VIN'}, 'model': {'GV.VPICMODEL', 'VPICDECODE.Model', 'GV.MODEL'}}</t>
+          <t>{'vehicle': {'GV.VINLENGTH', 'GV.VIN', 'GV.VEHNO'}, 'model': {'VPICDECODE.Model', 'GV.VPICMODEL', 'GV.MODEL'}}</t>
         </is>
       </c>
     </row>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>{'vehicle': {'GV.VINLENGTH', 'GV.VEHNO', 'GV.VIN'}, 'make': {'GV.MAKE', 'VPICDECODE.Make', 'GV.VPICMAKE'}, 'model': {'GV.VPICMODEL', 'VPICDECODE.Model', 'GV.MODELYR', 'GV.MODEL'}}</t>
+          <t>{'vehicle': {'GV.VINLENGTH', 'GV.VIN', 'GV.VEHNO'}, 'make': {'GV.VPICMAKE', 'VPICDECODE.Make', 'GV.MAKE'}, 'model': {'VPICDECODE.Model', 'GV.MODELYR', 'GV.VPICMODEL', 'GV.MODEL'}}</t>
         </is>
       </c>
     </row>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>{'vehicles': {'GV.VEHCLASS', 'GV.VEHNO'}}</t>
+          <t>{'vehicles': {'GV.VEHNO', 'GV.VEHCLASS'}}</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'INTRUSION.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'TIREDAMAGE.VEHNO', 'SEATXBAG.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'VEHSPEC.VEHNO', 'EDRREST.VEHNO', 'ADAPT.VEHNO', 'VEHMEAS.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'ADAPT.VEHNO', 'INTERIOR.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'AIRBAG.VEHNO', 'TIREPLAC.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>{'category': {'VEHMEAS.CATEGORY', 'EJECT.CATEGORY', 'CRASH.CATEGORY', 'EDRREST.CATEGORY', 'DISTRACT.CATEGORY', 'CDC.CATEGORY', 'GV.CATEGORY', 'VEHSPEC.CATEGORY', 'AVOID.CATEGORY', 'LOCALIZER.CATEGORY', 'INTRUSION.CATEGORY', 'ICS.CATEGORY', 'EDRSUMM.CATEGORY', 'ADAPT.CATEGORY', 'EVENT.CATEGORY', 'INJURY.CATEGORY', 'OCC.CATEGORY', 'TIRE.CATEGORY', 'FIRE.CATEGORY', 'INTEGRITY.CATEGORY', 'VPICDECODE.CATEGORY', 'EDRCOLLECT.CATEGORY', 'TIREPLAC.CATEGORY', 'EDRPOSTCRASH.CATEGORY', 'INTERIOR.CATEGORY', 'FUEL.CATEGORY', 'CHILDSEAT.CATEGORY', 'AIRBAG.CATEGORY', 'OCCONTACT.CATEGORY', 'PRE_FHE.CATEGORY', 'SEAT.CATEGORY', 'GLAZING.CATEGORY', 'EMSCARE.CATEGORY', 'SEATXBAG.CATEGORY', 'EDREVENT.CATEGORY', 'TIREDAMAGE.CATEGORY', 'EDRPRECRASH.CATEGORY', 'JKWGT.CATEGORY'}}</t>
+          <t>{'category': {'CDC.CATEGORY', 'INJURY.CATEGORY', 'AVOID.CATEGORY', 'EDRPOSTCRASH.CATEGORY', 'SEATXBAG.CATEGORY', 'EVENT.CATEGORY', 'TIRE.CATEGORY', 'FIRE.CATEGORY', 'CHILDSEAT.CATEGORY', 'GLAZING.CATEGORY', 'GV.CATEGORY', 'DISTRACT.CATEGORY', 'TIREPLAC.CATEGORY', 'FUEL.CATEGORY', 'INTRUSION.CATEGORY', 'AIRBAG.CATEGORY', 'EMSCARE.CATEGORY', 'EDRSUMM.CATEGORY', 'CRASH.CATEGORY', 'EDRREST.CATEGORY', 'VPICDECODE.CATEGORY', 'TIREDAMAGE.CATEGORY', 'INTERIOR.CATEGORY', 'OCCONTACT.CATEGORY', 'PRE_FHE.CATEGORY', 'EDRPRECRASH.CATEGORY', 'EJECT.CATEGORY', 'ADAPT.CATEGORY', 'EDREVENT.CATEGORY', 'VEHMEAS.CATEGORY', 'JKWGT.CATEGORY', 'INTEGRITY.CATEGORY', 'EDRCOLLECT.CATEGORY', 'ICS.CATEGORY', 'OCC.CATEGORY', 'SEAT.CATEGORY', 'VEHSPEC.CATEGORY', 'LOCALIZER.CATEGORY'}}</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>{'CDC.CDCPLANE', 'CDC.CASEID', 'CDC.VEHNO'}</t>
+          <t>{'CDC.CASEID', 'CDC.CDCPLANE', 'CDC.VEHNO'}</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -12531,7 +12531,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'VPICDECODE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>{'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GV.VIN', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'GV.VINLENGTH', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'OCC.MOBILITY', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'glazing': {'GLAZING.GLAZTYPE', 'GLAZING.GLAZOCC', 'GLAZING.GLAZLOC', 'GLAZING.GLAZIMP', 'GLAZING.GLAZPRE'}, 'contact': {'OCCONTACT.CONTACT'}}</t>
+          <t>{'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'GV.VINLENGTH', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'OCC.MOBILITY', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'GV.VIN', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'glazing': {'GLAZING.GLAZTYPE', 'GLAZING.GLAZPRE', 'GLAZING.GLAZOCC', 'GLAZING.GLAZIMP', 'GLAZING.GLAZLOC'}, 'contact': {'OCCONTACT.CONTACT'}}</t>
         </is>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>{'tire': {'TIRE.TIRESIZE'}, 'size': {'TIRE.TIRESIZE'}, 'size?': {'TIRE.TIRESIZE'}, 'front': {'TIREPLAC.RECFRONT3', 'TIREPLAC.RECFRONT2', 'TIREPLAC.RECFRONT1'}}</t>
+          <t>{'tire': {'TIRE.TIRESIZE'}, 'size': {'TIRE.TIRESIZE'}, 'size?': {'TIRE.TIRESIZE'}, 'front': {'TIREPLAC.RECFRONT2', 'TIREPLAC.RECFRONT1', 'TIREPLAC.RECFRONT3'}}</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'glazing?': {'INTERIOR.GLAZINGCONT', 'GLAZING.GLAZTYPE', 'GLAZING.GLAZOCC', 'GLAZING.GLAZIMP'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'glazing?': {'GLAZING.GLAZIMP', 'GLAZING.GLAZTYPE', 'INTERIOR.GLAZINGCONT', 'GLAZING.GLAZOCC'}}</t>
         </is>
       </c>
     </row>
@@ -12716,12 +12716,12 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>{'GLAZING.VEHNO', 'GV.CASEID', 'GLAZING.GLAZIMP', 'GLAZING.CASEID', 'GV.VIN', 'GV.VEHNO'}</t>
+          <t>{'GV.VIN', 'GV.CASEID', 'GLAZING.GLAZIMP', 'GLAZING.CASEID', 'GLAZING.VEHNO', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>{'GV.CASEID', 'GV.VIN'}</t>
+          <t>{'GV.VIN', 'GV.CASEID'}</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>{'category': {'GLAZING.CATEGORY'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'PRE_FHE.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, '(glass)': {'GLAZING.GLAZTYPE', 'GLAZING.GLAZOCC', 'GLAZING.GLAZLOC', 'GLAZING.GLAZPRE'}, 'glazing': {'GLAZING.GLAZTYPE', 'GLAZING.GLAZOCC', 'GLAZING.GLAZLOC', 'GLAZING.GLAZPRE'}}</t>
+          <t>{'category': {'GLAZING.CATEGORY'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'SEATXBAG.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, '(glass)': {'GLAZING.GLAZTYPE', 'GLAZING.GLAZPRE', 'GLAZING.GLAZOCC', 'GLAZING.GLAZLOC'}, 'glazing': {'GLAZING.GLAZTYPE', 'GLAZING.GLAZPRE', 'GLAZING.GLAZOCC', 'GLAZING.GLAZLOC'}}</t>
         </is>
       </c>
     </row>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>{'crashes': {'CRASH.CRASHYEAR', 'CRASH.CRASHTIME', 'CRASH.CRASHMONTH'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'CRASH.VEHICLES', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'crashes': {'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'CRASH.CRASHYEAR'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'CRASH.VEHICLES', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>{'event': {'EDREVENT.CDCEVENT', 'EDREVENT.EVENTDESC', 'EDREVENT.EVENT1TO2', 'EDREVENT.NUMEVNTS'}}</t>
+          <t>{'event': {'EDREVENT.EVENT1TO2', 'EDREVENT.CDCEVENT', 'EDREVENT.NUMEVNTS', 'EDREVENT.EVENTDESC'}}</t>
         </is>
       </c>
     </row>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>{'crashes': {'CRASH.CRASHYEAR', 'CRASH.CRASHTIME'}, 'number': {'CRASH.CASENUMBER'}}</t>
+          <t>{'crashes': {'CRASH.CRASHTIME', 'CRASH.CRASHYEAR'}, 'number': {'CRASH.CASENUMBER'}}</t>
         </is>
       </c>
     </row>
@@ -12916,7 +12916,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>{'case': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'EDRSUMM.CASEWGT', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'EDRCOLLECT.CASEWGT', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'cases': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'EDRSUMM.CASEWGT', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'EDRCOLLECT.CASEWGT', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GV.VIN', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'event': {'EDRSUMM.NUMEVENTS'}, 'speed': {'GV.SPEEDLIMIT', 'CDC.DVSPEED', 'GV.DVSPEED'}}</t>
+          <t>{'case': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'EDRCOLLECT.CASEWGT', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'EDRSUMM.CASEWGT', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'cases': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'EDRCOLLECT.CASEWGT', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'EDRSUMM.CASEWGT', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'GV.VIN', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'event': {'EDRSUMM.NUMEVENTS'}, 'speed': {'GV.SPEEDLIMIT', 'GV.DVSPEED', 'CDC.DVSPEED'}}</t>
         </is>
       </c>
     </row>
@@ -12966,12 +12966,12 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.CASEID', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.VEHNO', 'VPICDECODE.Model', 'EDRPRECRASH.PCODE', 'VPICDECODE.VEHNO', 'EDRPRECRASH.PVALUE'}</t>
+          <t>{'VPICDECODE.CASEID', 'EDRPRECRASH.PVALUE', 'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'EDRPRECRASH.CASEID', 'VPICDECODE.Make', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.PCODE'}</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.VEHNO', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.PCODE'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.PVALUE', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>{'case': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'EDRREST.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'INJURY.CASEID', 'EDRSUMM.CASEID', 'ADAPT.CASEID', 'TIREDAMAGE.CASEID', 'FIRE.CASEID'}, 'cases': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'EDRREST.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'INJURY.CASEID', 'EDRSUMM.CASEID', 'ADAPT.CASEID', 'TIREDAMAGE.CASEID', 'FIRE.CASEID'}, 'vehicle': {'VPICDECODE.VehicleTypeId', 'VPICDECODE.VehicleType', 'VPICDECODE.VehicleDescriptor'}, 'speed': {'CDC.DVSPEED', 'GV.DVSPEED'}, 'make': {'VPICDECODE.MakeId', 'GV.MAKE'}}</t>
+          <t>{'case': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'EDRPOSTCRASH.CASEID', 'SEAT.CASEID', 'EVENT.CASEID', 'INTRUSION.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'cases': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'EDRPOSTCRASH.CASEID', 'SEAT.CASEID', 'EVENT.CASEID', 'INTRUSION.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'vehicle': {'VPICDECODE.VehicleDescriptor', 'VPICDECODE.VehicleType', 'VPICDECODE.VehicleTypeId'}, 'speed': {'GV.DVSPEED', 'CDC.DVSPEED'}, 'make': {'VPICDECODE.MakeId', 'GV.MAKE'}}</t>
         </is>
       </c>
     </row>
@@ -13311,12 +13311,12 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>{'seatbelt': {'SEAT', 'AIRBAG', 'CHILDSEAT'}, 'crashes': {'EDRPOSTCRASH', 'CRASH', 'EDRPRECRASH'}}</t>
+          <t>{'seatbelt': {'AIRBAG', 'SEAT', 'CHILDSEAT'}, 'crashes': {'EDRPOSTCRASH', 'CRASH', 'EDRPRECRASH'}}</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>{'OCC.CASEID', 'OCC.BELTAVAIL'}</t>
+          <t>{'OCC.BELTAVAIL', 'OCC.CASEID'}</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>{'seatbelt': {'OCC.BELTGUIDE', 'OCC.CHILDSEATUSE'}, 'crashes': {'GV.CRASHCONF', 'CRASH.CRASHYEAR', 'GV.CRASHTYPE', 'GV.CRASHCAT', 'CRASH.CRASHMONTH', 'CRASH.CRASHTIME'}, 'vehicles': {'OCC.VEHNO', 'CRASH.VEHICLES', 'GV.VEHNO', 'GV.VEHCLASS', 'OCC.MOBILITY'}, 'belt': {'OCC.BELTUSESRC', 'OCC.BELTSHLPOS', 'OCC.BELTLAPPOS', 'OCC.PARBELTUSE', 'OCC.BELTGUIDE', 'OCC.BELTPOSDEVUSE', 'OCC.BELTMALF', 'OCC.BELTUSE', 'OCC.BELTANCHOR', 'OCC.BELTPOSDEVPRES'}, 'is': {'GV.VAIS', 'CRASH.CAIS', 'CRASH.CISS'}}</t>
+          <t>{'seatbelt': {'OCC.CHILDSEATUSE', 'OCC.BELTGUIDE'}, 'crashes': {'GV.CRASHCONF', 'GV.CRASHCAT', 'CRASH.CRASHYEAR', 'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'GV.CRASHTYPE'}, 'vehicles': {'CRASH.VEHICLES', 'GV.VEHCLASS', 'OCC.VEHNO', 'GV.VEHNO', 'OCC.MOBILITY'}, 'belt': {'OCC.BELTSHLPOS', 'OCC.BELTANCHOR', 'OCC.BELTGUIDE', 'OCC.BELTUSESRC', 'OCC.BELTUSE', 'OCC.BELTMALF', 'OCC.BELTPOSDEVUSE', 'OCC.BELTLAPPOS', 'OCC.BELTPOSDEVPRES', 'OCC.PARBELTUSE'}, 'is': {'CRASH.CAIS', 'GV.VAIS', 'CRASH.CISS'}}</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>{'seat': {'SEAT', 'SEATXBAG', 'CHILDSEAT'}, 'crashes': {'EDRPOSTCRASH', 'CRASH', 'EDRPRECRASH'}}</t>
+          <t>{'seat': {'CHILDSEAT', 'SEAT', 'SEATXBAG'}, 'crashes': {'EDRPOSTCRASH', 'CRASH', 'EDRPRECRASH'}}</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -13381,7 +13381,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>{'seat': {'OCC.SEATLOC', 'OCC.CHILDSEATUSE'}, 'crashes': {'CRASH.CRASHYEAR', 'CRASH.CRASHTIME', 'CRASH.CRASHMONTH'}, 'belt?': {'OCC.BELTUSESRC', 'OCC.BELTSHLPOS', 'OCC.BELTLAPPOS', 'OCC.BELTGUIDE', 'OCC.BELTPOSDEVUSE', 'OCC.BELTANCHOR', 'OCC.BELTPOSDEVPRES'}}</t>
+          <t>{'seat': {'OCC.CHILDSEATUSE', 'OCC.SEATLOC'}, 'crashes': {'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'CRASH.CRASHYEAR'}, 'belt?': {'OCC.BELTSHLPOS', 'OCC.BELTANCHOR', 'OCC.BELTGUIDE', 'OCC.BELTUSESRC', 'OCC.BELTLAPPOS', 'OCC.BELTPOSDEVUSE', 'OCC.BELTPOSDEVPRES'}}</t>
         </is>
       </c>
     </row>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>{'OCC.MORTALITY', 'OCC.BELTUSE'}</t>
+          <t>{'OCC.BELTUSE', 'OCC.MORTALITY'}</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -13481,7 +13481,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>{'belt': {'OCC.PARBELTUSE', 'OCC.BELTSHLPOS', 'OCC.BELTLAPPOS', 'OCC.BELTAVAIL'}}</t>
+          <t>{'belt': {'OCC.BELTSHLPOS', 'OCC.PARBELTUSE', 'OCC.BELTLAPPOS', 'OCC.BELTAVAIL'}}</t>
         </is>
       </c>
     </row>
@@ -13516,7 +13516,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>{'OCC.MORTALITY', 'OCC.BELTUSE'}</t>
+          <t>{'OCC.BELTUSE', 'OCC.MORTALITY'}</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.PDOF'}</t>
+          <t>{'CDC.PDOF', 'CDC.CASEID', 'CDC.VEHNO'}</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'VPICDECODE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>{'crashes': {'CRASH.CRASHYEAR', 'CRASH.CRASHTIME', 'CRASH.CRASHMONTH'}, 'vehicle-to-vehicle': {'CRASH.VEHICLES', 'GV.VEHNO'}}</t>
+          <t>{'crashes': {'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'CRASH.CRASHYEAR'}, 'vehicle-to-vehicle': {'GV.VEHNO', 'CRASH.VEHICLES'}}</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13716,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.DAMAPILLAR'}</t>
+          <t>{'CDC.CASEID', 'CDC.DAMAPILLAR', 'CDC.VEHNO'}</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'VPICDECODE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -13766,7 +13766,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>{'CDC.DAMOTHPILLAR', 'CDC.VEHNO', 'CDC.CASEID'}</t>
+          <t>{'CDC.CASEID', 'CDC.DAMOTHPILLAR', 'CDC.VEHNO'}</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'VPICDECODE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>{'vehicle': {'CDC.VEHNO', 'GV.VEHNO'}, 'vehicle-to-object': {'CDC.VEHNO', 'GV.VEHNO'}, 'speed': {'CDC.DVSPEED', 'GV.DVSPEED'}}</t>
+          <t>{'vehicle': {'GV.VEHNO', 'CDC.VEHNO'}, 'vehicle-to-object': {'GV.VEHNO', 'CDC.VEHNO'}, 'speed': {'GV.DVSPEED', 'CDC.DVSPEED'}}</t>
         </is>
       </c>
     </row>
@@ -13916,12 +13916,12 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>{'CDC.C3', 'CDC.C5', 'CDC.CASEID', 'CDC.VEHNO', 'CDC.C4', 'CDC.C6', 'CDC.C1', 'CDC.C2', 'CDC.CMAX'}</t>
+          <t>{'CDC.C2', 'CDC.C6', 'CDC.VEHNO', 'CDC.C4', 'CDC.C5', 'CDC.C1', 'CDC.CASEID', 'CDC.CMAX', 'CDC.C3'}</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>{'CDC.C3', 'CDC.C4', 'CDC.C5', 'CDC.C6', 'CDC.C1', 'CDC.C2', 'CDC.CMAX'}</t>
+          <t>{'CDC.C2', 'CDC.C6', 'CDC.CMAX', 'CDC.C3', 'CDC.C4', 'CDC.C5', 'CDC.C1'}</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>{'case': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'ID,': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'EDREVENT.CASEID', 'EDRREST.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'VPICDECODE.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'TIREDAMAGE.CASEID', 'ADAPT.CASEID', 'INJURY.CASEID', 'EDRSUMM.CASEID', 'FIRE.CASEID'}, 'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'case': {'OCC.CASEID', 'OCCONTACT.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'ID,': {'OCC.CASEID', 'OCCONTACT.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'GV.CASEID', 'TIRE.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRPRECRASH.CASEID', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTRUSION.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'vehicle': {'SEAT.VEHNO', 'VPICDECODE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>{'EDREVENT.EDRSUMMNO', 'EDREVENT.CASEID', 'EDREVENT.VEHNO'}</t>
+          <t>{'EDREVENT.VEHNO', 'EDREVENT.CASEID', 'EDREVENT.EDRSUMMNO'}</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -13981,7 +13981,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>{'case': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'ids,': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'CDC.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'EDRREST.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'VPICDECODE.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'TIREDAMAGE.CASEID', 'ADAPT.CASEID', 'INJURY.CASEID', 'EDRSUMM.CASEID', 'FIRE.CASEID'}, 'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'event': {'EDREVENT.EVENTDESC', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENT1TO2', 'CRASH.EVENTS', 'EDRSUMM.NUMEVENTS', 'EDREVENT.NUMEVNTS'}, 'events': {'EDREVENT.EVENTDESC', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENT1TO2', 'CRASH.EVENTS', 'EDRSUMM.NUMEVENTS', 'EDREVENT.NUMEVNTS'}, 'numbers': {'EDRSUMM.NUMEVENTS', 'EDREVENT.NUMEVNTS'}}</t>
+          <t>{'case': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'ids,': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'GV.CASEID', 'TIRE.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRPRECRASH.CASEID', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTRUSION.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID'}, 'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'event': {'CRASH.EVENTS', 'EDREVENT.EVENT1TO2', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENTDESC', 'EDRSUMM.NUMEVENTS', 'EDREVENT.NUMEVNTS'}, 'events': {'CRASH.EVENTS', 'EDREVENT.EVENT1TO2', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENTDESC', 'EDRSUMM.NUMEVENTS', 'EDREVENT.NUMEVNTS'}, 'numbers': {'EDREVENT.NUMEVNTS', 'EDRSUMM.NUMEVENTS'}}</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14016,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>{'EDREVENT.EDREVENTNO', 'EDRPRECRASH.EDREVENTNO', 'EDREVENT.CASEID', 'EDRPRECRASH.CASEID'}</t>
+          <t>{'EDRPRECRASH.CASEID', 'EDREVENT.CASEID', 'EDRPRECRASH.EDREVENTNO', 'EDREVENT.EDREVENTNO'}</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>{'crash': {'EDREVENT.IGCYCRASH'}, 'crash,': {'EDREVENT.IGCYCRASH'}, 'case': {'TIREDAMAGE.CASENUMBER', 'VPICDECODE.CASENUMBER', 'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'EDREVENT.CASENUMBER', 'FIRE.CASENUMBER', 'VEHSPEC.CASENUMBER', 'CRASH.CASENUMBER', 'OCC.CASENUMBER', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPRECRASH.CASENUMBER', 'EDRPOSTCRASH.CASEID', 'GV.CASENUMBER', 'VEHSPEC.CASEID', 'DISTRACT.CASENUMBER', 'VEHMEAS.CASEID', 'SEATXBAG.CASENUMBER', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'INTEGRITY.CASENUMBER', 'ICS.CASEID', 'SEAT.CASENUMBER', 'EDRSUMM.CASENUMBER', 'JKWGT.CASEID', 'INJURY.CASENUMBER', 'LOCALIZER.CASENUMBER', 'EDRPOSTCRASH.CASENUMBER', 'TIREPLAC.CASENUMBER', 'ADAPT.CASENUMBER', 'EJECT.CASENUMBER', 'EDRREST.CASENUMBER', 'JKWGT.CASENUMBER', 'TIRE.CASENUMBER', 'DISTRACT.CASEID', 'GLAZING.CASENUMBER', 'CDC.CASENUMBER', 'EDRCOLLECT.CASEID', 'OCCONTACT.CASENUMBER', 'INTEGRITY.CASEID', 'FUEL.CASENUMBER', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'INTRUSION.CASENUMBER', 'EDRREST.CASEID', 'AIRBAG.CASENUMBER', 'ICS.CASENUMBER', 'EMSCARE.CASENUMBER', 'AVOID.CASENUMBER', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'VEHMEAS.CASENUMBER', 'FUEL.CASEID', 'GLAZING.CASEID', 'PRE_FHE.CASENUMBER', 'VPICDECODE.CASEID', 'CHILDSEAT.CASENUMBER', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'EDRCOLLECT.CASENUMBER', 'EVENT.CASENUMBER', 'INTERIOR.CASENUMBER', 'FIRE.CASEID'}, 'number': {'TIREDAMAGE.CASENUMBER', 'VPICDECODE.CASENUMBER', 'EDREVENT.CASENUMBER', 'FIRE.CASENUMBER', 'VEHSPEC.CASENUMBER', 'OCC.CASENUMBER', 'CRASH.CASENUMBER', 'EDRPRECRASH.CASENUMBER', 'GV.CASENUMBER', 'DISTRACT.CASENUMBER', 'SEATXBAG.CASENUMBER', 'SEAT.CASENUMBER', 'INTEGRITY.CASENUMBER', 'EDRSUMM.CASENUMBER', 'INJURY.CASENUMBER', 'LOCALIZER.CASENUMBER', 'EDRPOSTCRASH.CASENUMBER', 'TIREPLAC.CASENUMBER', 'ADAPT.CASENUMBER', 'EJECT.CASENUMBER', 'EDRREST.CASENUMBER', 'TIRE.CASENUMBER', 'JKWGT.CASENUMBER', 'GLAZING.CASENUMBER', 'CDC.CASENUMBER', 'OCCONTACT.CASENUMBER', 'FUEL.CASENUMBER', 'INTRUSION.CASENUMBER', 'AIRBAG.CASENUMBER', 'ICS.CASENUMBER', 'AVOID.CASENUMBER', 'EMSCARE.CASENUMBER', 'VEHMEAS.CASENUMBER', 'PRE_FHE.CASENUMBER', 'CHILDSEAT.CASENUMBER', 'EDRCOLLECT.CASENUMBER', 'EVENT.CASENUMBER', 'INTERIOR.CASENUMBER'}, 'event': {'EDREVENT.EVENTDESC', 'CDC.EVENTNO', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENT1TO2', 'EVENT.EVENTNO', 'EDREVENT.NUMEVNTS'}, 'event.': {'EDREVENT.EVENTDESC', 'CDC.EVENTNO', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENT1TO2', 'EVENT.EVENTNO'}, 'time-based': {'EDRPRECRASH.PTIME', 'EDRPOSTCRASH.PTIME'}}</t>
+          <t>{'crash': {'EDREVENT.IGCYCRASH'}, 'crash,': {'EDREVENT.IGCYCRASH'}, 'case': {'EDREVENT.CASENUMBER', 'EDRCOLLECT.CASENUMBER', 'EDRPRECRASH.CASENUMBER', 'ADAPT.CASENUMBER', 'FIRE.CASENUMBER', 'OCC.CASEID', 'OCCONTACT.CASEID', 'JKWGT.CASENUMBER', 'CDC.CASEID', 'EDRSUMM.CASENUMBER', 'VPICDECODE.CASENUMBER', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EMSCARE.CASENUMBER', 'LOCALIZER.CASENUMBER', 'PRE_FHE.CASENUMBER', 'INTRUSION.CASENUMBER', 'ICS.CASEID', 'EDRREST.CASENUMBER', 'AIRBAG.CASENUMBER', 'EDRSUMM.CASEID', 'EDRPOSTCRASH.CASENUMBER', 'SEATXBAG.CASENUMBER', 'INTEGRITY.CASENUMBER', 'VEHMEAS.CASENUMBER', 'GLAZING.CASENUMBER', 'INJURY.CASEID', 'TIRE.CASEID', 'SEAT.CASENUMBER', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'CDC.CASENUMBER', 'CHILDSEAT.CASENUMBER', 'PRE_FHE.CASEID', 'ICS.CASENUMBER', 'EJECT.CASEID', 'TIREPLAC.CASENUMBER', 'CRASH.CASENUMBER', 'AVOID.CASENUMBER', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'DISTRACT.CASENUMBER', 'SEAT.CASEID', 'LOCALIZER.CASEID', 'EVENT.CASEID', 'EDRPOSTCRASH.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASENUMBER', 'OCCONTACT.CASENUMBER', 'INJURY.CASENUMBER', 'EVENT.CASENUMBER', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'OCC.CASENUMBER', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'TIRE.CASENUMBER', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'EJECT.CASENUMBER', 'TIREPLAC.CASEID', 'VEHMEAS.CASEID', 'FUEL.CASENUMBER', 'VEHSPEC.CASENUMBER', 'INTERIOR.CASENUMBER', 'GV.CASENUMBER'}, 'number': {'EDREVENT.CASENUMBER', 'EDRCOLLECT.CASENUMBER', 'EDRPRECRASH.CASENUMBER', 'ADAPT.CASENUMBER', 'FIRE.CASENUMBER', 'JKWGT.CASENUMBER', 'EDRSUMM.CASENUMBER', 'VPICDECODE.CASENUMBER', 'EMSCARE.CASENUMBER', 'LOCALIZER.CASENUMBER', 'PRE_FHE.CASENUMBER', 'INTRUSION.CASENUMBER', 'EDRREST.CASENUMBER', 'AIRBAG.CASENUMBER', 'SEATXBAG.CASENUMBER', 'EDRPOSTCRASH.CASENUMBER', 'INTEGRITY.CASENUMBER', 'VEHMEAS.CASENUMBER', 'GLAZING.CASENUMBER', 'SEAT.CASENUMBER', 'CDC.CASENUMBER', 'CRASH.CASENUMBER', 'AVOID.CASENUMBER', 'CHILDSEAT.CASENUMBER', 'ICS.CASENUMBER', 'TIREPLAC.CASENUMBER', 'DISTRACT.CASENUMBER', 'TIREDAMAGE.CASENUMBER', 'INJURY.CASENUMBER', 'OCCONTACT.CASENUMBER', 'EVENT.CASENUMBER', 'OCC.CASENUMBER', 'TIRE.CASENUMBER', 'EJECT.CASENUMBER', 'FUEL.CASENUMBER', 'VEHSPEC.CASENUMBER', 'INTERIOR.CASENUMBER', 'GV.CASENUMBER'}, 'event': {'CDC.EVENTNO', 'EDREVENT.EVENT1TO2', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENTDESC', 'EVENT.EVENTNO', 'EDREVENT.NUMEVNTS'}, 'event.': {'CDC.EVENTNO', 'EDREVENT.EVENT1TO2', 'EDREVENT.CDCEVENT', 'EDREVENT.EVENTDESC', 'EVENT.EVENTNO'}, 'time-based': {'EDRPRECRASH.PTIME', 'EDRPOSTCRASH.PTIME'}}</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14046,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>{'EDREVENT', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'EDREVENT'}</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'VPICDECODE.Make', 'EDREVENT.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'EDREVENT.IGCYCRASH', 'VPICDECODE.ModelYear', 'EDREVENT.CASEID'}</t>
+          <t>{'EDREVENT.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.ModelYear', 'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'EDREVENT.CASEID', 'VPICDECODE.Make', 'EDREVENT.IGCYCRASH'}</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'make,': {'GV.MAKE'}, 'model': {'GV.MODELYR', 'GV.MODEL'}, 'model,': {'GV.MODELYR', 'GV.MODEL'}, 'models': {'GV.MODELYR', 'GV.MODEL'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'make,': {'GV.MAKE'}, 'model': {'GV.MODEL', 'GV.MODELYR'}, 'model,': {'GV.MODEL', 'GV.MODELYR'}, 'models': {'GV.MODEL', 'GV.MODELYR'}}</t>
         </is>
       </c>
     </row>
@@ -14116,12 +14116,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>{'EDREVENT.IGCYCRASH', 'EDREVENT.CASEID', 'EDREVENT.VEHNO'}</t>
+          <t>{'EDREVENT.VEHNO', 'EDREVENT.CASEID', 'EDREVENT.IGCYCRASH'}</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>{'EDREVENT.IGCYCRASH', 'EDREVENT.CASEID', 'EDREVENT.VEHNO'}</t>
+          <t>{'EDREVENT.VEHNO', 'EDREVENT.CASEID', 'EDREVENT.IGCYCRASH'}</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>{'INJURY.VEHNO', 'INJURY.CASEID', 'INJURY.OCCNO', 'INJURY.INJNO'}</t>
+          <t>{'INJURY.INJNO', 'INJURY.CASEID', 'INJURY.VEHNO', 'INJURY.OCCNO'}</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>{'cases': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'INJURY.CASEWGT', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'cases,': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'TIREPLAC.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'INJURY.CASEWGT', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'TIRE.CASEID', 'INTRUSION.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GV.VIN', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'cases': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'INJURY.CASEWGT', 'VEHMEAS.CASEID'}, 'cases,': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'TIRE.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'TIREPLAC.CASEID', 'INJURY.CASEWGT', 'VEHMEAS.CASEID'}, 'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'GV.VIN', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14196,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>{'FUEL', 'FIRE'}</t>
+          <t>{'FIRE', 'FUEL'}</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>{'FIRE.VEHNO', 'FUEL.FUELTYPE', 'FUEL.CASEID', 'FIRE.CASEID', 'FUEL.VEHNO'}</t>
+          <t>{'FIRE.VEHNO', 'FIRE.CASEID', 'FUEL.VEHNO', 'FUEL.CASEID', 'FUEL.FUELTYPE'}</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>{'fuel': {'FUEL.FUELNO', 'FUEL.FUELCOND', 'FUEL.FUELCELL', 'FUEL.FUELLOC', 'FUEL.FUELEAK'}}</t>
+          <t>{'fuel': {'FUEL.FUELNO', 'FUEL.FUELEAK', 'FUEL.FUELLOC', 'FUEL.FUELCOND', 'FUEL.FUELCELL'}}</t>
         </is>
       </c>
     </row>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>{'EJECT', 'OCC'}</t>
+          <t>{'OCC', 'EJECT'}</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -14266,12 +14266,12 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>{'EJECT.CASEID', 'OCC.SEX', 'EJECT.OCCNO', 'EJECT.VEHNO', 'OCC.VEHNO', 'OCC.OCCNO', 'OCC.CASEID'}</t>
+          <t>{'OCC.CASEID', 'OCC.SEX', 'EJECT.OCCNO', 'OCC.VEHNO', 'EJECT.CASEID', 'OCC.OCCNO', 'EJECT.VEHNO'}</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>{'EJECT.CASEID', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCC.CASEID'}</t>
+          <t>{'EJECT.CASEID', 'EJECT.VEHNO', 'OCC.VEHNO', 'OCC.CASEID'}</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>{'ejections': {'EJECT.EJECTAREA', 'EJECT.EJECTMEDSTAT', 'EJECT.EJECTNO', 'EJECT.EJECTMED'}}</t>
+          <t>{'ejections': {'EJECT.EJECTMED', 'EJECT.EJECTNO', 'EJECT.EJECTMEDSTAT', 'EJECT.EJECTAREA'}}</t>
         </is>
       </c>
     </row>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>{'crashes': {'CRASH.CRASHYEAR', 'CRASH.CRASHTIME', 'CRASH.CRASHMONTH'}, 'number': {'GV.CASENUMBER', 'CRASH.CASENUMBER'}, 'vehicle': {'GV.VINLENGTH', 'CRASH.VEHICLES', 'GV.VIN', 'GV.VEHCLASS', 'GV.VEHNO'}, 'make': {'GV.MAKE', 'GV.VPICMAKE'}}</t>
+          <t>{'crashes': {'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'CRASH.CRASHYEAR'}, 'number': {'CRASH.CASENUMBER', 'GV.CASENUMBER'}, 'vehicle': {'CRASH.VEHICLES', 'GV.VINLENGTH', 'GV.VIN', 'GV.VEHCLASS', 'GV.VEHNO'}, 'make': {'GV.VPICMAKE', 'GV.MAKE'}}</t>
         </is>
       </c>
     </row>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>{'AVOID.AVAIL', 'AVOID.CASEID'}</t>
+          <t>{'AVOID.CASEID', 'AVOID.AVAIL'}</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -14381,7 +14381,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>{'crash': {'GV.CRASHCONF', 'CRASH.CRASHYEAR', 'GV.CRASHTYPE', 'GV.CRASHCAT', 'CRASH.CRASHMONTH', 'CRASH.CRASHTIME'}, 'crashes': {'GV.CRASHCONF', 'CRASH.CRASHYEAR', 'GV.CRASHTYPE', 'GV.CRASHCAT', 'CRASH.CRASHMONTH', 'CRASH.CRASHTIME'}, 'vehicles': {'GV.VEHCLASS', 'CRASH.VEHICLES', 'AVOID.VEHNO', 'GV.VEHNO'}}</t>
+          <t>{'crash': {'GV.CRASHCONF', 'GV.CRASHCAT', 'CRASH.CRASHYEAR', 'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'GV.CRASHTYPE'}, 'crashes': {'GV.CRASHCONF', 'GV.CRASHCAT', 'CRASH.CRASHYEAR', 'CRASH.CRASHMONTH', 'CRASH.CRASHTIME', 'GV.CRASHTYPE'}, 'vehicles': {'GV.VEHNO', 'CRASH.VEHICLES', 'GV.VEHCLASS', 'AVOID.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14466,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>{'AVOID.EQUIP', 'AVOID.VEHNO', 'AVOID.AVAIL', 'AVOID.CASEID'}</t>
+          <t>{'AVOID.EQUIP', 'AVOID.CASEID', 'AVOID.AVAIL', 'AVOID.VEHNO'}</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>{'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'VEHMEAS.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -14516,7 +14516,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.VEHNO', 'TIREDAMAGE.CASEID'}</t>
+          <t>{'TIREDAMAGE.CASEID', 'TIREDAMAGE.VEHNO'}</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>{'tire': {'TIRE.TIRETREAD', 'TIRE.TIRETIN', 'TIRE.TIRELOC', 'TIRE.TIREMANUF', 'TIRE.TIRERESTR', 'TIRE.TIRESIZETYPE', 'TIRE.TIRESIZE', 'TIRE.TIREMODEL', 'TIREDAMAGE.TIRELOC'}, 'damage?': {'TIREDAMAGE.DAMAGE'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'VEHMEAS.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'tire': {'TIRE.TIRETIN', 'TIRE.TIRESIZE', 'TIRE.TIRERESTR', 'TIRE.TIREMANUF', 'TIREDAMAGE.TIRELOC', 'TIRE.TIREMODEL', 'TIRE.TIRETREAD', 'TIRE.TIRESIZETYPE', 'TIRE.TIRELOC'}, 'damage?': {'TIREDAMAGE.DAMAGE'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>{'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GV.VIN', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'GV.VINLENGTH', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VEHSPEC.ALTVEH', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'VEHSPEC.DRVWHEELS', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VEHSPEC.ALTVEH', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'VEHSPEC.DRVWHEELS', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'weight': {'GV.BODYTYPE'}}</t>
+          <t>{'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'GV.VINLENGTH', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'VEHSPEC.DRVWHEELS', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'GV.VIN', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'VEHSPEC.ALTVEH', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'VEHSPEC.DRVWHEELS', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'VEHSPEC.ALTVEH', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'weight': {'GV.BODYTYPE'}}</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14616,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.GAWRFRONT', 'TIREPLAC.GAWRREAR', 'TIREPLAC.GVWR'}</t>
+          <t>{'TIREPLAC.GAWRREAR', 'TIREPLAC.GVWR', 'TIREPLAC.GAWRFRONT'}</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>{'vehicle': {'TIREPLAC.VEHNO'}, 'vehicles': {'TIREPLAC.VEHNO'}, 'Front': {'TIREPLAC.RECFRONT3', 'TIREPLAC.RECFRONT2', 'TIREPLAC.RECFRONT1'}}</t>
+          <t>{'vehicle': {'TIREPLAC.VEHNO'}, 'vehicles': {'TIREPLAC.VEHNO'}, 'Front': {'TIREPLAC.RECFRONT2', 'TIREPLAC.RECFRONT1', 'TIREPLAC.RECFRONT3'}}</t>
         </is>
       </c>
     </row>
@@ -14661,12 +14661,12 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>{'tire': {'TIRE', 'TIREDAMAGE'}}</t>
+          <t>{'tire': {'TIREDAMAGE', 'TIRE'}}</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.GVWR'}</t>
+          <t>{'TIREPLAC.GVWR', 'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECRRPRESS1'}</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -14681,7 +14681,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>{'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'front': {'TIREPLAC.RECFRONT2', 'TIREPLAC.RECFRONT1'}}</t>
+          <t>{'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'front': {'TIREPLAC.RECFRONT2', 'TIREPLAC.RECFRONT1'}}</t>
         </is>
       </c>
     </row>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECFRONT1'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIREPLAC.RECFRPRESS1'}</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -14761,12 +14761,12 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>{'tire': {'TIRE', 'TIREDAMAGE'}}</t>
+          <t>{'tire': {'TIREDAMAGE', 'TIRE'}}</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'VPICDECODE.Make', 'TIREPLAC.RECFRONT1', 'VPICDECODE.CASEID', 'TIREPLAC.VEHNO', 'VPICDECODE.Model', 'TIREPLAC.RECREAR1', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.CASEID', 'TIREPLAC.RECREAR1', 'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'TIREPLAC.RECFRONT1', 'VPICDECODE.Make', 'TIREPLAC.VEHNO', 'TIREPLAC.CASEID'}</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.MAKE': [('Subaru', 'SUBARU'), ('WRXs', 'SUBARU'), ('the Subaru', 'SUBARU'), ('Subaru WRXs', 'SUBARU'), ('WRXs in', 'SUBARU'), ('of the Subaru', 'SUBARU'), ('the Subaru WRXs', 'SUBARU'), ('Subaru WRXs in', 'SUBARU'), ('WRXs in the', 'SUBARU')], 'VPICDECODE.MODEL': [('Subaru', 'WRX'), ('WRXs', 'WRX'), ('the Subaru', 'WRX'), ('Subaru WRXs', 'WRX'), ('WRXs in', 'WRX'), ('of the Subaru', 'WRX'), ('the Subaru WRXs', 'WRX'), ('Subaru WRXs in', 'WRX'), ('WRXs in the', 'WRX')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -14811,12 +14811,12 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>{'tire': {'TIRE', 'TIREDAMAGE'}}</t>
+          <t>{'tire': {'TIREDAMAGE', 'TIRE'}}</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASEID', 'VPICDECODE.Make', 'TIREPLAC.RECFRONT1', 'VPICDECODE.CASEID', 'VPICDECODE.ModelYear', 'TIREPLAC.VEHNO', 'TIREPLAC.RECFRPRESS1', 'VPICDECODE.Model', 'TIREPLAC.RECREAR1', 'VPICDECODE.VEHNO', 'TIREPLAC.RECRRPRESS1'}</t>
+          <t>{'VPICDECODE.CASEID', 'TIREPLAC.RECREAR1', 'TIREPLAC.RECRRPRESS1', 'VPICDECODE.Model', 'VPICDECODE.VEHNO', 'TIREPLAC.RECFRONT1', 'VPICDECODE.Make', 'TIREPLAC.VEHNO', 'TIREPLAC.CASEID', 'VPICDECODE.ModelYear', 'TIREPLAC.RECFRPRESS1'}</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -14826,7 +14826,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.MAKE': [('Honda', 'HONDA'), ('the Honda', 'HONDA'), ('Honda Civics', 'HONDA'), ('Civics manufactured', 'HONDA'), ('of the Honda', 'HONDA'), ('the Honda Civics', 'HONDA'), ('Honda Civics manufactured', 'HONDA'), ('Civics manufactured before', 'HONDA')], 'VPICDECODE.MODEL': [('Civics', 'CIVIC'), ('Civics manufactured', 'CIVIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -14876,12 +14876,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>{'TIRE.TIREMODEL': [('had wrangler', 'WRANGLER'), ('vehicles had wrangler', 'WRANGLER'), ('had wrangler model', 'WRANGLER')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>{'tires?': {'TIRE.TIRETREAD', 'TIRE.TIRETIN', 'TIRE.TIRELOC', 'TIRE.TIREMANUF', 'TIRE.TIRERESTR', 'TIRE.TIRESIZETYPE', 'TIRE.TIRESIZE'}, 'model': {'GV.VPICMODEL', 'VPICDECODE.Model', 'GV.MODELYR', 'GV.MODEL'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'VEHMEAS.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'tires?': {'TIRE.TIRETIN', 'TIRE.TIRESIZE', 'TIRE.TIRERESTR', 'TIRE.TIREMANUF', 'TIRE.TIRETREAD', 'TIRE.TIRESIZETYPE', 'TIRE.TIRELOC'}, 'model': {'VPICDECODE.Model', 'GV.MODELYR', 'GV.VPICMODEL', 'GV.MODEL'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -14896,7 +14896,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>{'TIRE', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'TIRE'}</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -14916,17 +14916,17 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>{'TIRE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'TIRE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'TIRE.TIREMODEL'}</t>
+          <t>{'TIRE.CASEID', 'VPICDECODE.CASEID', 'TIRE.TIREMODEL', 'TIRE.VEHNO', 'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.CASEID', 'TIRE.CASEID'}</t>
+          <t>{'TIRE.CASEID', 'VPICDECODE.CASEID'}</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.MAKE': [('Jeep', 'JEEP'), ('on Jeep', 'JEEP'), ('Jeep Wranglers.', 'JEEP'), ('Wranglers. Ensure', 'JEEP'), ('found on Jeep', 'JEEP'), ('on Jeep Wranglers.', 'JEEP'), ('Jeep Wranglers. Ensure', 'JEEP'), ('Wranglers. Ensure only', 'JEEP')], 'VPICDECODE.MODEL': [('Wranglers.', 'WRANGLER'), ('Wranglers. Ensure', 'WRANGLER'), ('Wranglers. Ensure only', 'WRANGLER')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -14981,7 +14981,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>{'number': {'GV.CASENUMBER'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'VEHMEAS.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'GV.VEHCLASS', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'Make': {'GV.MAKE', 'GV.VPICMAKE'}, 'models': {'GV.VPICMODEL', 'VPICDECODE.Model', 'GV.MODELYR', 'GV.MODEL'}}</t>
+          <t>{'number': {'GV.CASENUMBER'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VEHCLASS', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'Make': {'GV.VPICMAKE', 'GV.MAKE'}, 'models': {'VPICDECODE.Model', 'GV.MODELYR', 'GV.VPICMODEL', 'GV.MODEL'}}</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.DAMAGE', 'TIREDAMAGE.VEHNO', 'TIRE.VEHNO', 'TIRE.CASEID', 'TIRE.TIREMODEL', 'TIREDAMAGE.CASEID'}</t>
+          <t>{'TIREDAMAGE.CASEID', 'TIREDAMAGE.DAMAGE', 'TIRE.CASEID', 'TIRE.TIREMODEL', 'TIRE.VEHNO', 'TIREDAMAGE.VEHNO'}</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>{'tire': {'TIRE.TIRETREAD', 'TIRE.TIRETIN', 'TIRE.TIRELOC', 'TIRE.TIREMANUF', 'TIRE.TIRESIZE', 'TIREDAMAGE.TIRELOC'}, 'tire,': {'TIRE.TIRETREAD', 'TIRE.TIRETIN', 'TIRE.TIRELOC', 'TIRE.TIREMANUF', 'TIRE.TIRESIZE', 'TIREDAMAGE.TIRELOC'}, 'tires': {'TIRE.TIRETREAD', 'TIRE.TIRETIN', 'TIRE.TIRELOC', 'TIRE.TIREMANUF', 'TIRE.TIRESIZE', 'TIREDAMAGE.TIRELOC'}, 'category': {'TIRE.CATEGORY'}, 'number': {'TIRE.CASENUMBER'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'VEHMEAS.VEHNO', 'AVOID.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'models': {'VPICDECODE.Model', 'GV.MODEL'}}</t>
+          <t>{'tire': {'TIRE.TIRETIN', 'TIRE.TIRESIZE', 'TIRE.TIREMANUF', 'TIREDAMAGE.TIRELOC', 'TIRE.TIRETREAD', 'TIRE.TIRELOC'}, 'tire,': {'TIRE.TIRETIN', 'TIRE.TIRESIZE', 'TIRE.TIREMANUF', 'TIREDAMAGE.TIRELOC', 'TIRE.TIRETREAD', 'TIRE.TIRELOC'}, 'tires': {'TIRE.TIRETIN', 'TIRE.TIRESIZE', 'TIRE.TIREMANUF', 'TIREDAMAGE.TIRELOC', 'TIRE.TIRETREAD', 'TIRE.TIRELOC'}, 'category': {'TIRE.CATEGORY'}, 'number': {'TIRE.CASENUMBER'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'models': {'VPICDECODE.Model', 'GV.MODEL'}}</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15066,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>{'TIRE.TIRESIZE', 'TIREPLAC.CASEID', 'TIRE.VEHNO', 'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO'}</t>
+          <t>{'TIRE.CASEID', 'TIREPLAC.CASEID', 'TIRE.VEHNO', 'TIRE.TIRESIZE', 'TIREPLAC.RECFRONT1', 'TIREPLAC.VEHNO', 'TIRE.TIRELOC'}</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -15081,7 +15081,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>{'tire': {'TIREDAMAGE.TIRELOC'}, 'case': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'CDC.CASEID', 'INTRUSION.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'VPICDECODE.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'IDs': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'CDC.CASEID', 'INTRUSION.CASEID', 'EDREVENT.CASEID', 'EDRREST.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'VPICDECODE.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'TIREDAMAGE.CASEID', 'ADAPT.CASEID', 'INJURY.CASEID', 'EDRSUMM.CASEID', 'FIRE.CASEID'}, 'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'VEHMEAS.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'VEHMEAS.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}}</t>
+          <t>{'tire': {'TIREDAMAGE.TIRELOC'}, 'case': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'EDRPOSTCRASH.CASEID', 'SEAT.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'VEHMEAS.CASEID'}, 'IDs': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRPRECRASH.CASEID', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTRUSION.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VPICDECODE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'VEHMEAS.CASEID'}, 'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}}</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15096,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>{'TIREPLAC', 'TIRE', 'VPICDECODE'}</t>
+          <t>{'TIREPLAC', 'VPICDECODE', 'TIRE'}</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -15116,7 +15116,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.VEHNO', 'TIREPLAC.CASEID', 'VPICDECODE.Make', 'TIRE.VEHNO', 'TIREPLAC.RECFRONT1', 'VPICDECODE.CASEID', 'TIRE.CASEID', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'VPICDECODE.Model', 'TIRE.TIRESIZE'}</t>
+          <t>{'VPICDECODE.CASEID', 'TIRE.VEHNO', 'VPICDECODE.VEHNO', 'TIRE.TIRESIZE', 'VPICDECODE.Model', 'TIREPLAC.RECFRONT1', 'VPICDECODE.Make', 'TIREPLAC.VEHNO', 'TIRE.CASEID', 'TIREPLAC.CASEID', 'TIRE.TIRELOC'}</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>{'tire': {'TIREDAMAGE.TIRELOC'}, 'case': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'GV.CASENUMBER', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'GV.CASENO', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'CDC.CASEID', 'INTRUSION.CASEID', 'EDRREST.CASEID', 'EDREVENT.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'TIREDAMAGE.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'ADAPT.CASEID', 'FIRE.CASEID'}, 'IDs,': {'CHILDSEAT.CASEID', 'PRE_FHE.CASEID', 'AIRBAG.CASEID', 'INTERIOR.CASEID', 'EDRPOSTCRASH.CASEID', 'VEHSPEC.CASEID', 'VEHMEAS.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'OCC.CASEID', 'EJECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'ICS.CASEID', 'JKWGT.CASEID', 'EDRPRECRASH.CASEID', 'DISTRACT.CASEID', 'EDRCOLLECT.CASEID', 'INTEGRITY.CASEID', 'CDC.CASEID', 'INTRUSION.CASEID', 'EDREVENT.CASEID', 'EDRREST.CASEID', 'AVOID.CASEID', 'SEAT.CASEID', 'OCCONTACT.CASEID', 'EVENT.CASEID', 'GV.CASEID', 'GLAZING.CASEID', 'FUEL.CASEID', 'TIREDAMAGE.CASEID', 'ADAPT.CASEID', 'INJURY.CASEID', 'EDRSUMM.CASEID', 'FIRE.CASEID'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'VEHMEAS.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'make,': {'GV.MAKE', 'GV.VPICMAKE'}, 'model,': {'GV.MODEL'}}</t>
+          <t>{'tire': {'TIREDAMAGE.TIRELOC'}, 'case': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRCOLLECT.CASEID', 'EDRPRECRASH.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'EDRPOSTCRASH.CASEID', 'SEAT.CASEID', 'EVENT.CASEID', 'INTERIOR.CASEID', 'INTRUSION.CASEID', 'TIREDAMAGE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'VEHMEAS.CASEID', 'GV.CASENO', 'GV.CASENUMBER'}, 'IDs,': {'OCC.CASEID', 'OCCONTACT.CASEID', 'CDC.CASEID', 'EDRREST.CASEID', 'JKWGT.CASEID', 'EDREVENT.CASEID', 'ICS.CASEID', 'EDRSUMM.CASEID', 'INJURY.CASEID', 'GV.CASEID', 'FUEL.CASEID', 'DISTRACT.CASEID', 'INTEGRITY.CASEID', 'PRE_FHE.CASEID', 'EJECT.CASEID', 'EDRPRECRASH.CASEID', 'EDRCOLLECT.CASEID', 'CRASH.CASEID', 'LOCALIZER.CASEID', 'SEAT.CASEID', 'EDRPOSTCRASH.CASEID', 'EVENT.CASEID', 'INTRUSION.CASEID', 'INTERIOR.CASEID', 'TIREDAMAGE.CASEID', 'VEHSPEC.CASEID', 'FIRE.CASEID', 'GLAZING.CASEID', 'CHILDSEAT.CASEID', 'AVOID.CASEID', 'ADAPT.CASEID', 'SEATXBAG.CASEID', 'EMSCARE.CASEID', 'AIRBAG.CASEID', 'VEHMEAS.CASEID'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'make,': {'GV.VPICMAKE', 'GV.MAKE'}, 'model,': {'GV.MODEL'}}</t>
         </is>
       </c>
     </row>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>{'tire': {'TIREPLAC', 'TIRE', 'TIREDAMAGE'}, 'tires?': {'TIREPLAC', 'TIRE', 'TIREDAMAGE'}}</t>
+          <t>{'tire': {'TIREPLAC', 'TIREDAMAGE', 'TIRE'}, 'tires?': {'TIREPLAC', 'TIREDAMAGE', 'TIRE'}}</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>{'tire': {'TIRE.TIRESIZE', 'TIRE.TIRELOC', 'TIREDAMAGE.TIRELOC'}, 'tires?': {'TIRE.TIRESIZE', 'TIRE.TIRELOC', 'TIREDAMAGE.TIRELOC'}, 'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'VPICDECODE.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'make': {'GV.MAKE', 'VPICDECODE.Make'}, 'size': {'TIRE.TIRESIZE'}, 'front': {'TIREPLAC.RECFRONT1'}}</t>
+          <t>{'tire': {'TIRE.TIRESIZE', 'TIREDAMAGE.TIRELOC', 'TIRE.TIRELOC'}, 'tires?': {'TIRE.TIRESIZE', 'TIREDAMAGE.TIRELOC', 'TIRE.TIRELOC'}, 'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'VPICDECODE.VEHNO', 'EMSCARE.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'make': {'VPICDECODE.Make', 'GV.MAKE'}, 'size': {'TIRE.TIRESIZE'}, 'front': {'TIREPLAC.RECFRONT1'}}</t>
         </is>
       </c>
     </row>
@@ -15246,7 +15246,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT', 'DISTRACT'}</t>
+          <t>{'DISTRACT', 'CHILDSEAT'}</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -15266,7 +15266,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT.OCCNO', 'CHILDSEAT.CASEID', 'DISTRACT.CASEID'}</t>
+          <t>{'CHILDSEAT.CASEID', 'CHILDSEAT.OCCNO', 'DISTRACT.CASEID'}</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>{'seats': {'CHILDSEAT.CHILDSEATNO', 'OCC.SEATLOC', 'CHILDSEAT.SEATLOC'}, 'child': {'CHILDSEAT.CHILDSEATYPE', 'CHILDSEAT.CHILDSEATNO', 'CHILDSEAT.CHILDMANUF', 'CHILDSEAT.CHILDMAKE', 'CHILDSEAT.CHILDMODELNO', 'CHILDSEAT.CHILDMODEL', 'CHILDSEAT.CHILDDATEMAN'}}</t>
+          <t>{'seats': {'CHILDSEAT.CHILDSEATNO', 'OCC.SEATLOC', 'CHILDSEAT.SEATLOC'}, 'child': {'CHILDSEAT.CHILDMANUF', 'CHILDSEAT.CHILDDATEMAN', 'CHILDSEAT.CHILDMODEL', 'CHILDSEAT.CHILDMODELNO', 'CHILDSEAT.CHILDSEATYPE', 'CHILDSEAT.CHILDMAKE', 'CHILDSEAT.CHILDSEATNO'}}</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'CHILDSEAT'}</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -15316,7 +15316,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Model', 'VPICDECODE.Make', 'CHILDSEAT.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'CHILDSEAT.VEHNO'}</t>
+          <t>{'VPICDECODE.Make', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'CHILDSEAT.VEHNO', 'CHILDSEAT.CASEID', 'VPICDECODE.Model'}</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>{'car': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'make': {'GV.MAKE', 'GV.VPICMAKE'}, 'model': {'GV.VPICMODEL', 'GV.MODEL'}}</t>
+          <t>{'car': {'SEAT.VEHNO', 'CDC.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'make': {'GV.VPICMAKE', 'GV.MAKE'}, 'model': {'GV.MODEL', 'GV.VPICMODEL'}}</t>
         </is>
       </c>
     </row>
@@ -15346,7 +15346,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT', 'DISTRACT', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'DISTRACT', 'CHILDSEAT'}</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -15366,7 +15366,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>{'DISTRACT.DISTRACTN', 'VPICDECODE.Make', 'CHILDSEAT.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'DISTRACT.VEHNO', 'CHILDSEAT.VEHNO', 'VPICDECODE.VEHNO', 'DISTRACT.CASEID'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'CHILDSEAT.VEHNO', 'CHILDSEAT.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'DISTRACT.DISTRACTN', 'DISTRACT.VEHNO', 'DISTRACT.CASEID'}</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>{'car': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'INTRUSION.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'TIREDAMAGE.VEHNO', 'SEATXBAG.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'VEHSPEC.VEHNO', 'EDRREST.VEHNO', 'ADAPT.VEHNO', 'VEHMEAS.VEHNO', 'EMSCARE.VEHNO'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'INTRUSION.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'TIREDAMAGE.VEHNO', 'SEATXBAG.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'VEHSPEC.VEHNO', 'EDRREST.VEHNO', 'ADAPT.VEHNO', 'VEHMEAS.VEHNO', 'EMSCARE.VEHNO'}, 'make': {'GV.MAKE'}, 'model': {'GV.MODEL'}}</t>
+          <t>{'car': {'SEAT.VEHNO', 'CDC.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'AIRBAG.VEHNO', 'TIREPLAC.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'AIRBAG.VEHNO', 'TIREPLAC.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'make': {'GV.MAKE'}, 'model': {'GV.MODEL'}}</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>{'DISTRACT', 'VPICDECODE'}</t>
+          <t>{'VPICDECODE', 'DISTRACT'}</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -15416,7 +15416,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>{'DISTRACT.DISTRACTN', 'VPICDECODE.Make', 'DISTRACT.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'DISTRACT.VEHNO'}</t>
+          <t>{'VPICDECODE.Make', 'VPICDECODE.CASEID', 'DISTRACT.VEHNO', 'DISTRACT.CASEID', 'VPICDECODE.VEHNO', 'DISTRACT.DISTRACTN'}</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>{'number': {'GV.CASENUMBER', 'DISTRACT.CASENUMBER'}, 'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GV.VIN', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'vehicles': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'FIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'ICS.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'make': {'GV.MAKE'}, 'model': {'VPICDECODE.Model', 'GV.MODEL'}}</t>
+          <t>{'number': {'DISTRACT.CASENUMBER', 'GV.CASENUMBER'}, 'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'GV.VIN', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'vehicles': {'SEAT.VEHNO', 'CDC.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO', 'FIRE.VEHNO'}, 'make': {'GV.MAKE'}, 'model': {'VPICDECODE.Model', 'GV.MODEL'}}</t>
         </is>
       </c>
     </row>
@@ -15446,7 +15446,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>{'VPICDECODE', 'FIRE'}</t>
+          <t>{'FIRE', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -15466,7 +15466,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'FIRE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'FIRE.FIRE', 'FIRE.CASEID'}</t>
+          <t>{'VPICDECODE.CASEID', 'FIRE.VEHNO', 'FIRE.CASEID', 'VPICDECODE.VEHNO', 'VPICDECODE.Make', 'FIRE.FIRE'}</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -15481,7 +15481,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>{'number': {'GV.CASENUMBER', 'CRASH.CASENUMBER'}, 'vehicle': {'INTERIOR.VEHNO', 'INTEGRITY.VEHNO', 'GLAZING.VEHNO', 'PRE_FHE.VEHNO', 'GV.VEHNO', 'CHILDSEAT.VEHNO', 'EDRCOLLECT.VEHNO', 'AIRBAG.VEHNO', 'OCC.VEHNO', 'EJECT.VEHNO', 'OCCONTACT.VEHNO', 'INJURY.VEHNO', 'EDRPOSTCRASH.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'SEATXBAG.VEHNO', 'TIREDAMAGE.VEHNO', 'AVOID.VEHNO', 'TIRE.VEHNO', 'VEHMEAS.VEHNO', 'EDRPRECRASH.VEHNO', 'CRASH.VEHICLES', 'ICS.VEHNO', 'EDREVENT.VEHNO', 'FUEL.VEHNO', 'TIREPLAC.VEHNO', 'SEAT.VEHNO', 'LOCALIZER.VEHNO', 'CDC.VEHNO', 'EDRREST.VEHNO', 'VEHSPEC.VEHNO', 'ADAPT.VEHNO', 'INTRUSION.VEHNO', 'EMSCARE.VEHNO'}, 'make': {'GV.MAKE'}}</t>
+          <t>{'number': {'CRASH.CASENUMBER', 'GV.CASENUMBER'}, 'vehicle': {'SEAT.VEHNO', 'CDC.VEHNO', 'INTERIOR.VEHNO', 'ADAPT.VEHNO', 'EMSCARE.VEHNO', 'EJECT.VEHNO', 'EDRCOLLECT.VEHNO', 'LOCALIZER.VEHNO', 'OCC.VEHNO', 'PRE_FHE.VEHNO', 'ICS.VEHNO', 'VEHMEAS.VEHNO', 'CHILDSEAT.VEHNO', 'INTRUSION.VEHNO', 'GV.VEHNO', 'SEATXBAG.VEHNO', 'GLAZING.VEHNO', 'EDRPOSTCRASH.VEHNO', 'AVOID.VEHNO', 'EDRSUMM.VEHNO', 'DISTRACT.VEHNO', 'INJURY.VEHNO', 'TIREDAMAGE.VEHNO', 'EDREVENT.VEHNO', 'TIRE.VEHNO', 'FUEL.VEHNO', 'EDRREST.VEHNO', 'OCCONTACT.VEHNO', 'CRASH.VEHICLES', 'EDRPRECRASH.VEHNO', 'TIREPLAC.VEHNO', 'AIRBAG.VEHNO', 'INTEGRITY.VEHNO', 'VEHSPEC.VEHNO'}, 'make': {'GV.MAKE'}}</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15516,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>{'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.LEVEL', 'Accountability_Levels.INDICATOR'}</t>
+          <t>{'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.LEVEL', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.INDICATOR'}</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -15526,12 +15526,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>{'ACCOUNTABILITY_LEVELS.ENTITY_NAME': [('friendship', 'FRIENDSHIP'), ('word friendship', 'FRIENDSHIP'), ('friendship in', 'FRIENDSHIP'), ('the word friendship', 'FRIENDSHIP'), ('word friendship in', 'FRIENDSHIP'), ('friendship in their', 'FRIENDSHIP')], 'ACCOUNTABILITY_LEVELS.INDICATOR': [("'HS", 'HS'), ('Grad', 'HS'), ('schools', 'HS'), ("'HS Grad", 'HS'), ("'HS Grad Rate'", 'HS')], 'ACCOUNTABILITY_LEVELS.SUBGROUP_NAME': [('multiracial', 'MULTIRACIAL'), ('the multiracial', 'MULTIRACIAL'), ('multiracial subgroup', 'MULTIRACIAL'), ('for the multiracial', 'MULTIRACIAL'), ('the multiracial subgroup', 'MULTIRACIAL'), ('multiracial subgroup for', 'MULTIRACIAL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>{'entity': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME'}, 'ID,': {'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_EM_ELP.INSTITUTION_ID', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Postsecondary_Enrollment.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID', 'Annual_NYSESLAT.INSTITUTION_ID', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Annual_EM_ELA.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_NYSAA.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID'}, 'name,': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME'}, 'institution': {'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_EM_ELP.INSTITUTION_ID', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'Annual_NYSESLAT.INSTITUTION_ID', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Annual_EM_ELA.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_NYSAA.INSTITUTION_ID', 'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID'}, 'level': {'ACC_EM_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'ACC_HS_ELP.LEVEL'}, 'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, "Rate'": {'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE'}}</t>
+          <t>{'entity': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'ID,': {'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'Annual_NYSESLAT.INSTITUTION_ID', 'Annual_NYSAA.INSTITUTION_ID', 'Expenditures_per_Pupil.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.INSTITUTION_ID'}, 'name,': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'institution': {'Total_Cohort_Regents_Exams.INSTITUTION_ID', 'ACC_EM_Core_and_Weighted_Performance.INSTITUTION_ID', 'Inexperienced_Teachers_and_Principals.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID', 'ACC_EM_Chronic_Absenteeism.INSTITUTION_ID', 'ACC_HS_Core_and_Weighted_Performance.INSTITUTION_ID', 'Postsecondary_Enrollment.INSTITUTION_ID', 'Annual_EM_SCIENCE.INSTITUTION_ID', 'Annual_Regents_Exams.INSTITUTION_ID', 'ACC_EM_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Chronic_Absenteeism.INSTITUTION_ID', 'Accountability_Status.INSTITUTION_ID', 'Annual_NYSESLAT.INSTITUTION_ID', 'Annual_NYSAA.INSTITUTION_ID', 'Expenditures_per_Pupil.INSTITUTION_ID', 'BOCES_and_N/RC.INSTITUTION_ID', 'Institution_Grouping.INSTITUTION_ID', 'Teachers_Teaching_Out_of_Certification.INSTITUTION_ID', 'Accountability_Status_by_Subgroup.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'Annual_EM_ELA.INSTITUTION_ID', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_EM_ELP.INSTITUTION_ID'}, 'level': {'ACC_EM_ELP.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_HS_ELP.LEVEL'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, "Rate'": {'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.RATE'}}</t>
         </is>
       </c>
     </row>
@@ -15561,12 +15561,12 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>{'ELA4,': {'ACC_EM_ELP', 'ACC_HS_ELP'}}</t>
+          <t>{'ELA4,': {'ACC_HS_ELP', 'ACC_EM_ELP'}}</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.YEAR'}</t>
+          <t>{'Annual_EM_ELA.YEAR', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED'}</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -15576,12 +15576,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>{'ANNUAL_EM_ELA.ENTITY_NAME': [('PEMBROKE', 'PEMBROKE'), ('at PEMBROKE', 'PEMBROKE'), ('PEMBROKE INTERMEDIATE', 'PEMBROKE'), ('subgroup at PEMBROKE', 'PEMBROKE'), ('at PEMBROKE INTERMEDIATE', 'PEMBROKE'), ('PEMBROKE INTERMEDIATE SCHOOL', 'PEMBROKE')], 'ANNUAL_EM_ELA.ASSESSMENT_NAME': [('ELA4,', 'ELA4'), ('SCHOOL', 'ELA4'), ('ELA4, for', 'ELA4'), ('ELA4, for each', 'ELA4')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>{'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'assessment': {'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME'}, 'tested': {'Annual_NYSESLAT.NOT_TESTED', 'Annual_EM_MATH.PCT_NOT_TESTED', 'Annual_NYSESLAT.TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_EM_MATH.NOT_TESTED', 'Annual_NYSAA.NOT_TESTED', 'Annual_EM_ELA.NOT_TESTED', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_NYSAA.TESTED', 'Annual_EM_SCIENCE.NOT_TESTED'}, 'not': {'Annual_NYSESLAT.NOT_TESTED', 'Annual_EM_MATH.NOT_TESTED', 'Annual_EM_ELA.NOT_TESTED', 'Annual_NYSAA.NOT_TESTED', 'Annual_EM_SCIENCE.NOT_TESTED'}}</t>
+          <t>{'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'assessment': {'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME'}, 'tested': {'Annual_EM_MATH.NOT_TESTED', 'Annual_NYSESLAT.TESTED', 'Annual_NYSAA.NOT_TESTED', 'Annual_EM_ELA.NOT_TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_EM_SCIENCE.PCT_NOT_TESTED', 'Annual_EM_MATH.PCT_NOT_TESTED', 'Annual_NYSESLAT.NOT_TESTED', 'Annual_EM_SCIENCE.NOT_TESTED', 'Annual_NYSAA.TESTED'}, 'not': {'Annual_EM_MATH.NOT_TESTED', 'Annual_NYSAA.NOT_TESTED', 'Annual_EM_ELA.NOT_TESTED', 'Annual_NYSESLAT.NOT_TESTED', 'Annual_EM_SCIENCE.NOT_TESTED'}}</t>
         </is>
       </c>
     </row>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>{'total': {'Annual_NYSESLAT.TOTAL', 'Annual_NYSAA.TOTAL'}}</t>
+          <t>{'total': {'Annual_NYSAA.TOTAL', 'Annual_NYSESLAT.TOTAL'}}</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15666,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -15676,12 +15676,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>{'EXPENDITURES_PER_PUPIL.ENTITY_NAME': [('school', 'MONTESSORI'), ("'MONTESSORI", 'MONTESSORI'), ("named 'MONTESSORI", 'MONTESSORI'), ("'MONTESSORI MAGNET", 'MONTESSORI'), ("school named 'MONTESSORI", 'MONTESSORI'), ("named 'MONTESSORI MAGNET", 'MONTESSORI'), ("'MONTESSORI MAGNET SCHOOL'.", 'MONTESSORI')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>{'named': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Accountability_Levels.ENTITY_NAME'}}</t>
+          <t>{'named': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}}</t>
         </is>
       </c>
     </row>
@@ -15696,7 +15696,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>{'Annual_EM_MATH', 'Expenditures_per_Pupil'}</t>
+          <t>{'Expenditures_per_Pupil', 'Annual_EM_MATH'}</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -15716,22 +15716,22 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>{'Annual_EM_MATH.YEAR', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Annual_EM_MATH.ENTITY_CD', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_EM_MATH.MEAN_SCORE', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR'}</t>
+          <t>{'Annual_EM_MATH.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Annual_EM_MATH.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_MATH.MEAN_SCORE', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Annual_EM_MATH.SUBGROUP_NAME', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Annual_EM_MATH.ASSESSMENT_NAME'}</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>{'Annual_EM_MATH.ENTITY_CD', 'Annual_EM_MATH.ENTITY_NAME'}</t>
+          <t>{'Annual_EM_MATH.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>{'ANNUAL_EM_MATH.ENTITY_NAME': [('school', 'MONTESSORI'), ("'MONTESSORI", 'MONTESSORI'), ("named 'MONTESSORI", 'MONTESSORI'), ("'MONTESSORI MAGNET", 'MONTESSORI'), ("school named 'MONTESSORI", 'MONTESSORI'), ("named 'MONTESSORI MAGNET", 'MONTESSORI'), ("'MONTESSORI MAGNET SCHOOL'.", 'MONTESSORI')], 'EXPENDITURES_PER_PUPIL.ENTITY_NAME': [('school', 'MONTESSORI'), ("'MONTESSORI", 'MONTESSORI'), ("named 'MONTESSORI", 'MONTESSORI'), ("'MONTESSORI MAGNET", 'MONTESSORI'), ("school named 'MONTESSORI", 'MONTESSORI'), ("named 'MONTESSORI MAGNET", 'MONTESSORI'), ("'MONTESSORI MAGNET SCHOOL'.", 'MONTESSORI')], 'ANNUAL_EM_MATH.ASSESSMENT_NAME': [('math', 'MATH5'), ('MATH5', 'MATH5'), ('mean math', 'MATH5'), ('the MATH5', 'MATH5'), ('and mean math', 'MATH5'), ('mean math assessment', 'MATH5'), ('for the MATH5', 'MATH5')]}</t>
+          <t>{'ANNUAL_EM_MATH.ENTITY_NAME': [('school', 'MONTESSORI'), ("'MONTESSORI", 'MONTESSORI'), ("named 'MONTESSORI", 'MONTESSORI'), ("'MONTESSORI MAGNET", 'MONTESSORI'), ("school named 'MONTESSORI", 'MONTESSORI'), ("named 'MONTESSORI MAGNET", 'MONTESSORI'), ("'MONTESSORI MAGNET SCHOOL'.", 'MONTESSORI')]}</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>{'name,': {'sysdiagrams.name'}, 'named': {'sysdiagrams.name'}, 'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'assessment': {'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME'}, 'mean': {'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_EM_ELA.MEAN_SCORE'}, 'score': {'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_EM_ELA.MEAN_SCORE'}, 'federal': {'Expenditures_per_Pupil.FED_STATE_LOCAL_EXP'}}</t>
+          <t>{'name,': {'sysdiagrams.name'}, 'named': {'sysdiagrams.name'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'assessment': {'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME'}, 'mean': {'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_EM_ELA.MEAN_SCORE'}, 'score': {'Annual_EM_SCIENCE.MEAN_SCORE', 'Annual_EM_ELA.MEAN_SCORE'}, 'federal': {'Expenditures_per_Pupil.FED_STATE_LOCAL_EXP'}}</t>
         </is>
       </c>
     </row>
@@ -15746,7 +15746,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate', 'ACC_HS_Participation_Rate'}</t>
+          <t>{'ACC_HS_Participation_Rate', 'ACC_HS_Graduation_Rate'}</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -15766,7 +15766,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.YEAR'}</t>
+          <t>{'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -15776,12 +15776,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_GRADUATION_RATE.ENTITY_NAME': [('Brooklyn', 'BROOKLYN'), ('attended Brooklyn', 'BROOKLYN'), ('Brooklyn Collegiate.', 'BROOKLYN'), ('who attended Brooklyn', 'BROOKLYN')], 'ACC_HS_PARTICIPATION_RATE.ENTITY_NAME': [('Brooklyn', 'BROOKLYN'), ('attended Brooklyn', 'BROOKLYN'), ('Brooklyn Collegiate.', 'BROOKLYN'), ('who attended Brooklyn', 'BROOKLYN')], 'ACC_HS_GRADUATION_RATE.SUBGROUP_NAME': [('and', 'ALL'), ("'All", 'ALL'), ("'All Students'", 'ALL'), ("'All Students' who", 'ALL')], 'ACC_HS_PARTICIPATION_RATE.SUBGROUP_NAME': [('and', 'ALL'), ("'All", 'ALL'), ("'All Students'", 'ALL'), ("'All Students' who", 'ALL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>{'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'rates': {'ACC_EM_Participation_Rate.RATE'}, 'graduation': {'ACC_HS_Graduation_Rate.GRAD_COUNT'}}</t>
+          <t>{'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'rates': {'ACC_EM_Participation_Rate.RATE'}, 'graduation': {'ACC_HS_Graduation_Rate.GRAD_COUNT'}}</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15816,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -15826,12 +15826,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>{'ACC_EM_CHRONIC_ABSENTEEISM.ENTITY_NAME': [('Kenney', 'KENNEY'), ('is Kenney', 'KENNEY'), ('Kenney Middle', 'KENNEY'), ('What is Kenney', 'KENNEY'), ('is Kenney Middle', 'KENNEY'), ("Kenney Middle School's", 'KENNEY')], 'ACC_EM_CHRONIC_ABSENTEEISM.SUBGROUP_NAME': [("School's", 'STUDENTS'), ('students', 'STUDENTS'), ("School's 2021", 'STUDENTS'), ('of students', 'STUDENTS'), ('students with', 'STUDENTS'), ('of students with', 'STUDENTS'), ('students with disabilities?', 'STUDENTS')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>{'absentee': {'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT'}, 'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'rate': {'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE'}}</t>
+          <t>{'absentee': {'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'rate': {'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.RATE'}}</t>
         </is>
       </c>
     </row>
@@ -15861,12 +15861,12 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>{'annual': {'Annual_EM_SCIENCE', 'Annual_EM_ELA', 'Annual_EM_MATH', 'Annual_NYSESLAT', 'Annual_NYSAA'}}</t>
+          <t>{'annual': {'Annual_NYSAA', 'Annual_EM_ELA', 'Annual_EM_SCIENCE', 'Annual_EM_MATH', 'Annual_NYSESLAT'}}</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.PER_LEVEL2'}</t>
+          <t>{'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -15876,12 +15876,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>{'ANNUAL_REGENTS_EXAMS.ENTITY_NAME': [('LONGWOOD', 'LONGWOOD'), ('of LONGWOOD', 'LONGWOOD'), ('LONGWOOD HIGH', 'LONGWOOD'), ('percent of LONGWOOD', 'LONGWOOD'), ('of LONGWOOD HIGH', 'LONGWOOD'), ('LONGWOOD HIGH SCHOOL', 'LONGWOOD')], 'ANNUAL_REGENTS_EXAMS.SUBJECT': [('regents', 'REGENTS'), ('exam', 'REGENTS'), ('students', 'REGENTS'), ('Regents', 'REGENTS'), ('annual regents', 'REGENTS'), ('regents exam', 'REGENTS'), ('LONGWOOD HIGH', 'REGENTS'), ('HIGH SCHOOL', 'REGENTS'), ('SCHOOL students', 'REGENTS'), ('students at', 'REGENTS'), ('the Regents', 'REGENTS'), ('Regents Common', 'REGENTS'), ('Common Core', 'REGENTS'), ('of students', 'REGENTS'), ('the annual regents', 'REGENTS'), ('annual regents exam', 'REGENTS'), ('regents exam percent', 'REGENTS'), ('HIGH SCHOOL students', 'REGENTS'), ('SCHOOL students at', 'REGENTS'), ('for the Regents', 'REGENTS'), ('the Regents Common', 'REGENTS'), ('Regents Common Core', 'REGENTS')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>{'annual': {'Annual_EM_MATH.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.YEAR', 'Accountability_Levels.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.YEAR', 'Annual_NYSESLAT.YEAR', 'Expenditures_per_Pupil.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Postsecondary_Enrollment.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Status.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_NYSAA.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_ELP.YEAR', 'BOCES_and_N/RC.YEAR', 'Accountability_Status_by_Subgroup.YEAR'}, 'SCHOOL': {'Annual_NYSESLAT.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'name,': {'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'HIGH': {'ACC_EM_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'ACC_HS_ELP.LEVEL', 'Accountability_Levels.LEVEL'}, 'level': {'ACC_EM_ELP.LEVEL', 'Annual_Regents_Exams.NUM_LEVEL5', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_Regents_Exams.NUM_LEVEL3', 'Annual_Regents_Exams.NUM_LEVEL4', 'ACC_HS_ELP.LEVEL', 'Accountability_Levels.LEVEL', 'Annual_Regents_Exams.NUM_LEVEL1', 'Annual_Regents_Exams.NUM_LEVEL2'}, 'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME'}, 'subject': {'Annual_NYSESLAT.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'tested,': {'Annual_NYSESLAT.TESTED', 'Annual_NYSAA.TESTED'}, 'number': {'Annual_Regents_Exams.NUM_LEVEL1', 'Annual_Regents_Exams.NUM_LEVEL2', 'sysdiagrams.name'}, '5': {'Annual_Regents_Exams.NUM_LEVEL5'}}</t>
+          <t>{'annual': {'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_EM_SCIENCE.YEAR', 'BOCES_and_N/RC.YEAR', 'Annual_NYSESLAT.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Accountability_Levels.YEAR', 'Accountability_Status.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_ELA.YEAR', 'Postsecondary_Enrollment.YEAR', 'Annual_NYSAA.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_ELP.YEAR'}, 'SCHOOL': {'ACC_HS_Participation_Rate.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'name,': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'HIGH': {'ACC_EM_Chronic_Absenteeism.LEVEL', 'ACC_HS_ELP.LEVEL', 'ACC_EM_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Accountability_Levels.LEVEL'}, 'level': {'Annual_Regents_Exams.NUM_LEVEL1', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'ACC_HS_ELP.LEVEL', 'Annual_Regents_Exams.NUM_LEVEL5', 'ACC_EM_ELP.LEVEL', 'Annual_Regents_Exams.NUM_LEVEL2', 'Annual_Regents_Exams.NUM_LEVEL4', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Accountability_Levels.LEVEL', 'Annual_Regents_Exams.NUM_LEVEL3'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'subject': {'ACC_HS_Participation_Rate.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'tested,': {'Annual_NYSESLAT.TESTED', 'Annual_NYSAA.TESTED'}, 'number': {'sysdiagrams.name', 'Annual_Regents_Exams.NUM_LEVEL2', 'Annual_Regents_Exams.NUM_LEVEL1'}, '5': {'Annual_Regents_Exams.NUM_LEVEL5'}}</t>
         </is>
       </c>
     </row>
@@ -15916,7 +15916,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_CD', 'Accountability_Status.YEAR', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_CD', 'Accountability_Status.YEAR', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -15926,12 +15926,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('many public', 'PUBLIC'), ('public school', 'PUBLIC'), ('How many public', 'PUBLIC'), ('public school entities', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>{'entities': {'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'Annual_EM_ELA.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'sysdiagrams.name', 'Annual_Regents_Exams.ENTITY_CD'}, 'year': {'Annual_EM_MATH.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.YEAR', 'Accountability_Levels.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.YEAR', 'Annual_NYSESLAT.YEAR', 'Expenditures_per_Pupil.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Postsecondary_Enrollment.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_NYSAA.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_ELP.YEAR', 'BOCES_and_N/RC.YEAR', 'Accountability_Status_by_Subgroup.YEAR'}, 'status': {'Accountability_Status_by_Subgroup.OVERALL_STATUS'}}</t>
+          <t>{'entities': {'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_CD', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_EM_ELA.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD'}, 'year': {'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_EM_SCIENCE.YEAR', 'BOCES_and_N/RC.YEAR', 'Annual_NYSESLAT.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Accountability_Levels.YEAR', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_ELA.YEAR', 'Postsecondary_Enrollment.YEAR', 'Annual_NYSAA.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_ELP.YEAR'}, 'status': {'Accountability_Status_by_Subgroup.OVERALL_STATUS'}}</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15966,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.ENTITY_NAME', 'Accountability_Status.YEAR', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.MADE_PROGRESS'}</t>
+          <t>{'Accountability_Status.ENTITY_NAME', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.MADE_PROGRESS', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -15976,12 +15976,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>{'ACCOUNTABILITY_STATUS.ENTITY_NAME': [('bronx', 'BRONX'), ('the bronx', 'BRONX'), ('bronx career', 'BRONX'), ('of the bronx', 'BRONX'), ('the bronx career', 'BRONX'), ('bronx career and', 'BRONX')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>{'progress': {'Accountability_Status_by_Subgroup.MADE_PROGRESS_FLAG', 'Accountability_Status_by_Subgroup.MADE_PROGRESS', 'Accountability_Status.MADE_PROGRESS_FLAG'}, 'status': {'Accountability_Status_by_Subgroup.OVERALL_STATUS'}}</t>
+          <t>{'progress': {'Accountability_Status.MADE_PROGRESS_FLAG', 'Accountability_Status_by_Subgroup.MADE_PROGRESS_FLAG', 'Accountability_Status_by_Subgroup.MADE_PROGRESS'}, 'status': {'Accountability_Status_by_Subgroup.OVERALL_STATUS'}}</t>
         </is>
       </c>
     </row>
@@ -16016,7 +16016,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -16026,12 +16026,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.ENTITY_NAME': [('May', 'MAY'), ('attended May', 'MAY'), ('May Moore', 'MAY'), ('who attended May', 'MAY'), ('May Moore Primary', 'MAY')], 'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.SUBJECT': [('combined', 'COMBINED'), ('and', 'COMBINED'), ('the combined', 'COMBINED'), ('are the combined', 'COMBINED'), ('the combined subject,', 'COMBINED'), ('combined subject, core', 'COMBINED')], 'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME': [('students', 'STUDENTS'), ('School?', 'STUDENTS'), ('elementary students', 'STUDENTS'), ('students with', 'STUDENTS'), ('for elementary students', 'STUDENTS'), ('elementary students with', 'STUDENTS'), ('students with disabilities', 'STUDENTS')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>{'subject,': {'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'core': {'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX'}, 'weighted,': {'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX'}}</t>
+          <t>{'subject,': {'ACC_HS_Participation_Rate.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'core': {'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX'}, 'weighted,': {'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX'}}</t>
         </is>
       </c>
     </row>
@@ -16066,7 +16066,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -16076,12 +16076,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>{'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME': [('school', 'STUDENTS'), ("'students", 'STUDENTS'), ('school entities', 'STUDENTS'), ("'students with", 'STUDENTS'), ("'students with disabilities'", 'STUDENTS')], 'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('of public', 'PUBLIC'), ('public elementary', 'PUBLIC'), ('list of public', 'PUBLIC'), ('of public elementary', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>{'entities': {'ACC_EM_Participation_Rate.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_CD', 'Annual_EM_ELA.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'Accountability_Levels.ENTITY_NAME'}, 'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}}</t>
+          <t>{'entities': {'Accountability_Status_by_Subgroup.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_NAME'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}}</t>
         </is>
       </c>
     </row>
@@ -16116,22 +16116,22 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>{'ACC_EM_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME': [("'multiracial'", 'MULTIRACIAL'), ("'multiracial' included", 'MULTIRACIAL'), ("the subgroup 'multiracial'", 'MULTIRACIAL'), ("subgroup 'multiracial' included", 'MULTIRACIAL'), ("'multiracial' included in", 'MULTIRACIAL')], 'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('many public', 'PUBLIC'), ('public elementary', 'PUBLIC'), ('How many public', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>{'entities': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'core': {'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT'}, 'weighted': {'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX'}}</t>
+          <t>{'entities': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'core': {'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT'}, 'weighted': {'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX'}}</t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ELL_COUNT'}</t>
+          <t>{'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -16176,12 +16176,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ENTITY_NAME': [('preparatory', 'PREPARATORY'), ('word preparatory', 'PREPARATORY'), ('preparatory in', 'PREPARATORY'), ('the word preparatory', 'PREPARATORY'), ('word preparatory in', 'PREPARATORY'), ('preparatory in their', 'PREPARATORY')], 'ACC_EM_ELP.SUBGROUP_NAME': [('and', 'ALL'), ("'all", 'ALL'), ('in', 'ALL'), ("'all students'", 'ALL'), ("'all students' for", 'ALL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>{'entities': {'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'sysdiagrams.name', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'name': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'count': {'ACC_HS_ELP.ELL_COUNT'}}</t>
+          <t>{'entities': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'name': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'count': {'ACC_HS_ELP.ELL_COUNT'}}</t>
         </is>
       </c>
     </row>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_EM_ELP'}</t>
+          <t>{'ACC_EM_ELP', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ELL_COUNT'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -16226,12 +16226,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.SUBGROUP_NAME': [('white', 'WHITE'), ('have white', 'WHITE'), ('white student', 'WHITE'), ('entities have white', 'WHITE'), ('have white student', 'WHITE')], 'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('many public', 'PUBLIC'), ('public elementary', 'PUBLIC'), ('How many public', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>{'entities': {'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'sysdiagrams.name', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'subgroups': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}}</t>
+          <t>{'entities': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'subgroups': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}}</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16266,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.ELL_COUNT'}</t>
+          <t>{'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.BENCHMARK'}</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -16276,12 +16276,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ENTITY_NAME': [("'pine", 'PINE'), ("at 'pine", 'PINE'), ("'pine bush'", 'PINE'), ("students at 'pine", 'PINE'), ("at 'pine bush'", 'PINE'), ("'pine bush' elementary", 'PINE')], 'ACC_EM_ELP.SUBGROUP_NAME': [('and', 'ALL'), ('all', 'ALL'), ('all students', 'ALL'), ('all students at', 'ALL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>{'group': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'sub': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'count,': {'ACC_HS_ELP.ELL_COUNT'}, 'progress': {'ACC_HS_ELP.PROGRESS_RATE'}, 'rate,': {'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE'}}</t>
+          <t>{'group': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME'}, 'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'Accountability_Levels.SUBGROUP_NAME'}, 'count,': {'ACC_HS_ELP.ELL_COUNT'}, 'progress': {'ACC_HS_ELP.PROGRESS_RATE'}, 'rate,': {'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_ELP.PROGRESS_RATE'}}</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16296,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_EM_NYSESLAT_for_Participation'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -16316,7 +16316,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART'}</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -16326,12 +16326,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('many public', 'PUBLIC'), ('public elementary', 'PUBLIC'), ('How many public', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>{'entities': {'ACC_EM_Participation_Rate.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'sysdiagrams.name', 'Annual_Regents_Exams.ENTITY_CD'}, 'test?': {'Annual_NYSESLAT.NOT_TESTED', 'Annual_NYSESLAT.TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_NYSESLAT.PER_TEST', 'Annual_NYSESLAT.PER_NTEST', 'Annual_NYSAA.TESTED'}}</t>
+          <t>{'entities': {'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'sysdiagrams.name', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.PER_ENT', 'Annual_EM_ELA.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_NYSESLAT.NUM_ENT', 'Annual_EM_SCIENCE.ENTITY_CD', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_NAME'}, 'test?': {'Annual_NYSESLAT.TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_NYSESLAT.PER_TEST', 'Annual_NYSESLAT.PER_NTEST', 'Annual_NYSESLAT.NOT_TESTED', 'Annual_NYSAA.TESTED'}}</t>
         </is>
       </c>
     </row>
@@ -16381,7 +16381,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>{'subjects': {'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}}</t>
+          <t>{'subjects': {'ACC_HS_Participation_Rate.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}}</t>
         </is>
       </c>
     </row>
@@ -16396,7 +16396,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation', 'Institution_Grouping', 'ACC_EM_ELP'}</t>
+          <t>{'ACC_EM_ELP', 'Institution_Grouping', 'ACC_EM_NYSESLAT_for_Participation'}</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -16416,7 +16416,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.LEVEL', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_ELP.ELL_COUNT'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -16426,12 +16426,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.SUBGROUP_NAME': [('of', 'ALL'), ('a', 'ALL'), ('in', 'ALL'), ('all', 'ALL'), ('as', 'ALL'), ('only', 'ALL'), ('the all', 'ALL'), ('all students', 'ALL'), ('in the all', 'ALL'), ('the all students', 'ALL')], 'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('the public', 'PUBLIC'), ('public elementary', 'PUBLIC'), ('of the public', 'PUBLIC'), ('the public elementary', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>{'entities': {'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'sysdiagrams.name', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'level': {'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_HS_ELP.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Accountability_Levels.LEVEL'}, 'subgroup,': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'number': {'sysdiagrams.name'}}</t>
+          <t>{'entities': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'level': {'Accountability_Levels.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_HS_ELP.LEVEL'}, 'subgroup,': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'number': {'sysdiagrams.name'}}</t>
         </is>
       </c>
     </row>
@@ -16466,7 +16466,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.COHORT'}</t>
+          <t>{'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -16476,12 +16476,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>{'ACC_EM_PARTICIPATION_RATE.ENTITY_NAME': [('elmwood', 'ELMWOOD'), ('at elmwood', 'ELMWOOD'), ('elmwood elementary', 'ELMWOOD'), ('subjects at elmwood', 'ELMWOOD'), ('at elmwood elementary', 'ELMWOOD'), ('elmwood elementary school?', 'ELMWOOD')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>{'sub': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBJECT'}, 'subjects': {'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'cohort': {'Total_Cohort_Regents_Exams.COHORT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT'}, 'rate': {'ACC_HS_Participation_Rate.RATE'}, 'groups': {'Total_Cohort_Regents_Exams.COHORT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT', 'Institution_Grouping.GROUP_NAME'}}</t>
+          <t>{'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'Accountability_Levels.SUBGROUP_NAME'}, 'subjects': {'ACC_HS_Participation_Rate.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'cohort': {'Total_Cohort_Regents_Exams.COHORT', 'ACC_HS_Graduation_Rate.COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Participation_Rate.COHORT'}, 'rate': {'ACC_HS_Participation_Rate.RATE'}, 'groups': {'Total_Cohort_Regents_Exams.COHORT', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT'}}</t>
         </is>
       </c>
     </row>
@@ -16516,12 +16516,12 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_Participation_Rate.MET_95_PERCENT', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.MET_95_PERCENT'}</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -16531,7 +16531,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>{'entities': {'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'sysdiagrams.name', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'subject?': {'ACC_EM_Participation_Rate.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'rate': {'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE'}}</t>
+          <t>{'entities': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'subject?': {'ACC_HS_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT'}, 'rate': {'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.RATE'}}</t>
         </is>
       </c>
     </row>
@@ -16566,17 +16566,17 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.RATE'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.RATE', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_PARTICIPATION_RATE.RATE': [('s,', 'S'), ('to s,', 'S')], 'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('For public', 'PUBLIC'), ('public elementary', 'PUBLIC')]}</t>
+          <t>{'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('For public', 'PUBLIC'), ('public elementary', 'PUBLIC')]}</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16616,12 +16616,12 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>{'absence': {'ACC_HS_Chronic_Absenteeism.ABSENT_RATE'}, 'entity': {'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}, 'subject,': {'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'rate': {'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE'}}</t>
+          <t>{'absence': {'ACC_HS_Chronic_Absenteeism.ABSENT_RATE'}, 'entity': {'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}, 'subject,': {'ACC_HS_Participation_Rate.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'rate': {'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.RATE'}}</t>
         </is>
       </c>
     </row>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>{'absence': {'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT'}, 'data': {'ACC_EM_Chronic_Absenteeism.DATA_REP_FLAG'}, 'entity': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'name': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'rate': {'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE'}}</t>
+          <t>{'absence': {'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}, 'data': {'ACC_EM_Chronic_Absenteeism.DATA_REP_FLAG'}, 'entity': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'name': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'rate': {'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.RATE'}}</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16716,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'Institution_Grouping.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -16726,12 +16726,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('at public', 'PUBLIC'), ('public elementary', 'PUBLIC'), ('enrollment at public', 'PUBLIC'), ('at public elementary', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>{'absenteeism': {'ACC_HS_Chronic_Absenteeism.ABSENT_RATE'}, 'entities': {'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'Annual_EM_ELA.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'sysdiagrams.name', 'Annual_Regents_Exams.ENTITY_CD'}, 'name,': {'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'sysdiagrams.name'}, 'group': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'sub': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'rate': {'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE'}}</t>
+          <t>{'absenteeism': {'ACC_HS_Chronic_Absenteeism.ABSENT_RATE'}, 'entities': {'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_EM_ELA.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD'}, 'name,': {'sysdiagrams.name', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}, 'group': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'rate': {'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.RATE'}}</t>
         </is>
       </c>
     </row>
@@ -16766,7 +16766,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -16776,12 +16776,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('average public', 'PUBLIC'), ('public high', 'PUBLIC'), ('the average public', 'PUBLIC'), ('average public high', 'PUBLIC'), ('public high school', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>{'absenteeism': {'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}, 'entity': {'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'sysdiagrams.name'}, 'group': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'sub': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'rate': {'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE'}}</t>
+          <t>{'absenteeism': {'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT'}, 'entity': {'sysdiagrams.name', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}, 'group': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'rate': {'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.RATE'}}</t>
         </is>
       </c>
     </row>
@@ -16831,7 +16831,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>{'absenteeism': {'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT'}, 'entity': {'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'Annual_EM_ELA.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'sysdiagrams.name', 'Annual_Regents_Exams.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}, 'name': {'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'sysdiagrams.name', 'BOCES_and_N/RC.SCHOOL_NAME', 'Institution_Grouping.GROUP_NAME'}, 'group': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'sub': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'rate': {'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE'}}</t>
+          <t>{'absenteeism': {'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT'}, 'entity': {'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_EM_ELA.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD'}, 'name': {'sysdiagrams.name', 'Institution_Grouping.GROUP_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME'}, 'group': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME'}, 'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME'}, 'rate': {'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.RATE'}}</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16866,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -16876,12 +16876,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.ENTITY_NAME': [('Albany', 'ALBANY'), ('at Albany', 'ALBANY'), ('Albany High', 'ALBANY'), ('Students at Albany', 'ALBANY'), ('at Albany High', 'ALBANY'), ('Albany High School', 'ALBANY')], 'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.SUBJECT': [('Math', 'MATH'), ('the Math', 'MATH'), ('Math subject', 'MATH'), ('in the Math', 'MATH'), ('the Math subject', 'MATH'), ('Math subject in', 'MATH')], 'ACC_HS_CORE_AND_WEIGHTED_PERFORMANCE.SUBGROUP_NAME': [('Economically', 'ECONOMICALLY'), ('of Economically', 'ECONOMICALLY'), ('Economically Disadvantaged', 'ECONOMICALLY'), ('indexes of Economically', 'ECONOMICALLY'), ('of Economically Disadvantaged', 'ECONOMICALLY')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>{'subject': {'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'cohorts,': {'Total_Cohort_Regents_Exams.COHORT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT'}, 'core': {'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.OVERRIDE_CORE'}, 'indexes': {'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX'}, 'weighted': {'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT'}}</t>
+          <t>{'subject': {'ACC_HS_Participation_Rate.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'cohorts,': {'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'Total_Cohort_Regents_Exams.COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT'}, 'core': {'ACC_HS_Core_and_Weighted_Performance.CORE_LEVEL', 'ACC_EM_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.OVERRIDE_CORE'}, 'indexes': {'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX'}, 'weighted': {'ACC_HS_Core_and_Weighted_Performance.OVERRIDE_WEIGHTED', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX'}}</t>
         </is>
       </c>
     </row>
@@ -16931,7 +16931,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>{'entity': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'group': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'sub': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBJECT'}, 'index': {'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX'}, 'weighted': {'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX'}}</t>
+          <t>{'entity': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'group': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME'}, 'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'Accountability_Levels.SUBGROUP_NAME'}, 'index': {'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX'}, 'weighted': {'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX'}}</t>
         </is>
       </c>
     </row>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>{'name': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'subject': {'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'index': {'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX'}, 'weighted': {'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX'}}</t>
+          <t>{'name': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'subject': {'ACC_HS_Participation_Rate.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'index': {'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX'}, 'weighted': {'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX'}}</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17016,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.LEVEL'}</t>
+          <t>{'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.SUCCESS_RATIO'}</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -17026,12 +17026,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ENTITY_NAME': [('Alfred', 'ALFRED'), ('at Alfred', 'ALFRED'), ('Alfred E', 'ALFRED'), ('program at Alfred', 'ALFRED'), ('at Alfred E', 'ALFRED'), ('Alfred E Smith', 'ALFRED')], 'ACC_HS_ELP.SUBGROUP_NAME': [('and', 'ALL'), ('of', 'ALL'), ('all', 'ALL'), ('the all', 'ALL'), ('all students', 'ALL'), ('for the all', 'ALL'), ('the all students', 'ALL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>{'level': {'ACC_EM_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Accountability_Levels.LEVEL'}, 'subgroup?': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'count,': {'ACC_EM_ELP.ELL_COUNT'}, 'progress': {'ACC_EM_ELP.PROGRESS_RATE'}, 'rate,': {'ACC_EM_ELP.PROGRESS_RATE', 'ACC_HS_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.RATE'}}</t>
+          <t>{'level': {'ACC_EM_ELP.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Accountability_Levels.LEVEL'}, 'subgroup?': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'count,': {'ACC_EM_ELP.ELL_COUNT'}, 'progress': {'ACC_EM_ELP.PROGRESS_RATE'}, 'rate,': {'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.RATE'}}</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17046,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping', 'ACC_HS_ELP'}</t>
+          <t>{'ACC_HS_ELP', 'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.SUBGROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.ELL_COUNT', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_ELP.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -17076,12 +17076,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>{'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('at public', 'PUBLIC'), ('public high', 'PUBLIC'), ('count at public', 'PUBLIC'), ('at public high', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>{'subgroup?': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'count': {'ACC_EM_ELP.ELL_COUNT'}}</t>
+          <t>{'subgroup?': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'count': {'ACC_EM_ELP.ELL_COUNT'}}</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17131,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>{'name,': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'group': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'sub': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBJECT'}, 'count': {'ACC_HS_ELP.ELL_COUNT', 'ACC_EM_ELP.ELL_COUNT'}, 'count,': {'ACC_HS_ELP.ELL_COUNT', 'ACC_EM_ELP.ELL_COUNT'}, 'per': {'Expenditures_per_Pupil.PER_FEDERAL_EXP'}, 'federal': {'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}}</t>
+          <t>{'name,': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'group': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME'}, 'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'Accountability_Levels.SUBGROUP_NAME'}, 'count': {'ACC_HS_ELP.ELL_COUNT', 'ACC_EM_ELP.ELL_COUNT'}, 'count,': {'ACC_HS_ELP.ELL_COUNT', 'ACC_EM_ELP.ELL_COUNT'}, 'per': {'Expenditures_per_Pupil.PER_FEDERAL_EXP'}, 'federal': {'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}}</t>
         </is>
       </c>
     </row>
@@ -17166,7 +17166,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -17176,12 +17176,12 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>{'ACCOUNTABILITY_STATUS_BY_SUBGROUP.SUBGROUP_NAME': [('For', 'ALL'), ('each', 'ALL'), ('and', 'ALL'), ('of', 'ALL'), ('in', 'ALL'), ('all', 'ALL'), ('the all', 'ALL'), ('all students', 'ALL'), ('for the all', 'ALL'), ('the all students', 'ALL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>{'entities': {'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'Annual_EM_ELA.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'sysdiagrams.name', 'Annual_Regents_Exams.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}, 'subgroup?': {'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'year': {'Annual_EM_MATH.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.YEAR', 'Accountability_Levels.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.YEAR', 'Annual_NYSESLAT.YEAR', 'Expenditures_per_Pupil.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Postsecondary_Enrollment.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Status.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_NYSAA.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_ELP.YEAR', 'BOCES_and_N/RC.YEAR'}, 'status': {'Accountability_Status.OVERALL_STATUS'}, 'number': {'sysdiagrams.name'}}</t>
+          <t>{'entities': {'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_ELP.ENTITY_CD', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_EM_ELA.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD'}, 'subgroup?': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'year': {'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_EM_SCIENCE.YEAR', 'BOCES_and_N/RC.YEAR', 'Annual_NYSESLAT.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Accountability_Levels.YEAR', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_ELA.YEAR', 'Postsecondary_Enrollment.YEAR', 'Annual_NYSAA.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_ELP.YEAR'}, 'status': {'Accountability_Status.OVERALL_STATUS'}, 'number': {'sysdiagrams.name'}}</t>
         </is>
       </c>
     </row>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
+          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -17226,12 +17226,12 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>{'ACCOUNTABILITY_STATUS_BY_SUBGROUP.SCHOOL_TYPE': [('high', 'HS'), ('(HS)', 'HS'), ('(HS) had', 'HS'), ('(HS) had an', 'HS')], 'ACCOUNTABILITY_STATUS_BY_SUBGROUP.SUBGROUP_NAME': [('Multiracial', 'MULTIRACIAL'), ('the Multiracial', 'MULTIRACIAL'), ('Multiracial sub', 'MULTIRACIAL'), ('for the Multiracial', 'MULTIRACIAL'), ('the Multiracial sub', 'MULTIRACIAL'), ('Multiracial sub group?', 'MULTIRACIAL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>{'sub': {'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'status': {'Accountability_Status.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}}</t>
+          <t>{'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'status': {'Accountability_Status.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}}</t>
         </is>
       </c>
     </row>
@@ -17261,12 +17261,12 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>{'acountability': {'Accountability_Status', 'Accountability_Levels'}}</t>
+          <t>{'acountability': {'Accountability_Levels', 'Accountability_Status'}}</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.ENTITY_NAME'}</t>
+          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -17276,12 +17276,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>{'ACCOUNTABILITY_STATUS_BY_SUBGROUP.ENTITY_NAME': [("'albany", 'ALBANY'), ("named 'albany", 'ALBANY'), ("'albany city", 'ALBANY'), ("named 'albany city", 'ALBANY'), ("'albany city SD'?", 'ALBANY')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>{'entity': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'named': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'overall': {'Accountability_Status.OVERALL_STATUS'}, 'status': {'Accountability_Status.OVERALL_STATUS'}, 'type': {'sysdiagrams.name'}}</t>
+          <t>{'entity': {'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'named': {'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'overall': {'Accountability_Status.OVERALL_STATUS'}, 'status': {'Accountability_Status.OVERALL_STATUS'}, 'type': {'sysdiagrams.name'}}</t>
         </is>
       </c>
     </row>
@@ -17316,12 +17316,12 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL3_%TESTED'}</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Annual_EM_SCIENCE.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>{'level': {'Annual_EM_ELA.LEVEL1_%TESTED', 'ACC_EM_ELP.LEVEL', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL2_PER', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_NYSAA.LEVEL1_PER', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_NYSAA.LEVEL3_PER', 'ACC_HS_ELP.LEVEL', 'Accountability_Levels.LEVEL'}, 'assessment?': {'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME'}, 'tested': {'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_NYSESLAT.TESTED', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_NYSAA.TESTED', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_EM_ELA.LEVEL1_%TESTED'}, '4': {'Annual_NYSAA.LEVEL4_PER'}}</t>
+          <t>{'level': {'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'ACC_HS_ELP.LEVEL', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_NYSAA.LEVEL1_PER', 'Annual_NYSAA.LEVEL2_PER', 'ACC_EM_ELP.LEVEL', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_NYSAA.LEVEL3_PER', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Accountability_Levels.LEVEL', 'Annual_NYSAA.LEVEL4_PER', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_EM_ELA.LEVEL2_%TESTED'}, 'assessment?': {'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME'}, 'tested': {'Annual_NYSESLAT.TESTED', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_NYSAA.TESTED'}, '4': {'Annual_NYSAA.LEVEL4_PER'}}</t>
         </is>
       </c>
     </row>
@@ -17366,7 +17366,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL4_%TESTED'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_EM_SCIENCE.LEVEL3_%TESTED'}</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -17376,12 +17376,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>{'ANNUAL_EM_SCIENCE.ASSESSMENT_NAME': [('Science8', 'SCIENCE8'), ('the Science8', 'SCIENCE8'), ('Science8 assessment?', 'SCIENCE8'), ('for the Science8', 'SCIENCE8'), ('the Science8 assessment?', 'SCIENCE8'), ('Science8 assessment? Exclude', 'SCIENCE8')], 'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('average public', 'PUBLIC'), ('public elementary', 'PUBLIC'), ('the average public', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>{'level': {'Annual_EM_ELA.LEVEL1_%TESTED', 'ACC_EM_ELP.LEVEL', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_EM_ELA.LEVEL2_%TESTED', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL3_%TESTED', 'ACC_HS_ELP.LEVEL', 'Accountability_Levels.LEVEL'}, 'group': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'sub': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'assessment?': {'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME'}, 'tested': {'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_NYSESLAT.TESTED', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_NYSAA.TESTED', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_EM_ELA.LEVEL1_%TESTED'}}</t>
+          <t>{'level': {'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'ACC_HS_ELP.LEVEL', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'ACC_EM_ELP.LEVEL', 'Annual_EM_MATH.LEVEL1_%TESTED', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Accountability_Levels.LEVEL', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_EM_ELA.LEVEL2_%TESTED'}, 'group': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'assessment?': {'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME'}, 'tested': {'Annual_NYSESLAT.TESTED', 'Annual_EM_ELA.LEVEL1_%TESTED', 'Annual_EM_MATH.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL3_%TESTED', 'Annual_EM_ELA.LEVEL3_%TESTED', 'Annual_Regents_Exams.TESTED', 'Annual_EM_MATH.LEVEL1_%TESTED', 'Annual_EM_ELA.LEVEL4_%TESTED', 'Annual_EM_MATH.LEVEL2_%TESTED', 'Annual_EM_ELA.LEVEL2_%TESTED', 'Annual_NYSAA.TESTED'}}</t>
         </is>
       </c>
     </row>
@@ -17431,7 +17431,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>{'subjects': {'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}}</t>
+          <t>{'subjects': {'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}}</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17466,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_EXP'}</t>
+          <t>{'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -17476,12 +17476,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>{'ANNUAL_NYSESLAT.ENTITY_NAME': [('JOHANNA', 'JOHANNA'), ('PERRIN', 'JOHANNA'), ('at JOHANNA', 'JOHANNA'), ('JOHANNA PERRIN', 'JOHANNA'), ('enrolled at JOHANNA', 'JOHANNA'), ('at JOHANNA PERRIN', 'JOHANNA'), ('JOHANNA PERRIN MIDDLE', 'JOHANNA')], 'ANNUAL_NYSESLAT.SUBJECT': [('TS_6', 'TS_6'), ('the TS_6', 'TS_6'), ('on the TS_6', 'TS_6')], 'ANNUAL_NYSESLAT.SUBGROUP_NAME': [("'parent", 'PARENT'), ('PERRIN', 'PARENT'), ('MIDDLE', 'PARENT'), ('SCHOOL', 'PARENT'), ("the 'parent", 'PARENT'), ("'parent not", 'PARENT'), ("in the 'parent", 'PARENT'), ("the 'parent not", 'PARENT'), ("'parent not in", 'PARENT')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>{'SCHOOL': {'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'subgroup': {'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'subject': {'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}}</t>
+          <t>{'SCHOOL': {'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'subject': {'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}}</t>
         </is>
       </c>
     </row>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_TRAN'}</t>
+          <t>{'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -17526,12 +17526,12 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>{'ANNUAL_NYSESLAT.SUBGROUP_NAME': [("'parent", 'PARENT'), ('PERRIN', 'PARENT'), ('MIDDLE', 'PARENT'), ('SCHOOL', 'PARENT'), ("the 'parent", 'PARENT'), ("'parent not", 'PARENT'), ("in the 'parent", 'PARENT'), ("the 'parent not", 'PARENT'), ("'parent not in", 'PARENT')], 'ANNUAL_NYSESLAT.SUBJECT': [('TS_6', 'TS_6'), ('the TS_6', 'TS_6'), ('on the TS_6', 'TS_6')], 'ANNUAL_NYSESLAT.ENTITY_NAME': [('JOHANNA', 'JOHANNA'), ('PERRIN', 'JOHANNA'), ('at JOHANNA', 'JOHANNA'), ('JOHANNA PERRIN', 'JOHANNA'), ('enrolled at JOHANNA', 'JOHANNA'), ('at JOHANNA PERRIN', 'JOHANNA'), ('JOHANNA PERRIN MIDDLE', 'JOHANNA')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>{'SCHOOL': {'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'subgroup': {'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'subject': {'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}}</t>
+          <t>{'SCHOOL': {'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'subject': {'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}}</t>
         </is>
       </c>
     </row>
@@ -17566,22 +17566,22 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_ENT'}</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>{'ANNUAL_NYSESLAT.PER_ENT': [('a', 'S')], 'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('at public', 'PUBLIC'), ('students at public', 'PUBLIC')]}</t>
+          <t>{'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('at public', 'PUBLIC'), ('students at public', 'PUBLIC')]}</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>{'subject,': {'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}}</t>
+          <t>{'subject,': {'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}}</t>
         </is>
       </c>
     </row>
@@ -17616,22 +17616,22 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.PER_EMER', 'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.PER_TRAN', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EMER', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_NYSESLAT.PER_ENT'}</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>{'ANNUAL_NYSESLAT.PER_ENT': [('a', 'S')], 'INSTITUTION_GROUPING.GROUP_NAME': [('public', 'PUBLIC'), ('at public', 'PUBLIC'), ('students at public', 'PUBLIC')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>{'subject,': {'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}}</t>
+          <t>{'subject,': {'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}}</t>
         </is>
       </c>
     </row>
@@ -17666,7 +17666,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.NUM_TRAN'}</t>
+          <t>{'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_TRAN', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -17676,12 +17676,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>{'ANNUAL_NYSESLAT.SUBGROUP_NAME': [("'parent", 'PARENT'), ('PERRIN', 'PARENT'), ('MIDDLE', 'PARENT'), ('SCHOOL', 'PARENT'), ("the 'parent", 'PARENT'), ("'parent not", 'PARENT'), ("in the 'parent", 'PARENT'), ("the 'parent not", 'PARENT'), ("'parent not in", 'PARENT')], 'ANNUAL_NYSESLAT.SUBJECT': [('TS_6', 'TS_6'), ('the TS_6', 'TS_6'), ('on the TS_6', 'TS_6')], 'ANNUAL_NYSESLAT.ENTITY_NAME': [('JOHANNA', 'JOHANNA'), ('PERRIN', 'JOHANNA'), ('at JOHANNA', 'JOHANNA'), ('JOHANNA PERRIN', 'JOHANNA'), ('enrolled at JOHANNA', 'JOHANNA'), ('at JOHANNA PERRIN', 'JOHANNA'), ('JOHANNA PERRIN MIDDLE', 'JOHANNA')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>{'SCHOOL': {'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'subgroup': {'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'subject': {'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBJECT'}, 'number': {'sysdiagrams.name'}}</t>
+          <t>{'SCHOOL': {'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'subject': {'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_ELP.SUBJECT'}, 'number': {'sysdiagrams.name'}}</t>
         </is>
       </c>
     </row>
@@ -17716,7 +17716,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.SCHOOL_NAME'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.YEAR'}</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -17766,7 +17766,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.COUNTY_NAME', 'BOCES_and_N/RC.SCHOOL_NAME'}</t>
+          <t>{'BOCES_and_N/RC.YEAR', 'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.COUNTY_NAME'}</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -17816,7 +17816,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.YEAR', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.YEAR', 'BOCES_and_N/RC.YEAR', 'Expenditures_per_Pupil.ENTITY_CD', 'Expenditures_per_Pupil.PER_FEDERAL_EXP'}</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -17831,7 +17831,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>{'name': {'Expenditures_per_Pupil.ENTITY_NAME', 'sysdiagrams.name'}, 'federal': {'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.FED_STATE_LOCAL_EXP'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME'}, 'federal': {'Expenditures_per_Pupil.FED_STATE_LOCAL_EXP', 'Expenditures_per_Pupil.FEDERAL_EXP'}}</t>
         </is>
       </c>
     </row>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>{'INEXPERIENCED_TEACHERS_AND_PRINCIPALS.ENTITY_NAME': [('sheridan', 'SHERIDAN'), ('at sheridan', 'SHERIDAN'), ('sheridan prep', 'SHERIDAN'), ('teaches at sheridan', 'SHERIDAN'), ('at sheridan prep', 'SHERIDAN'), ('sheridan prep academy', 'SHERIDAN')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -18031,7 +18031,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>{'entity': {'ACC_EM_Participation_Rate.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Accountability_Levels.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'Annual_NYSAA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_CD', 'Annual_EM_ELA.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'Accountability_Levels.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD'}, 'teachers': {'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}}</t>
+          <t>{'entity': {'Accountability_Status_by_Subgroup.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Annual_NYSAA.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_CD', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Annual_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'Accountability_Status.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Postsecondary_Enrollment.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_CD', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_CD', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_NAME'}, 'teachers': {'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}}</t>
         </is>
       </c>
     </row>
@@ -18081,7 +18081,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>{'name': {'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.SCHOOL_NAME', 'sysdiagrams.name'}, 'teachers': {'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.PER_TEACH_HIGH', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_HIGH'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'BOCES_and_N/RC.SCHOOL_NAME', 'BOCES_and_N/RC.BOCES_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME'}, 'teachers': {'Inexperienced_Teachers_and_Principals.PER_TEACH_HIGH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_HIGH', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}}</t>
         </is>
       </c>
     </row>
@@ -18131,7 +18131,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>{'number': {'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.NUM_PRINC'}, 'teachers': {'Inexperienced_Teachers_and_Principals.NUM_TEACH'}}</t>
+          <t>{'number': {'Inexperienced_Teachers_and_Principals.NUM_PRINC', 'Inexperienced_Teachers_and_Principals.NUM_TEACH'}, 'teachers': {'Inexperienced_Teachers_and_Principals.NUM_TEACH'}}</t>
         </is>
       </c>
     </row>
@@ -18166,7 +18166,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Postsecondary_Enrollment.ENTITY_NAME'}</t>
+          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.OUT_4_YR_CNT'}</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -18176,12 +18176,12 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>{'POSTSECONDARY_ENROLLMENT.SUBGROUP_NAME': [('male', 'MALE'), ('female', 'MALE'), ('the male', 'MALE'), ('male or', 'MALE'), ('either the male', 'MALE'), ('the male or', 'MALE'), ('male or the', 'MALE'), ('or the female', 'MALE'), ('male', 'FEMALE'), ('female', 'FEMALE'), ('male or', 'FEMALE'), ('the female', 'FEMALE'), ('or the female', 'FEMALE')], 'POSTSECONDARY_ENROLLMENT.ENTITY_NAME': [('Brocton', 'BROCTON'), ('at Brocton', 'BROCTON'), ('Brocton Middle', 'BROCTON'), ('subgroup at Brocton', 'BROCTON'), ('at Brocton Middle', 'BROCTON'), ('Brocton Middle High', 'BROCTON')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>{'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}}</t>
+          <t>{'subgroup': {'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}}</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18216,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.ENTITY_NAME'}</t>
+          <t>{'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR'}</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -18226,12 +18226,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>{'POSTSECONDARY_ENROLLMENT.ENTITY_NAME': [('Oneida', 'ONEIDA'), ('at Oneida', 'ONEIDA'), ('Oneida Senior', 'ONEIDA'), ("Students' at Oneida", 'ONEIDA'), ('at Oneida Senior', 'ONEIDA'), ('Oneida Senior High', 'ONEIDA')], 'POSTSECONDARY_ENROLLMENT.SUBGROUP_NAME': [('For', 'ALL'), ("'All", 'ALL'), ('total', 'ALL'), ('of', 'ALL'), ('in', 'ALL'), ('a', 'ALL'), ('and', 'ALL'), ("'All Students'", 'ALL'), ('and the', 'ALL'), ("'All Students' at", 'ALL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>{'institution,': {'Postsecondary_Enrollment.INSTITUTION_ID'}, 'institution?': {'Postsecondary_Enrollment.INSTITUTION_ID'}, 'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'graduate': {'ACC_HS_Graduation_Rate.GRAD_COUNT', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT'}, 'graduates': {'ACC_HS_Graduation_Rate.GRAD_COUNT', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT'}, 'total': {'Annual_NYSESLAT.TOTAL', 'Annual_NYSAA.TOTAL', 'Postsecondary_Enrollment.TOTAL_GRAD_COUNT'}}</t>
+          <t>{'institution,': {'Postsecondary_Enrollment.INSTITUTION_ID'}, 'institution?': {'Postsecondary_Enrollment.INSTITUTION_ID'}, 'subgroup': {'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'graduate': {'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'ACC_HS_Graduation_Rate.GRAD_COUNT'}, 'graduates': {'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'ACC_HS_Graduation_Rate.GRAD_COUNT'}, 'total': {'Postsecondary_Enrollment.TOTAL_GRAD_COUNT', 'Annual_NYSAA.TOTAL', 'Annual_NYSESLAT.TOTAL'}}</t>
         </is>
       </c>
     </row>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>{'name': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'teachers': {'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}, 'teaching': {'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}}</t>
+          <t>{'name': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'teachers': {'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}, 'teaching': {'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}}</t>
         </is>
       </c>
     </row>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR'}</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>{'TEACHERS_TEACHING_OUT_OF_CERTIFICATION.ENTITY_NAME': [('bolton', 'BOLTON'), ('at bolton', 'BOLTON'), ('bolton central', 'BOLTON'), ('certification at bolton', 'BOLTON'), ('at bolton central', 'BOLTON')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'BOCES_and_N/RC.COUNTY_NAME', 'BOCES_and_N/RC.ENTITY_CD'}</t>
+          <t>{'BOCES_and_N/RC.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'BOCES_and_N/RC.COUNTY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -18381,7 +18381,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>{'name': {'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'sysdiagrams.name'}, 'number': {'sysdiagrams.name'}, 'total': {'Annual_NYSESLAT.TOTAL', 'Annual_NYSAA.TOTAL'}, 'teachers': {'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}, 'teaching': {'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}}</t>
+          <t>{'name': {'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'sysdiagrams.name'}, 'number': {'sysdiagrams.name'}, 'total': {'Annual_NYSAA.TOTAL', 'Annual_NYSESLAT.TOTAL'}, 'teachers': {'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}, 'teaching': {'Teachers_Teaching_Out_of_Certification.NUM_TEACH_OC'}}</t>
         </is>
       </c>
     </row>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT'}</t>
+          <t>{'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT'}</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -18426,12 +18426,12 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>{'TOTAL_COHORT_REGENTS_EXAMS.ENTITY_NAME': [('waverly', 'WAVERLY'), ('at waverly', 'WAVERLY'), ('waverly high', 'WAVERLY'), ('subgroups at waverly', 'WAVERLY'), ('at waverly high', 'WAVERLY'), ('waverly high school', 'WAVERLY')], 'TOTAL_COHORT_REGENTS_EXAMS.SUBGROUP_NAME': [('male', 'FEMALE'), ('female', 'FEMALE'), ('male and', 'FEMALE'), ('and female', 'FEMALE'), ('male and female', 'FEMALE'), ('female subgroups at', 'FEMALE'), ('male', 'MALE'), ('female', 'MALE'), ('the male', 'MALE'), ('male and', 'MALE'), ('and female', 'MALE'), ('for the male', 'MALE'), ('the male and', 'MALE'), ('male and female', 'MALE')], 'TOTAL_COHORT_REGENTS_EXAMS.SUBJECT': [('number', 'MATH')]}</t>
+          <t>{'TOTAL_COHORT_REGENTS_EXAMS.SUBJECT': [('number', 'MATH')]}</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>{'name,': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'levels': {'ACC_EM_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_NYSAA.LEVEL3_COUNT', 'ACC_HS_ELP.LEVEL', 'Accountability_Levels.LEVEL', 'Annual_EM_MATH.LEVEL1_COUNT', 'Annual_NYSAA.LEVEL4_COUNT', 'Annual_EM_ELA.LEVEL3_COUNT', 'Annual_EM_ELA.LEVEL4_COUNT', 'Annual_NYSAA.LEVEL1_COUNT', 'Annual_EM_MATH.LEVEL3_COUNT', 'Annual_EM_SCIENCE.LEVEL2_COUNT', 'Annual_EM_ELA.LEVEL1_COUNT', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_EM_ELA.LEVEL2_COUNT', 'Annual_EM_SCIENCE.LEVEL3_COUNT', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Annual_NYSAA.LEVEL2_COUNT'}, 'subgroup': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'subgroups': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'cohort': {'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT', 'ACC_EM_Participation_Rate.COHORT'}, 'cohort.': {'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT', 'ACC_EM_Participation_Rate.COHORT'}, 'count,': {'Total_Cohort_Regents_Exams.NTEST_COUNT', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_EM_ELA.LEVEL1_COUNT', 'Annual_EM_MATH.LEVEL1_COUNT', 'Annual_NYSAA.LEVEL1_COUNT'}, '4': {'Annual_NYSAA.LEVEL4_COUNT', 'Annual_EM_ELA.LEVEL4_COUNT', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_EM_SCIENCE.LEVEL4_COUNT'}, 'number': {'sysdiagrams.name'}}</t>
+          <t>{'name,': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'levels': {'ACC_HS_ELP.LEVEL', 'Annual_EM_SCIENCE.LEVEL3_COUNT', 'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Annual_EM_MATH.LEVEL2_COUNT', 'Annual_EM_ELA.LEVEL3_COUNT', 'Annual_NYSAA.LEVEL1_COUNT', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_EM_SCIENCE.LEVEL1_COUNT', 'Annual_EM_ELA.LEVEL4_COUNT', 'Annual_EM_MATH.LEVEL1_COUNT', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Annual_NYSAA.LEVEL4_COUNT', 'Annual_EM_SCIENCE.LEVEL2_COUNT', 'Annual_EM_MATH.LEVEL3_COUNT', 'Annual_EM_ELA.LEVEL1_COUNT', 'ACC_EM_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Annual_NYSAA.LEVEL2_COUNT', 'Annual_EM_ELA.LEVEL2_COUNT', 'Accountability_Levels.LEVEL', 'Annual_NYSAA.LEVEL3_COUNT'}, 'subgroup': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'subgroups': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'cohort': {'ACC_HS_Graduation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.COHORT'}, 'cohort.': {'ACC_HS_Graduation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT_COUNT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.COHORT'}, 'count,': {'Annual_EM_MATH.LEVEL1_COUNT', 'Annual_EM_ELA.LEVEL1_COUNT', 'Annual_NYSAA.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.NTEST_COUNT', 'Annual_EM_SCIENCE.LEVEL1_COUNT'}, '4': {'Annual_EM_SCIENCE.LEVEL4_COUNT', 'Annual_NYSAA.LEVEL4_COUNT', 'Annual_EM_MATH.LEVEL4_COUNT', 'Annual_EM_ELA.LEVEL4_COUNT'}, 'number': {'sysdiagrams.name'}}</t>
         </is>
       </c>
     </row>
@@ -18481,7 +18481,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>{'entity': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'name': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'level': {'ACC_EM_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'ACC_EM_Chronic_Absenteeism.LEVEL', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'ACC_HS_ELP.LEVEL', 'Accountability_Levels.LEVEL'}, 'sub': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'Annual_NYSAA.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBJECT'}, 'cohort': {'Total_Cohort_Regents_Exams.COHORT', 'ACC_EM_Participation_Rate.COHORT', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT'}}</t>
+          <t>{'entity': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'name': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'level': {'ACC_EM_Chronic_Absenteeism.LEVEL', 'ACC_HS_ELP.LEVEL', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'ACC_EM_ELP.LEVEL', 'ACC_HS_Chronic_Absenteeism.LEVEL', 'Accountability_Levels.LEVEL'}, 'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'Annual_NYSAA.SUBJECT', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_ELP.SUBJECT', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBJECT', 'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'Annual_NYSESLAT.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_ELP.SUBJECT', 'Accountability_Levels.SUBGROUP_NAME'}, 'cohort': {'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'ACC_EM_Participation_Rate.COHORT', 'Total_Cohort_Regents_Exams.COHORT', 'ACC_HS_Participation_Rate.COHORT', 'ACC_HS_Graduation_Rate.COHORT'}}</t>
         </is>
       </c>
     </row>
@@ -18531,7 +18531,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>{'assessment': {'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME'}}</t>
+          <t>{'assessment': {'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME'}}</t>
         </is>
       </c>
     </row>
@@ -18566,7 +18566,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_SCIENCE.ENTITY_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -18576,12 +18576,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>{'ANNUAL_EM_SCIENCE.SUBGROUP_NAME': [('male', 'MALE'), ('the male', 'MALE'), ('male sub', 'MALE'), ('in the male', 'MALE'), ('the male sub', 'MALE')], 'ANNUAL_EM_SCIENCE.ASSESSMENT_NAME': [('Science4', 'SCIENCE4'), ('the Science4', 'SCIENCE4'), ('given the Science4', 'SCIENCE4')], 'ANNUAL_EM_SCIENCE.ENTITY_NAME': [('FORTS', 'FORTS'), ('FERRY', 'FORTS'), ('at FORTS', 'FORTS'), ('FORTS FERRY', 'FORTS'), ('2021 at FORTS', 'FORTS'), ('at FORTS FERRY', 'FORTS'), ('FORTS FERRY SCHOOL?', 'FORTS')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>{'group': {'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'sub': {'Annual_NYSESLAT.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME'}, 'assessment': {'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME'}}</t>
+          <t>{'group': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'Institution_Grouping.GROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME'}, 'sub': {'Postsecondary_Enrollment.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_NYSESLAT.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'Annual_NYSAA.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_EM_ELA.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'Annual_EM_MATH.SUBGROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME', 'Accountability_Levels.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME'}, 'assessment': {'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_MATH.ASSESSMENT_NAME'}}</t>
         </is>
       </c>
     </row>
@@ -18631,7 +18631,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>{'entity': {'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'sysdiagrams.name', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'name': {'Annual_Regents_Exams.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'sysdiagrams.name', 'Expenditures_per_Pupil.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME'}, 'year': {'Annual_EM_MATH.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_HS_ELP.YEAR', 'Accountability_Levels.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'Annual_EM_ELA.YEAR', 'Annual_NYSESLAT.YEAR', 'Expenditures_per_Pupil.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_HS_Participation_Rate.YEAR', 'Postsecondary_Enrollment.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Accountability_Status.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Annual_NYSAA.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'Annual_EM_SCIENCE.YEAR', 'Annual_Regents_Exams.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_ELP.YEAR', 'BOCES_and_N/RC.YEAR', 'Accountability_Status_by_Subgroup.YEAR'}}</t>
+          <t>{'entity': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'name': {'Accountability_Status_by_Subgroup.ENTITY_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'Accountability_Status.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'Annual_NYSAA.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'sysdiagrams.name', 'Annual_EM_ELA.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_EM_SCIENCE.ENTITY_NAME', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'Postsecondary_Enrollment.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'Institution_Grouping.ENTITY_NAME', 'Accountability_Levels.ENTITY_NAME', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'Annual_NYSESLAT.ENTITY_NAME'}, 'year': {'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.YEAR', 'Accountability_Status_by_Subgroup.YEAR', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_EM_Participation_Rate.YEAR', 'Annual_EM_MATH.YEAR', 'ACC_EM_ELP.YEAR', 'Annual_EM_SCIENCE.YEAR', 'BOCES_and_N/RC.YEAR', 'Annual_NYSESLAT.YEAR', 'Inexperienced_Teachers_and_Principals.YEAR', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'Accountability_Levels.YEAR', 'Accountability_Status.YEAR', 'Annual_Regents_Exams.YEAR', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.YEAR', 'Expenditures_per_Pupil.YEAR', 'Annual_EM_ELA.YEAR', 'Postsecondary_Enrollment.YEAR', 'Annual_NYSAA.YEAR', 'Teachers_Teaching_Out_of_Certification.YEAR', 'ACC_EM_Core_and_Weighted_Performance.YEAR', 'ACC_HS_ELP.YEAR'}}</t>
         </is>
       </c>
     </row>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>{'stations': {'tbl_Plot.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_Updates.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations_UTMs.Station_ID'}}</t>
+          <t>{'stations': {'tbl_Stations_Updates.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Station_ID'}}</t>
         </is>
       </c>
     </row>
@@ -18831,7 +18831,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>{'meter': {'tbl_Density.One_meter', 'tbl_Density.Two_meter', 'tbl_Density.One_half_meter'}}</t>
+          <t>{'meter': {'tbl_Density.One_half_meter', 'tbl_Density.One_meter', 'tbl_Density.Two_meter'}}</t>
         </is>
       </c>
     </row>
@@ -18861,7 +18861,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>{'events': {'tbl_Event_Details', 'xref_Event_Contacts'}, 'station': {'tbl_Stations_Updates', 'tbl_Stations_UTMs', 'tbl_Stations'}}</t>
+          <t>{'events': {'tbl_Event_Details', 'xref_Event_Contacts'}, 'station': {'tbl_Stations', 'tbl_Stations_Updates', 'tbl_Stations_UTMs'}}</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -18881,7 +18881,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>{'station': {'tbl_Plot.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations.Station'}}</t>
+          <t>{'station': {'tbl_Stations_Updates.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Station_ID'}}</t>
         </is>
       </c>
     </row>
@@ -18931,7 +18931,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>{'contacts': {'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Contact_ID'}}</t>
+          <t>{'contacts': {'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID'}}</t>
         </is>
       </c>
     </row>
@@ -18966,7 +18966,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Zip_Code', 'tlu_Contacts.City'}</t>
+          <t>{'tlu_Contacts.City', 'tlu_Contacts.Zip_Code'}</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -18976,7 +18976,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.CITY': [('Hilo.', 'HILO'), ('of Hilo.', 'HILO'), ('city of Hilo.', 'HILO')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -19011,12 +19011,12 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>{'event': {'tbl_Event_Details', 'xref_Event_Contacts'}, 'events': {'tbl_Event_Details', 'xref_Event_Contacts'}, 'station': {'tbl_Stations_Updates', 'tbl_Stations_UTMs', 'tbl_Stations'}}</t>
+          <t>{'event': {'tbl_Event_Details', 'xref_Event_Contacts'}, 'events': {'tbl_Event_Details', 'xref_Event_Contacts'}, 'station': {'tbl_Stations', 'tbl_Stations_Updates', 'tbl_Stations_UTMs'}}</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Events.Verified_by', 'tbl_Events.Station_ID', 'tbl_Events.Repeat_Sample', 'tbl_Events.Start_Date'}</t>
+          <t>{'tbl_Events.Start_Date', 'tbl_Events.Verified_by', 'tbl_Events.Repeat_Sample', 'tbl_Events.Event_ID', 'tbl_Events.Station_ID'}</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -19026,12 +19026,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>{'TBL_EVENTS.VERIFIED_BY': [('Lauren', 'LAUREN'), ('by Lauren', 'LAUREN'), ('Lauren Smith,', 'LAUREN'), ('by Lauren Smith,', 'LAUREN'), ('Lauren Smith, and', 'LAUREN')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>{'event': {'~TMPCLP650861.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Observations.Event_ID', 'tbl_Density.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Habitat.Event_ID'}, 'station': {'tbl_Plot.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations.Station'}, 'verified': {'tbl_Events.Verified'}}</t>
+          <t>{'event': {'tbl_Density.Event_ID', 'tbl_Observations.Event_ID', '~TMPCLP650861.Event_ID', 'tbl_Habitat.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Event_Details.Event_ID'}, 'station': {'tbl_Stations_Updates.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Station_ID'}, 'verified': {'tbl_Events.Verified'}}</t>
         </is>
       </c>
     </row>
@@ -19076,7 +19076,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.HABITAT': [('the forest', 'FOREST'), ('forest bird', 'FOREST'), ('in the forest', 'FOREST'), ('the forest bird', 'FOREST'), ('forest bird habitat?', 'FOREST')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -19166,7 +19166,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Observations.Event_ID', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>{'event': {'~TMPCLP650861.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Density.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Habitat.Event_ID'}}</t>
+          <t>{'event': {'tbl_Density.Event_ID', 'xref_Event_Contacts.Event_ID', '~TMPCLP650861.Event_ID', 'tbl_Habitat.Event_ID', 'tbl_Event_Details.Event_ID'}}</t>
         </is>
       </c>
     </row>
@@ -19231,7 +19231,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>{'name': {'sysdiagrams.name', 'tlu_Species.Common_Name'}, 'species?': {'tlu_Species.Species_Code', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'xref_Species_Alternate_Names.Species_ID'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'tlu_Species.Common_Name'}, 'species?': {'tlu_Species.Species_ID', 'tlu_Species.Species_Code', 'tbl_Observations.Species_ID', 'xref_Species_Alternate_Names.Species_ID'}}</t>
         </is>
       </c>
     </row>
@@ -19281,7 +19281,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>{'canopy': {'tbl_Habitat.Canopy_Comp', '~TMPCLP650861.Canopy_Comp'}}</t>
+          <t>{'canopy': {'~TMPCLP650861.Canopy_Comp', 'tbl_Habitat.Canopy_Comp'}}</t>
         </is>
       </c>
     </row>
@@ -19316,7 +19316,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Gust', 'tbl_Event_Details.Wind', 'tbl_Event_Details.Cloud', 'tbl_Events.Updated_by', 'tbl_Events.Event_ID', 'tbl_Events.Entered_by'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Event_Details.Gust', 'tbl_Events.Updated_by', 'tbl_Events.Entered_by', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Wind', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Cloud'}</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -19326,12 +19326,12 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>{'TBL_EVENTS.UPDATED_BY': [('Seth', 'SETH'), ('by Seth', 'SETH')], 'TBL_EVENTS.ENTERED_BY': [('Cari', 'CARI'), ('by Cari', 'CARI'), ('Cari Squibb', 'CARI'), ('by Cari Squibb', 'CARI'), ('Cari Squibb and', 'CARI')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>{'updated': {'tbl_Db_Meta.Updated_By', 'tbl_Transect.Updated_by', 'tbl_Stations_Updates.Updated_by', 'tbl_Stations_UTMs.Updated_by', 'tbl_Stations.Updated_by'}}</t>
+          <t>{'updated': {'tbl_Stations_Updates.Updated_by', 'tbl_Db_Meta.Updated_By', 'tbl_Transect.Updated_by', 'tbl_Stations.Updated_by', 'tbl_Stations_UTMs.Updated_by'}}</t>
         </is>
       </c>
     </row>
@@ -19366,7 +19366,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Observation_ID', 'tbl_Detections.Detection_ID'}</t>
+          <t>{'tbl_Detections.Detection_ID', 'tbl_Detections.Observation_ID'}</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -19481,7 +19481,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>{'name': {'sysdiagrams.name', 'tlu_Species.Common_Name'}, 'species': {'tlu_Species.Species_Code', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'xref_Species_Alternate_Names.Species_ID'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'tlu_Species.Common_Name'}, 'species': {'tlu_Species.Species_ID', 'tlu_Species.Species_Code', 'tbl_Observations.Species_ID', 'xref_Species_Alternate_Names.Species_ID'}}</t>
         </is>
       </c>
     </row>
@@ -19496,7 +19496,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>{'tlu_Species', 'xref_Species_Alternate_Names'}</t>
+          <t>{'xref_Species_Alternate_Names', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Family', 'tlu_Species.Species_ID', 'xref_Species_Alternate_Names.Species_ID', 'xref_Species_Alternate_Names.Alternate_Name', 'tlu_Species.Common_Name'}</t>
+          <t>{'tlu_Species.Common_Name', 'xref_Species_Alternate_Names.Alternate_Name', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'xref_Species_Alternate_Names.Species_ID'}</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
@@ -19526,7 +19526,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.FAMILY': [('birds', 'LARIDAE'), ('Laridae?', 'LARIDAE'), ('for birds', 'LARIDAE'), ('birds of', 'LARIDAE'), ('family Laridae?', 'LARIDAE'), ('for birds of', 'LARIDAE'), ('birds of the', 'LARIDAE'), ('the family Laridae?', 'LARIDAE')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -19596,7 +19596,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_UTMs', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Stations_UTMs'}</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station', 'tbl_Stations_UTMs.Y_final', 'tbl_Stations.Station_ID', 'tbl_Stations_UTMs.X_final', 'tbl_Stations_UTMs.Station_ID'}</t>
+          <t>{'tbl_Stations_UTMs.Station_ID', 'tbl_Stations_UTMs.X_final', 'tbl_Stations.Station_ID', 'tbl_Stations_UTMs.Y_final', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
@@ -19631,7 +19631,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>{'station': {'tbl_Plot.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Events.Station_ID'}, 'coordinates': {'tbl_Stations.Geo_Datum'}}</t>
+          <t>{'station': {'tbl_Events.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Plot.Station_ID'}, 'coordinates': {'tbl_Stations.Geo_Datum'}}</t>
         </is>
       </c>
     </row>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'tlu_Contacts.Position_Title'}</t>
+          <t>{'tlu_Contacts.Organization', 'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Position_Title'}</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -19676,7 +19676,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.FIRST_NAME': [('Patrick', 'PATRICK'), ('is Patrick', 'PATRICK'), ("Patrick Hart's", 'PATRICK'), ('what is Patrick', 'PATRICK'), ("is Patrick Hart's", 'PATRICK'), ("Patrick Hart's position", 'PATRICK')], 'TLU_CONTACTS.LAST_NAME': [("Hart's", 'HART'), ("Patrick Hart's", 'HART'), ("Hart's position", 'HART'), ("is Patrick Hart's", 'HART'), ("Patrick Hart's position", 'HART'), ("Hart's position and", 'HART')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
@@ -19716,7 +19716,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.Island', 'tbl_Sites.Site_Name', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -19776,7 +19776,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>{'TBL_LOCATIONS.LOC_NAME': [('Northwest', 'NORTHWEST'), ('called Northwest', 'NORTHWEST'), ('location called Northwest', 'NORTHWEST')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Scientific_Name', 'tlu_Species.Family', 'tlu_Species.Habitat', 'tlu_Species.Common_Name'}</t>
+          <t>{'tlu_Species.Habitat', 'tlu_Species.Common_Name', 'tlu_Species.Family', 'tlu_Species.Scientific_Name'}</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -19826,7 +19826,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.HABITAT': [('occupy Forest', 'FOREST'), ('Forest Bird', 'FOREST'), ('that occupy Forest', 'FOREST'), ('occupy Forest Bird', 'FOREST')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -19861,7 +19861,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>{'station': {'tbl_Stations_Updates', 'tbl_Stations'}}</t>
+          <t>{'station': {'tbl_Stations', 'tbl_Stations_Updates'}}</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -19876,12 +19876,12 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>{'TBL_STATIONS_UTMS.DATUM': [('WGS84', 'WGS84'), ('using WGS84', 'WGS84'), ('WGS84 and', 'WGS84'), ('using NAD83', 'WGS84'), ('NAD83 datums?', 'WGS84'), ('documented using WGS84', 'WGS84'), ('using WGS84 and', 'WGS84'), ('WGS84 and how', 'WGS84'), ('documented using NAD83', 'WGS84'), ('using NAD83 datums?', 'WGS84'), ('NAD83', 'NAD83'), ('using NAD83', 'NAD83'), ('documented using NAD83', 'NAD83')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>{'station': {'tbl_Plot.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_Updates.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations_UTMs.Station_ID'}, 'WGS84': {'tbl_Stations.Geo_Datum'}}</t>
+          <t>{'station': {'tbl_Stations_Updates.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Station_ID'}, 'WGS84': {'tbl_Stations.Geo_Datum'}}</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19896,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details', 'tbl_Observations'}</t>
+          <t>{'tbl_Observations', 'tbl_Event_Details'}</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -19916,7 +19916,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Cloud', 'tbl_Observations.Event_ID'}</t>
+          <t>{'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Cloud'}</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>{'tbl_Transect', 'tbl_Locations', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Transect', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -20016,7 +20016,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>{'tbl_Transect.Location_ID', 'tbl_Transect.Transect_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Island', 'tbl_Stations.Transect_ID'}</t>
+          <t>{'tbl_Transect.Location_ID', 'tbl_Stations.Transect_ID', 'tbl_Locations.Island', 'tbl_Locations.Location_ID', 'tbl_Transect.Transect_ID'}</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -20031,7 +20031,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>{'stations': {'tbl_Plot.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_Updates.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations_UTMs.Station_ID'}}</t>
+          <t>{'stations': {'tbl_Stations_Updates.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Station_ID'}}</t>
         </is>
       </c>
     </row>
@@ -20061,7 +20061,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>{'stations': {'tbl_Stations_Updates', 'tbl_Stations_UTMs', 'tbl_Stations'}, 'stations,': {'tbl_Stations_Updates', 'tbl_Stations_UTMs', 'tbl_Stations'}}</t>
+          <t>{'stations': {'tbl_Stations', 'tbl_Stations_Updates', 'tbl_Stations_UTMs'}, 'stations,': {'tbl_Stations', 'tbl_Stations_Updates', 'tbl_Stations_UTMs'}}</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -20081,7 +20081,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>{'stations': {'tbl_Plot.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_Updates.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations_UTMs.Station_ID'}}</t>
+          <t>{'stations': {'tbl_Stations_Updates.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Station_ID'}}</t>
         </is>
       </c>
     </row>
@@ -20096,7 +20096,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details', 'tbl_Observations', 'tlu_Species', 'tbl_Events'}</t>
+          <t>{'tbl_Observations', 'tbl_Event_Details', 'tlu_Species', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -20116,7 +20116,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Family', 'tbl_Event_Details.Event_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Rain', 'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_Code'}</t>
+          <t>{'tlu_Species.Species_Code', 'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Species_ID', 'tbl_Event_Details.Rain', 'tlu_Species.Family', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -20146,7 +20146,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'xref_Event_Contacts', 'tlu_Contacts', 'tlu_Species'}</t>
+          <t>{'tbl_Observations', 'tlu_Contacts', 'tlu_Species', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -20166,7 +20166,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts.Contact_ID', 'tbl_Observations.Event_ID', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.First_Name', 'tlu_Species.Scientific_Name', 'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name', 'tbl_Observations.Species_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Contact_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Scientific_Name', 'tlu_Species.Species_ID', 'xref_Event_Contacts.Event_ID'}</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -20176,7 +20176,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.LAST_NAME': [('Hart', 'HART'), ('Patrick Hart', 'HART'), ('Hart observed?', 'HART'), ('has Patrick Hart', 'HART'), ('Hart observed? List', 'HART')], 'TLU_CONTACTS.FIRST_NAME': [('Patrick', 'PATRICK'), ('has Patrick', 'PATRICK'), ('Patrick Hart', 'PATRICK'), ('species has Patrick', 'PATRICK'), ('has Patrick Hart', 'PATRICK')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -20196,7 +20196,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events', 'tbl_Stations'}</t>
+          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Stations', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Event_ID', 'tbl_Stations.Station_ID', 'tlu_Species.Common_Name', 'tbl_Events.Event_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station'}</t>
+          <t>{'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Station_ID'}</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -20231,7 +20231,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>{'station': {'tbl_Plot.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID'}, 'station,': {'tbl_Plot.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID'}, 'stations': {'tbl_Plot.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID'}, 'name': {'sysdiagrams.name'}, 'names': {'sysdiagrams.name'}, 'species': {'xref_Species_Alternate_Names.Species_ID'}, 'species.': {'xref_Species_Alternate_Names.Species_ID'}}</t>
+          <t>{'station': {'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID'}, 'station,': {'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID'}, 'stations': {'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID'}, 'name': {'sysdiagrams.name'}, 'names': {'sysdiagrams.name'}, 'species': {'xref_Species_Alternate_Names.Species_ID'}, 'species.': {'xref_Species_Alternate_Names.Species_ID'}}</t>
         </is>
       </c>
     </row>
@@ -20246,7 +20246,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Stations'}</t>
+          <t>{'tbl_Stations', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -20266,7 +20266,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Stations.Station', 'tbl_Stations.Station_ID'}</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
@@ -20281,7 +20281,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>{'event': {'~TMPCLP650861.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Observations.Event_ID', 'tbl_Events.Event_ID', 'tbl_Density.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Habitat.Event_ID'}, 'station': {'tbl_Plot.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID'}}</t>
+          <t>{'event': {'tbl_Events.Event_ID', 'tbl_Density.Event_ID', 'tbl_Observations.Event_ID', '~TMPCLP650861.Event_ID', 'tbl_Habitat.Event_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Event_Details.Event_ID'}, 'station': {'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID'}}</t>
         </is>
       </c>
     </row>
@@ -20346,7 +20346,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events', 'tbl_Stations'}</t>
+          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Stations', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -20366,7 +20366,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station_ID', 'tlu_Species.Common_Name'}</t>
+          <t>{'tbl_Observations.Event_ID', 'tlu_Species.Common_Name', 'tbl_Events.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID'}</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
@@ -20376,12 +20376,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.COMMON_NAME': [('Hawaii', 'HAWAII'), ('the Hawaii', 'HAWAII'), ('Hawaii Amakihi', 'HAWAII'), ('has the Hawaii', 'HAWAII'), ('the Hawaii Amakihi', 'HAWAII'), ('Hawaii Amakihi been', 'HAWAII')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>{'stations': {'tbl_Plot.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID'}}</t>
+          <t>{'stations': {'tbl_Stations_Updates.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID'}}</t>
         </is>
       </c>
     </row>
@@ -20396,7 +20396,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events', 'tbl_Stations'}</t>
+          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Stations', 'tbl_Events'}</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -20416,7 +20416,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station_ID', 'tlu_Species.Common_Name'}</t>
+          <t>{'tbl_Observations.Event_ID', 'tlu_Species.Common_Name', 'tbl_Events.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID'}</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
@@ -20426,12 +20426,12 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>{'TLU_SPECIES.COMMON_NAME': [('Hawaii', 'HAWAII'), ('name Hawaii', 'HAWAII'), ('Hawaii Amakihi', 'HAWAII'), ('name Hawaii Amakihi', 'HAWAII'), ('Hawaii Amakihi been', 'HAWAII')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>{'stations': {'tbl_Plot.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID'}, 'name': {'sysdiagrams.name'}}</t>
+          <t>{'stations': {'tbl_Stations_Updates.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID'}, 'name': {'sysdiagrams.name'}}</t>
         </is>
       </c>
     </row>
@@ -20446,7 +20446,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts', 'tlu_Contacts'}</t>
+          <t>{'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.First_Name', 'tlu_Contacts.Organization', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.First_Name', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Organization'}</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>{'TLU_CONTACTS.ORGANIZATION': [('national', 'NATIONAL'), ('the national', 'NATIONAL'), ('national park', 'NATIONAL'), ('of the national', 'NATIONAL')]}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20496,7 +20496,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tbl_Habitat', 'tlu_Species', 'tbl_Events'}</t>
+          <t>{'tbl_Observations', 'tlu_Species', 'tbl_Events', 'tbl_Habitat'}</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -20516,7 +20516,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Event_ID', 'tlu_Species.Scientific_Name', 'tlu_Species.Common_Name', 'tbl_Events.Event_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Habitat.Canopy_Height', 'tbl_Habitat.Event_ID'}</t>
+          <t>{'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Scientific_Name', 'tbl_Habitat.Canopy_Height', 'tlu_Species.Species_ID', 'tbl_Habitat.Event_ID'}</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -20546,7 +20546,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'tbl_Sites', 'xref_Event_Contacts', 'tlu_Species', 'tbl_Events', 'tbl_Transect', 'tbl_Observations', 'tbl_Locations', 'xref_Species_Alternate_Names', 'tbl_Stations'}</t>
+          <t>{'tbl_Observations', 'tlu_Contacts', 'tbl_Stations', 'tbl_Events', 'tbl_Sites', 'tlu_Species', 'xref_Species_Alternate_Names', 'xref_Event_Contacts', 'tbl_Transect', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -20566,7 +20566,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>{'tbl_Transect.Transect_ID', 'xref_Species_Alternate_Names.Species_ID', 'tlu_Contacts.Contact_ID', 'tbl_Stations.Lat_final', 'tbl_Observations.Event_ID', 'tbl_Locations.Site_ID', 'tbl_Transect.Location_ID', 'tbl_Sites.Site_ID', 'tbl_Events.Event_ID', 'tbl_Transect.Transect_Type', 'xref_Event_Contacts.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Events.Event_Notes', 'tbl_Stations.Transect_ID', 'tbl_Stations.Station', 'tbl_Transect.Transect', 'xref_Event_Contacts.Contact_ID', 'tlu_Species.Family', 'tbl_Stations.Station_ID', 'tbl_Sites.Site_Name', 'xref_Species_Alternate_Names.Alternate_Name', 'tlu_Species.Scientific_Name', 'tlu_Species.Common_Name', 'tbl_Locations.Loc_Name', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Events.Station_ID', 'tbl_Locations.Island', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Species.Common_Name', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Sites.Site_ID', 'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tlu_Species.Family', 'tbl_Locations.Location_ID', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID', 'tbl_Stations.Transect_ID', 'tbl_Transect.Transect', 'tlu_Species.Scientific_Name', 'tbl_Stations.Lat_final', 'tbl_Events.Event_Notes', 'tbl_Sites.Site_Name', 'tbl_Stations.Station_ID', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Contact_ID', 'tbl_Locations.Loc_Name', 'tlu_Contacts.Contact_ID', 'xref_Species_Alternate_Names.Species_ID', 'tbl_Locations.Site_ID', 'tbl_Transect.Transect_Type', 'tbl_Observations.Event_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station', 'tlu_Species.Species_ID', 'tbl_Locations.Island', 'xref_Event_Contacts.Event_ID'}</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
@@ -20581,7 +20581,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>{'event': {'~TMPCLP650861.Event_ID', 'tbl_Density.Event_ID', 'tbl_Habitat.Event_ID', 'tbl_Event_Details.Event_ID'}, 'station,': {'tbl_Plot.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID'}, "station's": {'tbl_Plot.Station_ID', 'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID'}, 'name': {'sysdiagrams.name'}, 'name,': {'sysdiagrams.name'}, 'names': {'sysdiagrams.name'}, 'notes,': {'tlu_Contacts.Contact_Notes'}}</t>
+          <t>{'event': {'~TMPCLP650861.Event_ID', 'tbl_Habitat.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Density.Event_ID'}, 'station,': {'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID'}, "station's": {'tbl_Stations_Updates.Station_ID', 'tbl_Stations_UTMs.Station_ID', 'tbl_Plot.Station_ID'}, 'name': {'sysdiagrams.name'}, 'name,': {'sysdiagrams.name'}, 'names': {'sysdiagrams.name'}, 'notes,': {'tlu_Contacts.Contact_Notes'}}</t>
         </is>
       </c>
     </row>
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>{'name': {'tbl_Sites.Site_Name', 'sysdiagrams.name', 'tlu_Species.Common_Name'}}</t>
+          <t>{'name': {'sysdiagrams.name', 'tlu_Species.Common_Name', 'tbl_Sites.Site_Name'}}</t>
         </is>
       </c>
     </row>
@@ -20716,12 +20716,12 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>{'OPEX.PayeeStree', 'OPEX.PayeeName', 'OPEX.PayeeState', 'OUDP.Code', 'OPEX.PayeeCity', 'OPEX.PayeeZip', 'OPEX.Department', 'OPEX.PayCountry', 'OUDP.Name'}</t>
+          <t>{'OPEX.PayeeStree', 'OPEX.Department', 'OPEX.PayCountry', 'OUDP.Code', 'OUDP.Name', 'OPEX.PayeeCity', 'OPEX.PayeeName', 'OPEX.PayeeState', 'OPEX.PayeeZip'}</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>{'OPEX.PayeeStree', 'OPEX.PayeeName', 'OPEX.PayeeState', 'OUDP.Code', 'OPEX.PayeeCity', 'OPEX.PayeeZip', 'OPEX.Department', 'OPEX.PayCountry', 'OUDP.Name'}</t>
+          <t>{'OPEX.PayeeStree', 'OPEX.Department', 'OPEX.PayCountry', 'OUDP.Code', 'OUDP.Name', 'OPEX.PayeeCity', 'OPEX.PayeeName', 'OPEX.PayeeState', 'OPEX.PayeeZip'}</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -20746,12 +20746,12 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>{'OCHO', 'CHO1'}</t>
+          <t>{'CHO1', 'OCHO'}</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>{'OCHO', 'CHO1'}</t>
+          <t>{'CHO1', 'OCHO'}</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -20766,12 +20766,12 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>{'OCHO.AcctNum', 'OCHO.CheckKey', 'CHO1.CheckKey'}</t>
+          <t>{'CHO1.CheckKey', 'OCHO.AcctNum', 'OCHO.CheckKey'}</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>{'OCHO.AcctNum', 'OCHO.CheckKey', 'CHO1.CheckKey'}</t>
+          <t>{'CHO1.CheckKey', 'OCHO.AcctNum', 'OCHO.CheckKey'}</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -20816,12 +20816,12 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>{'OCHO.AcctNum', 'OCHO.DdctPrcnt', 'OCHO.Deduction'}</t>
+          <t>{'OCHO.DdctPrcnt', 'OCHO.Deduction', 'OCHO.AcctNum'}</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>{'OCHO.AcctNum', 'OCHO.DdctPrcnt', 'OCHO.Deduction'}</t>
+          <t>{'OCHO.DdctPrcnt', 'OCHO.Deduction', 'OCHO.AcctNum'}</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -20866,12 +20866,12 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>{'ORCT.TrsfrSumFC', 'ORCT.CardCode', 'ORCT.DocCurr', 'ORCT.CreateDate', 'ORCT.CardName', 'ORCT.Address'}</t>
+          <t>{'ORCT.CreateDate', 'ORCT.DocCurr', 'ORCT.TrsfrSumFC', 'ORCT.Address', 'ORCT.CardCode', 'ORCT.CardName'}</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>{'ORCT.TrsfrSumFC', 'ORCT.CardCode', 'ORCT.DocCurr', 'ORCT.CreateDate', 'ORCT.CardName', 'ORCT.Address'}</t>
+          <t>{'ORCT.CreateDate', 'ORCT.DocCurr', 'ORCT.TrsfrSumFC', 'ORCT.Address', 'ORCT.CardCode', 'ORCT.CardName'}</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -20916,12 +20916,12 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>{'RCT1.CountryCod', 'RCT1.AcctNum', 'ORCT.CheckSumFC', 'ORCT.DocNum', 'RCT1.DocNum', 'ORCT.WTOnhldPst'}</t>
+          <t>{'ORCT.CheckSumFC', 'ORCT.WTOnhldPst', 'RCT1.CountryCod', 'RCT1.AcctNum', 'ORCT.DocNum', 'RCT1.DocNum'}</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>{'RCT1.CountryCod', 'RCT1.AcctNum', 'ORCT.CheckSumFC', 'ORCT.DocNum', 'RCT1.DocNum', 'ORCT.WTOnhldPst'}</t>
+          <t>{'ORCT.CheckSumFC', 'ORCT.WTOnhldPst', 'RCT1.CountryCod', 'RCT1.AcctNum', 'ORCT.DocNum', 'RCT1.DocNum'}</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -21016,12 +21016,12 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>{'ORCT.DocNum', 'RCT3.DocNum', 'RCT3.FirstSum'}</t>
+          <t>{'RCT3.DocNum', 'ORCT.DocNum', 'RCT3.FirstSum'}</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>{'ORCT.DocNum', 'RCT3.DocNum', 'RCT3.FirstSum'}</t>
+          <t>{'RCT3.DocNum', 'ORCT.DocNum', 'RCT3.FirstSum'}</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -21066,12 +21066,12 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>{'OCRH.CardCode', 'OCRH.DepNum', 'OCRH.DeposDate', 'OCRH.RctAbs'}</t>
+          <t>{'OCRH.CardCode', 'OCRH.DeposDate', 'OCRH.RctAbs', 'OCRH.DepNum'}</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>{'OCRH.CardCode', 'OCRH.DepNum', 'OCRH.DeposDate', 'OCRH.RctAbs'}</t>
+          <t>{'OCRH.CardCode', 'OCRH.DeposDate', 'OCRH.RctAbs', 'OCRH.DepNum'}</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -21116,12 +21116,12 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>{'OCTG.ExtraDays', 'OCTG.InstNum', 'OCTG.VATFirst', 'OCTG.PymntGroup'}</t>
+          <t>{'OCTG.PymntGroup', 'OCTG.VATFirst', 'OCTG.InstNum', 'OCTG.ExtraDays'}</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>{'OCTG.ExtraDays', 'OCTG.InstNum', 'OCTG.VATFirst', 'OCTG.PymntGroup'}</t>
+          <t>{'OCTG.PymntGroup', 'OCTG.VATFirst', 'OCTG.InstNum', 'OCTG.ExtraDays'}</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -21166,12 +21166,12 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>{'OCRG.GroupName', 'OCRD.GroupCode', 'OCRG.GroupCode'}</t>
+          <t>{'OCRD.GroupCode', 'OCRG.GroupCode', 'OCRG.GroupName'}</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>{'OCRG.GroupName', 'OCRD.GroupCode', 'OCRG.GroupCode'}</t>
+          <t>{'OCRD.GroupCode', 'OCRG.GroupCode', 'OCRG.GroupName'}</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -21216,12 +21216,12 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>{'OCPR.Name', 'OCPR.Address', 'OCPR.Cellolar', 'OCPR.Position', 'OCPR.E_MailL'}</t>
+          <t>{'OCPR.E_MailL', 'OCPR.Cellolar', 'OCPR.Name', 'OCPR.Address', 'OCPR.Position'}</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>{'OCPR.Name', 'OCPR.Address', 'OCPR.Cellolar', 'OCPR.Position', 'OCPR.E_MailL'}</t>
+          <t>{'OCPR.E_MailL', 'OCPR.Cellolar', 'OCPR.Name', 'OCPR.Address', 'OCPR.Position'}</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -21296,12 +21296,12 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>{'OCOG', 'OSLP'}</t>
+          <t>{'OSLP', 'OCOG'}</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>{'OCOG', 'OSLP'}</t>
+          <t>{'OSLP', 'OCOG'}</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -21316,12 +21316,12 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>{'OCOG.GroupName', 'OSLP.SlpName', 'OSLP.GroupCode', 'OCOG.GroupCode'}</t>
+          <t>{'OSLP.SlpName', 'OCOG.GroupCode', 'OCOG.GroupName', 'OSLP.GroupCode'}</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>{'OCOG.GroupName', 'OSLP.SlpName', 'OSLP.GroupCode', 'OCOG.GroupCode'}</t>
+          <t>{'OSLP.SlpName', 'OCOG.GroupCode', 'OCOG.GroupName', 'OSLP.GroupCode'}</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -21346,12 +21346,12 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>{'OCOG', 'OSLP'}</t>
+          <t>{'OSLP', 'OCOG'}</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>{'OCOG', 'OSLP'}</t>
+          <t>{'OSLP', 'OCOG'}</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -21366,12 +21366,12 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>{'OSLP.Email', 'OCOG.GroupCode', 'OSLP.Mobil', 'OCOG.GroupName', 'OSLP.SlpName', 'OSLP.GroupCode'}</t>
+          <t>{'OCOG.GroupCode', 'OSLP.Mobil', 'OSLP.Email', 'OSLP.GroupCode', 'OSLP.SlpName', 'OCOG.GroupName'}</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>{'OSLP.Email', 'OCOG.GroupCode', 'OSLP.Mobil', 'OCOG.GroupName', 'OSLP.SlpName', 'OSLP.GroupCode'}</t>
+          <t>{'OCOG.GroupCode', 'OSLP.Mobil', 'OSLP.Email', 'OSLP.GroupCode', 'OSLP.SlpName', 'OCOG.GroupName'}</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -21416,12 +21416,12 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>{'OCRD.CDPNum', 'CRD1.TaxCode', 'OCRD.CardCode', 'OCRD.PymCode', 'CRD1.CardCode'}</t>
+          <t>{'CRD1.TaxCode', 'OCRD.CDPNum', 'OCRD.PymCode', 'CRD1.CardCode', 'OCRD.CardCode'}</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>{'OCRD.CDPNum', 'CRD1.TaxCode', 'OCRD.CardCode', 'OCRD.PymCode', 'CRD1.CardCode'}</t>
+          <t>{'CRD1.TaxCode', 'OCRD.CDPNum', 'OCRD.PymCode', 'CRD1.CardCode', 'OCRD.CardCode'}</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -21466,12 +21466,12 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>{'OCLG.ClgCode', 'OCLG.CntctDate', 'OCLG.CntctTime', 'OCLG.Details', 'OCLG.CreateDate'}</t>
+          <t>{'OCLG.ClgCode', 'OCLG.CntctTime', 'OCLG.Details', 'OCLG.CreateDate', 'OCLG.CntctDate'}</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>{'OCLG.ClgCode', 'OCLG.CntctDate', 'OCLG.CntctTime', 'OCLG.Details', 'OCLG.CreateDate'}</t>
+          <t>{'OCLG.ClgCode', 'OCLG.CntctTime', 'OCLG.Details', 'OCLG.CreateDate', 'OCLG.CntctDate'}</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -21516,12 +21516,12 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>{'OCRD.CardCode', 'OCRD.City', 'OCRB.City', 'OCRD.BankCode', 'OCRB.CardCode', 'OCRD.CardName', 'OCRB.Account', 'OCRB.Country', 'OCRB.Branch', 'OCRD.Country', 'OCRB.BankCode'}</t>
+          <t>{'OCRB.CardCode', 'OCRD.CardName', 'OCRB.Account', 'OCRB.City', 'OCRD.BankCode', 'OCRD.City', 'OCRB.BankCode', 'OCRB.Country', 'OCRD.Country', 'OCRB.Branch', 'OCRD.CardCode'}</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>{'OCRD.CardCode', 'OCRD.City', 'OCRB.City', 'OCRD.BankCode', 'OCRB.CardCode', 'OCRD.CardName', 'OCRB.Account', 'OCRB.Country', 'OCRB.Branch', 'OCRD.Country', 'OCRB.BankCode'}</t>
+          <t>{'OCRB.CardCode', 'OCRD.CardName', 'OCRB.Account', 'OCRB.City', 'OCRD.BankCode', 'OCRD.City', 'OCRB.BankCode', 'OCRB.Country', 'OCRD.Country', 'OCRB.Branch', 'OCRD.CardCode'}</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -21566,12 +21566,12 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>{'OCRD.Currency', 'OCRD.Balance', 'OCRD.PymCode'}</t>
+          <t>{'OCRD.PymCode', 'OCRD.Currency', 'OCRD.Balance'}</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>{'OCRD.Currency', 'OCRD.Balance', 'OCRD.PymCode'}</t>
+          <t>{'OCRD.PymCode', 'OCRD.Currency', 'OCRD.Balance'}</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -21616,12 +21616,12 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>{'TGG1.Position', 'OTGG.TargetCode', 'TGG1.E_Mail', 'TGG1.LicTradNum', 'OTGG.TargetType', 'TGG1.TargetCode'}</t>
+          <t>{'TGG1.Position', 'OTGG.TargetType', 'TGG1.TargetCode', 'TGG1.LicTradNum', 'TGG1.E_Mail', 'OTGG.TargetCode'}</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>{'TGG1.Position', 'OTGG.TargetCode', 'TGG1.E_Mail', 'TGG1.LicTradNum', 'OTGG.TargetType', 'TGG1.TargetCode'}</t>
+          <t>{'TGG1.Position', 'OTGG.TargetType', 'TGG1.TargetCode', 'TGG1.LicTradNum', 'TGG1.E_Mail', 'OTGG.TargetCode'}</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -21646,12 +21646,12 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>{'OACT', 'JDT1'}</t>
+          <t>{'JDT1', 'OACT'}</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>{'OACT', 'JDT1'}</t>
+          <t>{'JDT1', 'OACT'}</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -21666,12 +21666,12 @@
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>{'OACT.AcctName', 'JDT1.Account', 'OACT.AcctCode'}</t>
+          <t>{'OACT.AcctCode', 'OACT.AcctName', 'JDT1.Account'}</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>{'OACT.AcctName', 'JDT1.Account', 'OACT.AcctCode'}</t>
+          <t>{'OACT.AcctCode', 'OACT.AcctName', 'JDT1.Account'}</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -21716,12 +21716,12 @@
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>{'JDT1.DueDate', 'JDT1.Debit', 'JDT1.Credit'}</t>
+          <t>{'JDT1.Credit', 'JDT1.DueDate', 'JDT1.Debit'}</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>{'JDT1.DueDate', 'JDT1.Debit', 'JDT1.Credit'}</t>
+          <t>{'JDT1.Credit', 'JDT1.DueDate', 'JDT1.Debit'}</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -21766,12 +21766,12 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>{'OACT.AcctCode', 'OACT.AcctName', 'BGT1.DebLTotal', 'BGT1.CredLTotal', 'BGT1.AcctCode'}</t>
+          <t>{'BGT1.CredLTotal', 'OACT.AcctName', 'BGT1.AcctCode', 'OACT.AcctCode', 'BGT1.DebLTotal'}</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>{'OACT.AcctCode', 'OACT.AcctName', 'BGT1.DebLTotal', 'BGT1.CredLTotal', 'BGT1.AcctCode'}</t>
+          <t>{'BGT1.CredLTotal', 'OACT.AcctName', 'BGT1.AcctCode', 'OACT.AcctCode', 'BGT1.DebLTotal'}</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -21796,12 +21796,12 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>{'OACT', 'OACG'}</t>
+          <t>{'OACG', 'OACT'}</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>{'OACT', 'OACG'}</t>
+          <t>{'OACG', 'OACT'}</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -21816,12 +21816,12 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>{'OACT.CurrTotal', 'OACG.AbsId', 'OACT.AcctName', 'OACG.Name', 'OACT.Category'}</t>
+          <t>{'OACT.CurrTotal', 'OACT.AcctName', 'OACG.AbsId', 'OACG.Name', 'OACT.Category'}</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>{'OACT.CurrTotal', 'OACG.AbsId', 'OACT.AcctName', 'OACG.Name', 'OACT.Category'}</t>
+          <t>{'OACT.CurrTotal', 'OACT.AcctName', 'OACG.AbsId', 'OACG.Name', 'OACT.Category'}</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -21846,12 +21846,12 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>{'TAX1', 'OTAX'}</t>
+          <t>{'OTAX', 'TAX1'}</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>{'TAX1', 'OTAX'}</t>
+          <t>{'OTAX', 'TAX1'}</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -21866,12 +21866,12 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>{'TAX1.VatPercent', 'OTAX.SrcObjAbs', 'TAX1.VatSum', 'TAX1.TaxCode', 'OTAX.AbsEntry', 'TAX1.AbsEntry'}</t>
+          <t>{'TAX1.AbsEntry', 'TAX1.VatPercent', 'OTAX.SrcObjAbs', 'OTAX.AbsEntry', 'TAX1.VatSum', 'TAX1.TaxCode'}</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>{'TAX1.VatPercent', 'OTAX.SrcObjAbs', 'TAX1.VatSum', 'TAX1.TaxCode', 'OTAX.AbsEntry', 'TAX1.AbsEntry'}</t>
+          <t>{'TAX1.AbsEntry', 'TAX1.VatPercent', 'OTAX.SrcObjAbs', 'OTAX.AbsEntry', 'TAX1.VatSum', 'TAX1.TaxCode'}</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -22016,12 +22016,12 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>{'OFRC.Name', 'OFRC.FatherNum'}</t>
+          <t>{'OFRC.FatherNum', 'OFRC.Name'}</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>{'OFRC.Name', 'OFRC.FatherNum'}</t>
+          <t>{'OFRC.FatherNum', 'OFRC.Name'}</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -22046,12 +22046,12 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>{'FRC1', 'OFRC'}</t>
+          <t>{'OFRC', 'FRC1'}</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>{'FRC1', 'OFRC'}</t>
+          <t>{'OFRC', 'FRC1'}</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -22066,12 +22066,12 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>{'FRC1.CalcMethod', 'OFRC.CatId', 'FRC1.CFWId', 'FRC1.CalMethod2', 'FRC1.CatId', 'FRC1.CalMethod3', 'OFRC.Name'}</t>
+          <t>{'FRC1.CalMethod3', 'FRC1.CFWId', 'OFRC.CatId', 'FRC1.CalcMethod', 'FRC1.CatId', 'FRC1.CalMethod2', 'OFRC.Name'}</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>{'FRC1.CalcMethod', 'OFRC.CatId', 'FRC1.CFWId', 'FRC1.CalMethod2', 'FRC1.CatId', 'FRC1.CalMethod3', 'OFRC.Name'}</t>
+          <t>{'FRC1.CalMethod3', 'FRC1.CFWId', 'OFRC.CatId', 'FRC1.CalcMethod', 'FRC1.CatId', 'FRC1.CalMethod2', 'OFRC.Name'}</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -22166,12 +22166,12 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>{'PMG1.DSCRIPTION', 'PMG1.EXPCOSTS', 'PMG1.START'}</t>
+          <t>{'PMG1.DSCRIPTION', 'PMG1.START', 'PMG1.EXPCOSTS'}</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>{'PMG1.DSCRIPTION', 'PMG1.EXPCOSTS', 'PMG1.START'}</t>
+          <t>{'PMG1.DSCRIPTION', 'PMG1.START', 'PMG1.EXPCOSTS'}</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -22246,12 +22246,12 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>{'ODAB', 'DAB1'}</t>
+          <t>{'DAB1', 'ODAB'}</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>{'ODAB', 'DAB1'}</t>
+          <t>{'DAB1', 'ODAB'}</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -22266,12 +22266,12 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>{'ODAB.DashbdCode', 'ODAB.AbsEntry', 'DAB1.DsbEntry'}</t>
+          <t>{'ODAB.AbsEntry', 'DAB1.DsbEntry', 'ODAB.DashbdCode'}</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>{'ODAB.DashbdCode', 'ODAB.AbsEntry', 'DAB1.DsbEntry'}</t>
+          <t>{'ODAB.AbsEntry', 'DAB1.DsbEntry', 'ODAB.DashbdCode'}</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -22296,12 +22296,12 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>{'ODAB', 'DAB1'}</t>
+          <t>{'DAB1', 'ODAB'}</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>{'ODAB', 'DAB1'}</t>
+          <t>{'DAB1', 'ODAB'}</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -22316,12 +22316,12 @@
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>{'ODAB.AbsEntry', 'ODAB.Status', 'DAB1.QryCtgry', 'ODAB.DashbdName', 'DAB1.QryName', 'DAB1.DsbEntry', 'ODAB.DashbdPath'}</t>
+          <t>{'DAB1.QryCtgry', 'ODAB.DashbdPath', 'DAB1.QryName', 'ODAB.AbsEntry', 'ODAB.DashbdName', 'ODAB.Status', 'DAB1.DsbEntry'}</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>{'ODAB.AbsEntry', 'ODAB.Status', 'DAB1.QryCtgry', 'ODAB.DashbdName', 'DAB1.QryName', 'DAB1.DsbEntry', 'ODAB.DashbdPath'}</t>
+          <t>{'DAB1.QryCtgry', 'ODAB.DashbdPath', 'DAB1.QryName', 'ODAB.AbsEntry', 'ODAB.DashbdName', 'ODAB.Status', 'DAB1.DsbEntry'}</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -22366,12 +22366,12 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>{'OKPS.FieldsNum', 'OKPS.KpsType', 'OKPS.KpsCode', 'OKPS.KpsName'}</t>
+          <t>{'OKPS.KpsType', 'OKPS.KpsCode', 'OKPS.FieldsNum', 'OKPS.KpsName'}</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>{'OKPS.FieldsNum', 'OKPS.KpsType', 'OKPS.KpsCode', 'OKPS.KpsName'}</t>
+          <t>{'OKPS.KpsType', 'OKPS.KpsCode', 'OKPS.FieldsNum', 'OKPS.KpsName'}</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -22416,12 +22416,12 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>{'ORSC.ResGrpCod', 'RSC4.ResCode', 'ORSC.ResCode', 'ORSC.StdCost1', 'RSC4.EmpID', 'ORSC.ResType', 'ORSC.ResName'}</t>
+          <t>{'ORSC.ResType', 'RSC4.EmpID', 'ORSC.ResName', 'ORSC.ResCode', 'ORSC.ResGrpCod', 'ORSC.StdCost1', 'RSC4.ResCode'}</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>{'ORSC.ResGrpCod', 'RSC4.ResCode', 'ORSC.ResCode', 'ORSC.StdCost1', 'RSC4.EmpID', 'ORSC.ResType', 'ORSC.ResName'}</t>
+          <t>{'ORSC.ResType', 'RSC4.EmpID', 'ORSC.ResName', 'ORSC.ResCode', 'ORSC.ResGrpCod', 'ORSC.StdCost1', 'RSC4.ResCode'}</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -22466,12 +22466,12 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>{'RSC6.WeekDay', 'ORSC.ResCode', 'RSC6.ResCode', 'RSC6.CapFactor1', 'ORSC.ResName'}</t>
+          <t>{'RSC6.ResCode', 'ORSC.ResName', 'ORSC.ResCode', 'RSC6.WeekDay', 'RSC6.CapFactor1'}</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>{'RSC6.WeekDay', 'ORSC.ResCode', 'RSC6.ResCode', 'RSC6.CapFactor1', 'ORSC.ResName'}</t>
+          <t>{'RSC6.ResCode', 'ORSC.ResName', 'ORSC.ResCode', 'RSC6.WeekDay', 'RSC6.CapFactor1'}</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -22516,12 +22516,12 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>{'OPMG.AbsEntry', 'OPMG.NAME', 'PMG2.SOLUTION', 'PMG2.AbsEntry', 'PMG2.REMARKS'}</t>
+          <t>{'PMG2.SOLUTION', 'PMG2.AbsEntry', 'PMG2.REMARKS', 'OPMG.AbsEntry', 'OPMG.NAME'}</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>{'OPMG.AbsEntry', 'OPMG.NAME', 'PMG2.SOLUTION', 'PMG2.AbsEntry', 'PMG2.REMARKS'}</t>
+          <t>{'PMG2.SOLUTION', 'PMG2.AbsEntry', 'PMG2.REMARKS', 'OPMG.AbsEntry', 'OPMG.NAME'}</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -22566,12 +22566,12 @@
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>{'OCPT._Top', 'CPT1._Left', 'CPT1._Top', 'CPT1._Bottom', 'CPT1.AbsEntry', 'CPT1._Right', 'OCPT.AbsEntry', 'OCPT._Left', 'OCPT.Name'}</t>
+          <t>{'OCPT.AbsEntry', 'OCPT.Name', 'OCPT._Top', 'CPT1._Top', 'CPT1.AbsEntry', 'OCPT._Left', 'CPT1._Left', 'CPT1._Right', 'CPT1._Bottom'}</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>{'OCPT._Top', 'CPT1._Left', 'CPT1._Top', 'CPT1._Bottom', 'CPT1.AbsEntry', 'CPT1._Right', 'OCPT.AbsEntry', 'OCPT._Left', 'OCPT.Name'}</t>
+          <t>{'OCPT.AbsEntry', 'OCPT.Name', 'OCPT._Top', 'CPT1._Top', 'CPT1.AbsEntry', 'OCPT._Left', 'CPT1._Left', 'CPT1._Right', 'CPT1._Bottom'}</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -22666,12 +22666,12 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>{'OHEM.firstName', 'OHEM.lastName', 'OHEM.empID', 'HTM1.teamID', 'HTM1.empID', 'OHTM.name', 'OHTM.teamID'}</t>
+          <t>{'OHEM.lastName', 'OHEM.firstName', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID', 'OHEM.empID', 'OHTM.teamID'}</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>{'OHEM.firstName', 'OHEM.lastName', 'OHEM.empID', 'HTM1.teamID', 'HTM1.empID', 'OHTM.name', 'OHTM.teamID'}</t>
+          <t>{'OHEM.lastName', 'OHEM.firstName', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID', 'OHEM.empID', 'OHTM.teamID'}</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -22766,12 +22766,12 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'HTM1.teamID', 'OHEM.salary', 'HTM1.empID', 'OHTM.name', 'OHTM.teamID'}</t>
+          <t>{'OHEM.salary', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID', 'OHEM.empID', 'OHTM.teamID'}</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'HTM1.teamID', 'OHEM.salary', 'HTM1.empID', 'OHTM.name', 'OHTM.teamID'}</t>
+          <t>{'OHEM.salary', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID', 'OHEM.empID', 'OHTM.teamID'}</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -22816,12 +22816,12 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>{'OHEM.firstName', 'OHEM.lastName', 'OHEM.officeTel', 'OHEM.homeTel', 'OHEM.pager', 'OHEM.mobile'}</t>
+          <t>{'OHEM.officeTel', 'OHEM.mobile', 'OHEM.pager', 'OHEM.firstName', 'OHEM.homeTel', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>{'OHEM.firstName', 'OHEM.lastName', 'OHEM.officeTel', 'OHEM.homeTel', 'OHEM.pager', 'OHEM.mobile'}</t>
+          <t>{'OHEM.officeTel', 'OHEM.mobile', 'OHEM.pager', 'OHEM.firstName', 'OHEM.homeTel', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -22866,12 +22866,12 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>{'OHEM.firstName', 'OHEM.lastName', 'OHEM.FNameSP', 'OHEM.SurnameSP'}</t>
+          <t>{'OHEM.SurnameSP', 'OHEM.firstName', 'OHEM.lastName', 'OHEM.FNameSP'}</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>{'OHEM.firstName', 'OHEM.lastName', 'OHEM.FNameSP', 'OHEM.SurnameSP'}</t>
+          <t>{'OHEM.SurnameSP', 'OHEM.firstName', 'OHEM.lastName', 'OHEM.FNameSP'}</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -22916,12 +22916,12 @@
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.nChildren', 'OHTY.name', 'OHTY.typeID', 'OHEM.StatusOfE', 'OHEM.type'}</t>
+          <t>{'OHTY.typeID', 'OHEM.lastName', 'OHEM.nChildren', 'OHTY.name', 'OHEM.type', 'OHEM.StatusOfE'}</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.nChildren', 'OHTY.name', 'OHTY.typeID', 'OHEM.StatusOfE', 'OHEM.type'}</t>
+          <t>{'OHTY.typeID', 'OHEM.lastName', 'OHEM.nChildren', 'OHTY.name', 'OHEM.type', 'OHEM.StatusOfE'}</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -22966,12 +22966,12 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>{'OHTY.name', 'OHTY.typeID'}</t>
+          <t>{'OHTY.typeID', 'OHTY.name'}</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>{'OHTY.name', 'OHTY.typeID'}</t>
+          <t>{'OHTY.typeID', 'OHTY.name'}</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -23016,12 +23016,12 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>{'OHEM.HeaInsCode', 'OHEM.empID', 'OHEM.lastName', 'OHEM.HeaInsType', 'OHEM.HeaInsName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.HeaInsCode', 'OHEM.HeaInsType', 'OHEM.HeaInsName', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>{'OHEM.HeaInsCode', 'OHEM.empID', 'OHEM.lastName', 'OHEM.HeaInsType', 'OHEM.HeaInsName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.HeaInsCode', 'OHEM.HeaInsType', 'OHEM.HeaInsName', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -23066,12 +23066,12 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>{'OHEM.JTCode', 'OHEM.lastName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.JTCode'}</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>{'OHEM.JTCode', 'OHEM.lastName'}</t>
+          <t>{'OHEM.lastName', 'OHEM.JTCode'}</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -23116,12 +23116,12 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'OHEM.VacCurYear', 'HTM1.teamID', 'HTM1.empID', 'OHTM.name', 'OHTM.teamID'}</t>
+          <t>{'OHTM.name', 'OHEM.VacCurYear', 'HTM1.teamID', 'HTM1.empID', 'OHEM.empID', 'OHTM.teamID'}</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'OHEM.VacCurYear', 'HTM1.teamID', 'HTM1.empID', 'OHTM.name', 'OHTM.teamID'}</t>
+          <t>{'OHTM.name', 'OHEM.VacCurYear', 'HTM1.teamID', 'HTM1.empID', 'OHEM.empID', 'OHTM.teamID'}</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -23146,12 +23146,12 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHEM'}</t>
+          <t>{'OHEM', 'HTM1'}</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>{'HTM1', 'OHEM'}</t>
+          <t>{'OHEM', 'HTM1'}</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -23166,12 +23166,12 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>{'OHEM.CPF', 'OHEM.empID', 'HTM1.teamID', 'HTM1.empID'}</t>
+          <t>{'OHEM.CPF', 'HTM1.empID', 'OHEM.empID', 'HTM1.teamID'}</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>{'OHEM.CPF', 'OHEM.empID', 'HTM1.teamID', 'HTM1.empID'}</t>
+          <t>{'OHEM.CPF', 'HTM1.empID', 'OHEM.empID', 'HTM1.teamID'}</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -23216,12 +23216,12 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>{'OHEM.MunKey', 'OHEM.InTaxLiabi', 'OHEM.TaxClass', 'OHTY.name', 'OHTY.typeID', 'OHEM.type'}</t>
+          <t>{'OHTY.typeID', 'OHEM.MunKey', 'OHEM.TaxClass', 'OHTY.name', 'OHEM.type', 'OHEM.InTaxLiabi'}</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>{'OHEM.MunKey', 'OHEM.InTaxLiabi', 'OHEM.TaxClass', 'OHTY.name', 'OHTY.typeID', 'OHEM.type'}</t>
+          <t>{'OHTY.typeID', 'OHEM.MunKey', 'OHEM.TaxClass', 'OHTY.name', 'OHEM.type', 'OHEM.InTaxLiabi'}</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -23246,12 +23246,12 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>{'HEM6', 'OHEM'}</t>
+          <t>{'OHEM', 'HEM6'}</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>{'HEM6', 'OHEM'}</t>
+          <t>{'OHEM', 'HEM6'}</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -23266,12 +23266,12 @@
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>{'HEM6.empID', 'OHEM.empID', 'HEM6.roleID', 'OHEM.salary'}</t>
+          <t>{'OHEM.salary', 'HEM6.roleID', 'OHEM.empID', 'HEM6.empID'}</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>{'HEM6.empID', 'OHEM.empID', 'HEM6.roleID', 'OHEM.salary'}</t>
+          <t>{'OHEM.salary', 'HEM6.roleID', 'OHEM.empID', 'HEM6.empID'}</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -23316,12 +23316,12 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>{'OHEM.homeCounty', 'OHEM.jobTitle', 'OHEM.homeCity', 'OHEM.homeCountr', 'OHEM.brthCountr', 'OHEM.birthDate'}</t>
+          <t>{'OHEM.homeCity', 'OHEM.brthCountr', 'OHEM.homeCounty', 'OHEM.jobTitle', 'OHEM.birthDate', 'OHEM.homeCountr'}</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>{'OHEM.homeCounty', 'OHEM.jobTitle', 'OHEM.homeCity', 'OHEM.homeCountr', 'OHEM.brthCountr', 'OHEM.birthDate'}</t>
+          <t>{'OHEM.homeCity', 'OHEM.brthCountr', 'OHEM.homeCounty', 'OHEM.jobTitle', 'OHEM.birthDate', 'OHEM.homeCountr'}</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -23366,12 +23366,12 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>{'OHEM.citizenshp', 'OHEM.lastName', 'OHEM.passportNo', 'OHEM.StatusOfP'}</t>
+          <t>{'OHEM.citizenshp', 'OHEM.StatusOfP', 'OHEM.passportNo', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>{'OHEM.citizenshp', 'OHEM.lastName', 'OHEM.passportNo', 'OHEM.StatusOfP'}</t>
+          <t>{'OHEM.citizenshp', 'OHEM.StatusOfP', 'OHEM.passportNo', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -23416,12 +23416,12 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>{'OHEM.firstName', 'OHEM.lastName', 'OHEM.homeCity', 'OHEM.emplCost', 'OHEM.workCity'}</t>
+          <t>{'OHEM.homeCity', 'OHEM.firstName', 'OHEM.emplCost', 'OHEM.workCity', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>{'OHEM.firstName', 'OHEM.lastName', 'OHEM.homeCity', 'OHEM.emplCost', 'OHEM.workCity'}</t>
+          <t>{'OHEM.homeCity', 'OHEM.firstName', 'OHEM.emplCost', 'OHEM.workCity', 'OHEM.lastName'}</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -23466,12 +23466,12 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'OHEM.homeCity', 'HTM1.teamID', 'OHEM.MunKey', 'OHEM.workCity', 'OHTM.teamID', 'OHEM.officeTel', 'OHEM.homeTel', 'OHTM.name', 'HTM1.empID'}</t>
+          <t>{'OHEM.homeCity', 'OHEM.officeTel', 'OHEM.MunKey', 'OHTM.name', 'OHEM.empID', 'OHTM.teamID', 'HTM1.empID', 'OHEM.homeTel', 'HTM1.teamID', 'OHEM.workCity'}</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'OHEM.homeCity', 'HTM1.teamID', 'OHEM.MunKey', 'OHEM.workCity', 'OHTM.teamID', 'OHEM.officeTel', 'OHEM.homeTel', 'OHTM.name', 'HTM1.empID'}</t>
+          <t>{'OHEM.homeCity', 'OHEM.officeTel', 'OHEM.MunKey', 'OHTM.name', 'OHEM.empID', 'OHTM.teamID', 'HTM1.empID', 'OHEM.homeTel', 'HTM1.teamID', 'OHEM.workCity'}</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -23516,12 +23516,12 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'HTM1.teamID', 'OHEM.StatusOfP', 'OHTM.teamID', 'OHEM.StreetNoH', 'OHEM.StatusOfE', 'OHTM.name', 'HTM1.empID', 'OHEM.StreetNoW'}</t>
+          <t>{'OHEM.StatusOfP', 'OHTM.name', 'OHEM.StreetNoW', 'OHEM.StatusOfE', 'OHEM.empID', 'OHTM.teamID', 'OHEM.StreetNoH', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>{'OHEM.empID', 'HTM1.teamID', 'OHEM.StatusOfP', 'OHTM.teamID', 'OHEM.StreetNoH', 'OHEM.StatusOfE', 'OHTM.name', 'HTM1.empID', 'OHEM.StreetNoW'}</t>
+          <t>{'OHEM.StatusOfP', 'OHTM.name', 'OHEM.StreetNoW', 'OHEM.StatusOfE', 'OHEM.empID', 'OHTM.teamID', 'OHEM.StreetNoH', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -23566,12 +23566,12 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>{'OHEM.PymMeth', 'OHEM.AddiCurr', 'OHEM.ExemptCurr', 'OHEM.TaxOName'}</t>
+          <t>{'OHEM.TaxOName', 'OHEM.AddiCurr', 'OHEM.ExemptCurr', 'OHEM.PymMeth'}</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>{'OHEM.PymMeth', 'OHEM.AddiCurr', 'OHEM.ExemptCurr', 'OHEM.TaxOName'}</t>
+          <t>{'OHEM.TaxOName', 'OHEM.AddiCurr', 'OHEM.ExemptCurr', 'OHEM.PymMeth'}</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -23616,12 +23616,12 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.homeBlock', 'OHEM.homeStreet', 'OHEM.homeState', 'OHEM.martStatus', 'OHEM.homeZip'}</t>
+          <t>{'OHEM.homeZip', 'OHEM.martStatus', 'OHEM.homeState', 'OHEM.homeBlock', 'OHEM.lastName', 'OHEM.homeStreet'}</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.homeBlock', 'OHEM.homeStreet', 'OHEM.homeState', 'OHEM.martStatus', 'OHEM.homeZip'}</t>
+          <t>{'OHEM.homeZip', 'OHEM.martStatus', 'OHEM.homeState', 'OHEM.homeBlock', 'OHEM.lastName', 'OHEM.homeStreet'}</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -23666,12 +23666,12 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>{'OITM.ItemName', 'OITM.IsCommited', 'OITM.OnOrder', 'OITM.OnHand'}</t>
+          <t>{'OITM.OnOrder', 'OITM.OnHand', 'OITM.IsCommited', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>{'OITM.ItemName', 'OITM.IsCommited', 'OITM.OnOrder', 'OITM.OnHand'}</t>
+          <t>{'OITM.OnOrder', 'OITM.OnHand', 'OITM.IsCommited', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -23716,12 +23716,12 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.ItemName', 'ITM1.Price', 'ITM1.ItemCode', 'OITM.IsCommited'}</t>
+          <t>{'OITM.IsCommited', 'ITM1.ItemCode', 'OITM.ItemCode', 'ITM1.Price', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.ItemName', 'ITM1.Price', 'ITM1.ItemCode', 'OITM.IsCommited'}</t>
+          <t>{'OITM.IsCommited', 'ITM1.ItemCode', 'OITM.ItemCode', 'ITM1.Price', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -23766,12 +23766,12 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.ItemName', 'ITM2.ItemCode', 'OITM.Consig', 'OITM.LastPurPrc', 'ITM2.VendorCode'}</t>
+          <t>{'ITM2.VendorCode', 'ITM2.ItemCode', 'OITM.LastPurPrc', 'OITM.ItemCode', 'OITM.Consig', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.ItemName', 'ITM2.ItemCode', 'OITM.Consig', 'OITM.LastPurPrc', 'ITM2.VendorCode'}</t>
+          <t>{'ITM2.VendorCode', 'ITM2.ItemCode', 'OITM.LastPurPrc', 'OITM.ItemCode', 'OITM.Consig', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -23796,12 +23796,12 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>{'OITM', 'ITM4'}</t>
+          <t>{'ITM4', 'OITM'}</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>{'OITM', 'ITM4'}</t>
+          <t>{'ITM4', 'OITM'}</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -23816,12 +23816,12 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.ItemName', 'ITM4.ItemCode', 'ITM4.Height1', 'ITM4.Length1', 'ITM4.QtyPerPack', 'ITM4.Width1', 'ITM4.Volume'}</t>
+          <t>{'ITM4.Height1', 'ITM4.Volume', 'ITM4.ItemCode', 'OITM.ItemName', 'ITM4.Width1', 'OITM.ItemCode', 'ITM4.Length1', 'ITM4.QtyPerPack'}</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.ItemName', 'ITM4.ItemCode', 'ITM4.Height1', 'ITM4.Length1', 'ITM4.QtyPerPack', 'ITM4.Width1', 'ITM4.Volume'}</t>
+          <t>{'ITM4.Height1', 'ITM4.Volume', 'ITM4.ItemCode', 'OITM.ItemName', 'ITM4.Width1', 'OITM.ItemCode', 'ITM4.Length1', 'ITM4.QtyPerPack'}</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -23866,12 +23866,12 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>{'ITM7.RemainDays', 'ITM7.UsefulLife', 'ITM7.DprArea', 'ITM7.RemainLife'}</t>
+          <t>{'ITM7.DprArea', 'ITM7.RemainLife', 'ITM7.RemainDays', 'ITM7.UsefulLife'}</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>{'ITM7.RemainDays', 'ITM7.UsefulLife', 'ITM7.DprArea', 'ITM7.RemainLife'}</t>
+          <t>{'ITM7.DprArea', 'ITM7.RemainLife', 'ITM7.RemainDays', 'ITM7.UsefulLife'}</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>{'OPKG.PkgType', 'OPKG.Volume'}</t>
+          <t>{'OPKG.Volume', 'OPKG.PkgType'}</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>{'OPKG.PkgType', 'OPKG.Volume'}</t>
+          <t>{'OPKG.Volume', 'OPKG.PkgType'}</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -23966,12 +23966,12 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>{'OBCD.BcdCode', 'OITM.ItemName', 'OITM.ItemCode', 'OBCD.ItemCode', 'OBCD.UomEntry'}</t>
+          <t>{'OBCD.UomEntry', 'OBCD.BcdCode', 'OITM.ItemCode', 'OITM.ItemName', 'OBCD.ItemCode'}</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>{'OBCD.BcdCode', 'OITM.ItemName', 'OITM.ItemCode', 'OBCD.ItemCode', 'OBCD.UomEntry'}</t>
+          <t>{'OBCD.UomEntry', 'OBCD.BcdCode', 'OITM.ItemCode', 'OITM.ItemName', 'OBCD.ItemCode'}</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -24016,12 +24016,12 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>{'OBFC.UpdateDate', 'OBFC.DataSource', 'OBFC.DispName', 'OBFC.Activated'}</t>
+          <t>{'OBFC.Activated', 'OBFC.DataSource', 'OBFC.DispName', 'OBFC.UpdateDate'}</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>{'OBFC.UpdateDate', 'OBFC.DataSource', 'OBFC.DispName', 'OBFC.Activated'}</t>
+          <t>{'OBFC.Activated', 'OBFC.DataSource', 'OBFC.DispName', 'OBFC.UpdateDate'}</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -24066,12 +24066,12 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITB.ItmsGrpCod'}</t>
+          <t>{'OITB.ItmsGrpNam', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITB.ItmsGrpCod'}</t>
+          <t>{'OITB.ItmsGrpNam', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -24096,12 +24096,12 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>{'OITM', 'OITB', 'ITM4'}</t>
+          <t>{'ITM4', 'OITM', 'OITB'}</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>{'OITM', 'OITB', 'ITM4'}</t>
+          <t>{'ITM4', 'OITM', 'OITB'}</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -24116,12 +24116,12 @@
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam', 'ITM4.ItemCode', 'OITB.ItmsGrpCod', 'ITM4.Volume'}</t>
+          <t>{'OITB.ItmsGrpNam', 'OITM.ItemCode', 'ITM4.Volume', 'ITM4.ItemCode', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>{'OITM.ItemCode', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam', 'ITM4.ItemCode', 'OITB.ItmsGrpCod', 'ITM4.Volume'}</t>
+          <t>{'OITB.ItmsGrpNam', 'OITM.ItemCode', 'ITM4.Volume', 'ITM4.ItemCode', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -24146,12 +24146,12 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>{'OECM', 'ECM1'}</t>
+          <t>{'ECM1', 'OECM'}</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>{'OECM', 'ECM1'}</t>
+          <t>{'ECM1', 'OECM'}</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -24166,12 +24166,12 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>{'OECM.Code', 'ECM1.Code', 'ECM1.ParamName', 'OECM.Descr', 'ECM1.ParamPrms'}</t>
+          <t>{'ECM1.Code', 'ECM1.ParamPrms', 'OECM.Code', 'ECM1.ParamName', 'OECM.Descr'}</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>{'OECM.Code', 'ECM1.Code', 'ECM1.ParamName', 'OECM.Descr', 'ECM1.ParamPrms'}</t>
+          <t>{'ECM1.Code', 'ECM1.ParamPrms', 'OECM.Code', 'ECM1.ParamName', 'OECM.Descr'}</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -24196,12 +24196,12 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>{'OECM', 'ECM4'}</t>
+          <t>{'ECM4', 'OECM'}</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>{'OECM', 'ECM4'}</t>
+          <t>{'ECM4', 'OECM'}</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -24216,12 +24216,12 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>{'ECM4.Code', 'OECM.Code', 'ECM4.ObjXPath', 'OECM.Descr', 'ECM4.FieldXPath'}</t>
+          <t>{'ECM4.ObjXPath', 'ECM4.Code', 'OECM.Code', 'OECM.Descr', 'ECM4.FieldXPath'}</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>{'ECM4.Code', 'OECM.Code', 'ECM4.ObjXPath', 'OECM.Descr', 'ECM4.FieldXPath'}</t>
+          <t>{'ECM4.ObjXPath', 'ECM4.Code', 'OECM.Code', 'OECM.Descr', 'ECM4.FieldXPath'}</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -24316,12 +24316,12 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>{'OQAG.UpdateDate', 'OQAG.AUTHGRPCD', 'OQAG.AUTHGRPN', 'OQAG.CreateDate', 'OQAG.LogInstanc'}</t>
+          <t>{'OQAG.CreateDate', 'OQAG.UpdateDate', 'OQAG.AUTHGRPCD', 'OQAG.AUTHGRPN', 'OQAG.LogInstanc'}</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>{'OQAG.UpdateDate', 'OQAG.AUTHGRPCD', 'OQAG.AUTHGRPN', 'OQAG.CreateDate', 'OQAG.LogInstanc'}</t>
+          <t>{'OQAG.CreateDate', 'OQAG.UpdateDate', 'OQAG.AUTHGRPCD', 'OQAG.AUTHGRPN', 'OQAG.LogInstanc'}</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -24416,12 +24416,12 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>{'RDOC.ScreenFont', 'RDOC.EmailFont', 'RDOC.TypeCode'}</t>
+          <t>{'RDOC.EmailFont', 'RDOC.ScreenFont', 'RDOC.TypeCode'}</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>{'RDOC.ScreenFont', 'RDOC.EmailFont', 'RDOC.TypeCode'}</t>
+          <t>{'RDOC.EmailFont', 'RDOC.ScreenFont', 'RDOC.TypeCode'}</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -24446,12 +24446,12 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>{'RTYP', 'RDOC'}</t>
+          <t>{'RDOC', 'RTYP'}</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>{'RTYP', 'RDOC'}</t>
+          <t>{'RDOC', 'RTYP'}</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -24496,12 +24496,12 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>{'RITM', 'RDOC'}</t>
+          <t>{'RDOC', 'RITM'}</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>{'RITM', 'RDOC'}</t>
+          <t>{'RDOC', 'RITM'}</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -24516,12 +24516,12 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>{'RDOC.DocCode', 'RDOC.DocName', 'RITM.DocCode', 'RDOC.TypeCode'}</t>
+          <t>{'RDOC.DocCode', 'RDOC.TypeCode', 'RDOC.DocName', 'RITM.DocCode'}</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>{'RDOC.DocCode', 'RDOC.DocName', 'RITM.DocCode', 'RDOC.TypeCode'}</t>
+          <t>{'RDOC.DocCode', 'RDOC.TypeCode', 'RDOC.DocName', 'RITM.DocCode'}</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -24566,12 +24566,12 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>{'RDOC.SwpInEmail', 'RDOC.ExtOnErr', 'RDOC.NumRepArs'}</t>
+          <t>{'RDOC.NumRepArs', 'RDOC.SwpInEmail', 'RDOC.ExtOnErr'}</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>{'RDOC.SwpInEmail', 'RDOC.ExtOnErr', 'RDOC.NumRepArs'}</t>
+          <t>{'RDOC.NumRepArs', 'RDOC.SwpInEmail', 'RDOC.ExtOnErr'}</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -24616,12 +24616,12 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>{'RITM.BrdrGreen', 'RITM.FGGreen', 'RITM.BrdrRed', 'RITM.MrkrGreen', 'RITM.BGGreen', 'RITM.Height', 'RITM.MrkrBlue', 'RITM.FGBlue', 'RITM.MrkrRed', 'RITM.BGBlue', 'RITM.FGRed', 'RITM.BGRed', 'RITM.BrdrBlue'}</t>
+          <t>{'RITM.FGRed', 'RITM.FGGreen', 'RITM.FGBlue', 'RITM.BGBlue', 'RITM.BrdrGreen', 'RITM.BGGreen', 'RITM.BrdrBlue', 'RITM.BrdrRed', 'RITM.MrkrGreen', 'RITM.MrkrRed', 'RITM.BGRed', 'RITM.Height', 'RITM.MrkrBlue'}</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>{'RITM.BrdrGreen', 'RITM.FGGreen', 'RITM.BrdrRed', 'RITM.MrkrGreen', 'RITM.BGGreen', 'RITM.Height', 'RITM.MrkrBlue', 'RITM.FGBlue', 'RITM.MrkrRed', 'RITM.BGBlue', 'RITM.FGRed', 'RITM.BGRed', 'RITM.BrdrBlue'}</t>
+          <t>{'RITM.FGRed', 'RITM.FGGreen', 'RITM.FGBlue', 'RITM.BGBlue', 'RITM.BrdrGreen', 'RITM.BGGreen', 'RITM.BrdrBlue', 'RITM.BrdrRed', 'RITM.MrkrGreen', 'RITM.MrkrRed', 'RITM.BGRed', 'RITM.Height', 'RITM.MrkrBlue'}</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -24716,12 +24716,12 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>{'OOPR.SumProfL', 'OOPR.PrcnProf', 'OOPR.SumProfS', 'OOPR.Status'}</t>
+          <t>{'OOPR.SumProfS', 'OOPR.PrcnProf', 'OOPR.Status', 'OOPR.SumProfL'}</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>{'OOPR.SumProfL', 'OOPR.PrcnProf', 'OOPR.SumProfS', 'OOPR.Status'}</t>
+          <t>{'OOPR.SumProfS', 'OOPR.PrcnProf', 'OOPR.Status', 'OOPR.SumProfL'}</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -24746,12 +24746,12 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>{'OOPR', 'OPR1'}</t>
+          <t>{'OPR1', 'OOPR'}</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>{'OOPR', 'OPR1'}</t>
+          <t>{'OPR1', 'OOPR'}</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -24766,12 +24766,12 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>{'OPR1.OpprId', 'OOPR.CardCode', 'OOPR.OpprId', 'OPR1.ClosePrcnt'}</t>
+          <t>{'OOPR.CardCode', 'OOPR.OpprId', 'OPR1.ClosePrcnt', 'OPR1.OpprId'}</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>{'OPR1.OpprId', 'OOPR.CardCode', 'OOPR.OpprId', 'OPR1.ClosePrcnt'}</t>
+          <t>{'OOPR.CardCode', 'OOPR.OpprId', 'OPR1.ClosePrcnt', 'OPR1.OpprId'}</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -24816,12 +24816,12 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>{'OPR1.WtSumLoc', 'OPR1.CloseDate', 'OPR1.WtSumSys'}</t>
+          <t>{'OPR1.WtSumSys', 'OPR1.WtSumLoc', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>{'OPR1.WtSumLoc', 'OPR1.CloseDate', 'OPR1.WtSumSys'}</t>
+          <t>{'OPR1.WtSumSys', 'OPR1.WtSumLoc', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -24866,12 +24866,12 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>{'OPRC.DataSource', 'OPRC.PrcCode', 'OPRC.Balance', 'OPRC.PrcName', 'OPRC.Active', 'OPRC.ValidFrom'}</t>
+          <t>{'OPRC.Balance', 'OPRC.PrcName', 'OPRC.DataSource', 'OPRC.PrcCode', 'OPRC.ValidFrom', 'OPRC.Active'}</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>{'OPRC.DataSource', 'OPRC.PrcCode', 'OPRC.Balance', 'OPRC.PrcName', 'OPRC.Active', 'OPRC.ValidFrom'}</t>
+          <t>{'OPRC.Balance', 'OPRC.PrcName', 'OPRC.DataSource', 'OPRC.PrcCode', 'OPRC.ValidFrom', 'OPRC.Active'}</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -24916,12 +24916,12 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>{'OOPR.RealProfS', 'OOPR.RealSumSys', 'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.CardName', 'OOPR.CloPrcnt'}</t>
+          <t>{'OOPR.CardName', 'OOPR.RealProfS', 'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.RealSumSys', 'OOPR.CloPrcnt'}</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>{'OOPR.RealProfS', 'OOPR.RealSumSys', 'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.CardName', 'OOPR.CloPrcnt'}</t>
+          <t>{'OOPR.CardName', 'OOPR.RealProfS', 'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.RealSumSys', 'OOPR.CloPrcnt'}</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -24966,12 +24966,12 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>{'OPR1.CloseDate', 'OPR1.OpenDate', 'OPR1.ClosePrcnt'}</t>
+          <t>{'OPR1.ClosePrcnt', 'OPR1.OpenDate', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>{'OPR1.CloseDate', 'OPR1.OpenDate', 'OPR1.ClosePrcnt'}</t>
+          <t>{'OPR1.ClosePrcnt', 'OPR1.OpenDate', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -25016,12 +25016,12 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>{'OOPR.OpenDate', 'OOPR.Status'}</t>
+          <t>{'OOPR.Status', 'OOPR.OpenDate'}</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>{'OOPR.OpenDate', 'OOPR.Status'}</t>
+          <t>{'OOPR.Status', 'OOPR.OpenDate'}</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -25116,12 +25116,12 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>{'OOPR.SumProfL', 'OOPR.CreateDate'}</t>
+          <t>{'OOPR.CreateDate', 'OOPR.SumProfL'}</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>{'OOPR.SumProfL', 'OOPR.CreateDate'}</t>
+          <t>{'OOPR.CreateDate', 'OOPR.SumProfL'}</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -25146,12 +25146,12 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>{'CTR1', 'OCTR'}</t>
+          <t>{'OCTR', 'CTR1'}</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>{'CTR1', 'OCTR'}</t>
+          <t>{'OCTR', 'CTR1'}</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -25166,12 +25166,12 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>{'CTR1.ContractID', 'OCTR.ContractID'}</t>
+          <t>{'OCTR.ContractID', 'CTR1.ContractID'}</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>{'CTR1.ContractID', 'OCTR.ContractID'}</t>
+          <t>{'OCTR.ContractID', 'CTR1.ContractID'}</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -25216,12 +25216,12 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>{'OCTR.CstmrName', 'OCTR.ContractID', 'OCTR.Renewal'}</t>
+          <t>{'OCTR.ContractID', 'OCTR.Renewal', 'OCTR.CstmrName'}</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>{'OCTR.CstmrName', 'OCTR.ContractID', 'OCTR.Renewal'}</t>
+          <t>{'OCTR.ContractID', 'OCTR.Renewal', 'OCTR.CstmrName'}</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -25366,12 +25366,12 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>{'OQUE.email', 'OQUE.descript', 'OQUE.manager'}</t>
+          <t>{'OQUE.manager', 'OQUE.descript', 'OQUE.email'}</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>{'OQUE.email', 'OQUE.descript', 'OQUE.manager'}</t>
+          <t>{'OQUE.manager', 'OQUE.descript', 'OQUE.email'}</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -25446,12 +25446,12 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>{'OSCO', 'OSCL'}</t>
+          <t>{'OSCL', 'OSCO'}</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>{'OSCO', 'OSCL'}</t>
+          <t>{'OSCL', 'OSCO'}</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -25466,12 +25466,12 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>{'OSCL.origin', 'OSCL.respOnDate', 'OSCO.originID', 'OSCO.Name', 'OSCL.resolOnDat', 'OSCL.AssignDate'}</t>
+          <t>{'OSCO.Name', 'OSCL.origin', 'OSCL.resolOnDat', 'OSCL.AssignDate', 'OSCO.originID', 'OSCL.respOnDate'}</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>{'OSCL.origin', 'OSCL.respOnDate', 'OSCO.originID', 'OSCO.Name', 'OSCL.resolOnDat', 'OSCL.AssignDate'}</t>
+          <t>{'OSCO.Name', 'OSCL.origin', 'OSCL.resolOnDat', 'OSCL.AssignDate', 'OSCO.originID', 'OSCL.respOnDate'}</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -25516,12 +25516,12 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>{'OSCL.BPShipAddr', 'OSCL.custmrName', 'OSCL.BPBillAddr', 'OSCL.BPE_Mail'}</t>
+          <t>{'OSCL.BPBillAddr', 'OSCL.BPE_Mail', 'OSCL.custmrName', 'OSCL.BPShipAddr'}</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>{'OSCL.BPShipAddr', 'OSCL.custmrName', 'OSCL.BPBillAddr', 'OSCL.BPE_Mail'}</t>
+          <t>{'OSCL.BPBillAddr', 'OSCL.BPE_Mail', 'OSCL.custmrName', 'OSCL.BPShipAddr'}</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -25566,12 +25566,12 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>{'OCTR.CstmrName', 'OSCL.customer', 'OCTR.CstmrCode'}</t>
+          <t>{'OCTR.CstmrName', 'OCTR.CstmrCode', 'OSCL.customer'}</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>{'OCTR.CstmrName', 'OSCL.customer', 'OCTR.CstmrCode'}</t>
+          <t>{'OCTR.CstmrName', 'OCTR.CstmrCode', 'OSCL.customer'}</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
